--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="760" windowWidth="25600" windowHeight="16060" tabRatio="653"/>
+    <workbookView xWindow="3340" yWindow="3360" windowWidth="25600" windowHeight="16060" tabRatio="764" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,16 @@
     <sheet name="Boundaries" sheetId="2" r:id="rId3"/>
     <sheet name="Wetlands" sheetId="5" r:id="rId4"/>
     <sheet name="Economics" sheetId="7" r:id="rId5"/>
-    <sheet name="Blank" sheetId="4" r:id="rId6"/>
+    <sheet name="Highway Costs" sheetId="4" r:id="rId6"/>
     <sheet name="ATS Locations" sheetId="10" r:id="rId7"/>
     <sheet name="R Variables" sheetId="12" r:id="rId8"/>
     <sheet name="R Population" sheetId="13" r:id="rId9"/>
     <sheet name="MS units" sheetId="14" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="453">
   <si>
     <t>Parameters</t>
   </si>
@@ -1351,6 +1355,42 @@
   </si>
   <si>
     <t>final_yr</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>{FHWA, 2014, #85081}</t>
+  </si>
+  <si>
+    <t>Total US lane length</t>
+  </si>
+  <si>
+    <t>{FHWA, 2015, #84398}</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Minimum US lane width</t>
+  </si>
+  <si>
+    <t>Minimum US highway area</t>
+  </si>
+  <si>
+    <t>US highway CapEx</t>
+  </si>
+  <si>
+    <t>US highway OpEx</t>
+  </si>
+  <si>
+    <t>US highway TotEx</t>
+  </si>
+  <si>
+    <t>$ ha yr-1</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1509,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1507">
+  <cellStyleXfs count="1515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3062,7 +3110,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1507">
+  <cellStyles count="1515">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3816,6 +3864,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4569,6 +4621,10 @@
     <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7302,11 +7358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100595800"/>
-        <c:axId val="2100592728"/>
+        <c:axId val="2084700072"/>
+        <c:axId val="2084703160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100595800"/>
+        <c:axId val="2084700072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7316,7 +7372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100592728"/>
+        <c:crossAx val="2084703160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7324,7 +7380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100592728"/>
+        <c:axId val="2084703160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7335,7 +7391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100595800"/>
+        <c:crossAx val="2084700072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10447,11 +10503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100536056"/>
-        <c:axId val="2100533032"/>
+        <c:axId val="2084121720"/>
+        <c:axId val="2084124776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100536056"/>
+        <c:axId val="2084121720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10461,7 +10517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100533032"/>
+        <c:crossAx val="2084124776"/>
         <c:crossesAt val="-1.2E8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10469,7 +10525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100533032"/>
+        <c:axId val="2084124776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10480,7 +10536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100536056"/>
+        <c:crossAx val="2084121720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10566,6 +10622,47 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="A"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="66">
+          <cell r="R66">
+            <v>8766049.1899999995</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="HF2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="67">
+          <cell r="E67">
+            <v>105423740.05783682</v>
+          </cell>
+          <cell r="I67">
+            <v>51442240.04216323</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10892,8 +10989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11541,11 +11638,15 @@
       <c r="C30" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>1.60934</v>
+      </c>
+      <c r="H30" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -11558,13 +11659,13 @@
         <v>199</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31">
+        <v>446</v>
+      </c>
+      <c r="G31" s="1">
         <v>1000</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>390</v>
+      <c r="H31" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -11603,9 +11704,23 @@
       <c r="C34" t="s">
         <v>336</v>
       </c>
+      <c r="F34" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:13">
       <c r="B35" s="1"/>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="40" t="s">
@@ -12386,7 +12501,7 @@
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A80:C80"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12404,7 +12519,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21483,7 +21598,7 @@
         <v>34</v>
       </c>
       <c r="S29" s="1">
-        <f>S28/(Settings!$G$4*Settings!$G$31)</f>
+        <f>S28/(Settings!$G$4*Settings!$G$35)</f>
         <v>1.2269478E-3</v>
       </c>
       <c r="T29" t="s">
@@ -21650,7 +21765,7 @@
         <v>34</v>
       </c>
       <c r="S45" s="1">
-        <f>S44/(Settings!$G$4*Settings!$G$31)</f>
+        <f>S44/(Settings!$G$4*Settings!$G$35)</f>
         <v>3.9695370000000004E-3</v>
       </c>
       <c r="T45" t="s">
@@ -22945,92 +23060,171 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B12:D36"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="12" spans="2:4">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1"/>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="1">
+        <f>[1]A!$R$66</f>
+        <v>8766049.1899999995</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'Highway Costs'!B2*Settings!G31*Settings!G30</f>
+        <v>14107553603.434601</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4/Settings!G22</f>
+        <v>3.6575998829568039</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5*B3</f>
+        <v>51599786408.729233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6/Settings!G3</f>
+        <v>5159978.6408729237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" s="1">
+        <f>1000*[2]HF2!$E$67</f>
+        <v>105423740057.83682</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="1">
+        <f>1000*[2]HF2!$I$67</f>
+        <v>51442240042.163231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B9+B8</f>
+        <v>156865980100.00006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B10/B7</f>
+        <v>30400.509579137084</v>
+      </c>
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3360" windowWidth="25600" windowHeight="16060" tabRatio="764" activeTab="5"/>
+    <workbookView xWindow="3160" yWindow="80" windowWidth="25600" windowHeight="16060" tabRatio="764" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Population" sheetId="9" r:id="rId2"/>
-    <sheet name="Boundaries" sheetId="2" r:id="rId3"/>
-    <sheet name="Wetlands" sheetId="5" r:id="rId4"/>
-    <sheet name="Economics" sheetId="7" r:id="rId5"/>
-    <sheet name="Highway Costs" sheetId="4" r:id="rId6"/>
-    <sheet name="ATS Locations" sheetId="10" r:id="rId7"/>
-    <sheet name="R Variables" sheetId="12" r:id="rId8"/>
+    <sheet name="R Variables" sheetId="12" r:id="rId1"/>
+    <sheet name="ATS Locations" sheetId="10" r:id="rId2"/>
+    <sheet name="Settings" sheetId="1" r:id="rId3"/>
+    <sheet name="Population" sheetId="9" r:id="rId4"/>
+    <sheet name="Boundaries" sheetId="2" r:id="rId5"/>
+    <sheet name="Wetlands" sheetId="5" r:id="rId6"/>
+    <sheet name="Economics" sheetId="7" r:id="rId7"/>
+    <sheet name="Highway Costs" sheetId="4" r:id="rId8"/>
     <sheet name="R Population" sheetId="13" r:id="rId9"/>
     <sheet name="MS units" sheetId="14" r:id="rId10"/>
   </sheets>
@@ -7358,11 +7358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084700072"/>
-        <c:axId val="2084703160"/>
+        <c:axId val="2134565960"/>
+        <c:axId val="2134462808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084700072"/>
+        <c:axId val="2134565960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7372,7 +7372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084703160"/>
+        <c:crossAx val="2134462808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7380,7 +7380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084703160"/>
+        <c:axId val="2134462808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7391,7 +7391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084700072"/>
+        <c:crossAx val="2134565960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10503,11 +10503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084121720"/>
-        <c:axId val="2084124776"/>
+        <c:axId val="2134511048"/>
+        <c:axId val="2132674504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084121720"/>
+        <c:axId val="2134511048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10517,7 +10517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084124776"/>
+        <c:crossAx val="2132674504"/>
         <c:crossesAt val="-1.2E8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10525,7 +10525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084124776"/>
+        <c:axId val="2132674504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10536,7 +10536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084121720"/>
+        <c:crossAx val="2134511048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10987,1525 +10987,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="1">
+        <f>Settings!G16</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
+        <v>gC gBiomass-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="1">
+        <f>Settings!G17</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>Settings!H17&amp;" "&amp;Settings!F17&amp;"-1"</f>
+        <v>gN gBiomass-1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="1">
+        <f>Settings!G18</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>Settings!H18&amp;" "&amp;Settings!F18&amp;"-1"</f>
+        <v>gP gBiomass-1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="1">
+        <f>Settings!B44</f>
+        <v>2108776740182.28</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>Settings!C44</f>
+        <v>t</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Settings!B46</f>
+        <v>10916659471.299574</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>Settings!C46</f>
+        <v>t yr-1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="38">
-        <v>15</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>365.25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="37" t="str">
-        <f>A2</f>
-        <v>ATS productivity (high lat)</v>
-      </c>
-      <c r="B3" s="38">
-        <f>B2*$G$2*$G$3/$G$4</f>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Settings!B3</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C9" t="s">
         <v>217</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <f>100*100</f>
-        <v>10000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="38">
-        <v>25</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="1">
+        <f>Settings!B5</f>
+        <v>91.3125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(B10-B9)/(B8-B7)</f>
+        <v>-0.91312499999999996</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" s="1">
+        <f>Settings!B5</f>
+        <v>91.3125</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>Settings!C5</f>
+        <v>t ha-1 yr-1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="1">
+        <f>Settings!B22</f>
+        <v>330</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>Settings!C22</f>
+        <v>Pg yr-1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Settings!B24</f>
+        <v>9.1</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>Settings!C24</f>
+        <v>Pg yr-1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" s="1">
+        <f>Economics!B4</f>
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="C15" s="1" t="str">
+        <f>Economics!C4</f>
+        <v>ha emp-1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" s="1">
+        <f>Economics!B5</f>
+        <v>100000</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>Economics!C5</f>
+        <v>$ yr-1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="1">
+        <f>Economics!B6</f>
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>Economics!C6</f>
+        <v>opex yr-1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="1">
+        <f>Economics!B2</f>
+        <v>250000</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>Economics!C2</f>
+        <v>$ ha-1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" s="1">
+        <f>Economics!B3</f>
         <v>1000000</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="37" t="str">
-        <f>A4</f>
-        <v>ATS productivity (equator)</v>
-      </c>
-      <c r="B5" s="38">
-        <f>B4*$G$2*$G$3/$G$4</f>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="1">
+        <f>Economics!B7</f>
+        <v>32500</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>Economics!C7</f>
+        <v>$ ha-1 yr-1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="1">
+        <f>Economics!B8</f>
+        <v>70000</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>Economics!C8</f>
+        <v>$ ha-1 yr-1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" s="1">
+        <f>Economics!B9</f>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>Economics!C9</f>
+        <v>yr</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="1">
+        <f>Economics!B10</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>Economics!C10</f>
+        <v>yr</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" s="1">
+        <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B6" s="38">
-        <v>40</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="37" t="str">
-        <f>A6</f>
-        <v>ATS productivity (Adey et al.)</v>
-      </c>
-      <c r="B7" s="38">
-        <f>B6*$G$2*$G$3/$G$4</f>
-        <v>146.1</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1000000000000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="38">
-        <v>40000000</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1000000000000000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="38">
-        <f>B8*G19</f>
-        <v>10566880</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="F9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="1">
-        <f>G3*G2/G4</f>
-        <v>3.6524999999999999</v>
-      </c>
-      <c r="H9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="38">
-        <f>40000000000/G11</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="38">
-        <f>G4*B10/G2</f>
-        <v>29888184726350.648</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1">
-        <f>(G12+2*G14)/G12</f>
-        <v>3.6641245524935475</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" s="38">
-        <v>5</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12.010999999999999</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="38">
-        <v>107500000000000</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="1">
-        <v>14.007</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="1">
-        <v>49642700000000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="1">
-        <v>15.9994</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="str">
-        <f>A14</f>
-        <v>Global N excess</v>
-      </c>
-      <c r="B15" s="1">
-        <f>B14/G2</f>
-        <v>135914305270.36276</v>
-      </c>
-      <c r="C15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15" s="1">
-        <v>30.97</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="str">
-        <f>A14</f>
-        <v>Global N excess</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B14/G4</f>
-        <v>49642700</v>
-      </c>
-      <c r="C16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="str">
-        <f>A15</f>
-        <v>Global N excess</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B14/$G$7</f>
-        <v>49.642699999999998</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C24" t="str">
+        <f>Settings!C5</f>
+        <v>t ha-1 yr-1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>436</v>
+      </c>
+      <c r="B25" s="1">
+        <f>Settings!B3</f>
+        <v>54.787500000000001</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Settings!C3</f>
+        <v>t ha-1 yr-1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="1">
+        <f>Economics!B11</f>
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>Economics!C11</f>
+        <v>prp</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>438</v>
+      </c>
+      <c r="B27" s="1">
+        <f>Economics!B12</f>
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>Economics!C12</f>
+        <v>yr</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" s="1">
+        <f>Economics!B13</f>
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>Economics!C13</f>
+        <v>yr</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>440</v>
+      </c>
+      <c r="B29" s="1">
+        <f>Economics!B14</f>
         <v>200</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>232</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9100721000000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="str">
-        <f>A18</f>
-        <v>Global P excess</v>
-      </c>
-      <c r="B19" s="1">
-        <f>B18/G2</f>
-        <v>24916416153.319645</v>
-      </c>
-      <c r="C19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.26417200000000002</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="str">
-        <f>A18</f>
-        <v>Global P excess</v>
-      </c>
-      <c r="B20" s="1">
-        <f>B18/G4</f>
-        <v>9100721</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2.47105</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="1">
-        <f>B18/$G$7</f>
-        <v>9.1007210000000001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="1">
-        <f>1/2.54</f>
-        <v>0.39370078740157477</v>
-      </c>
-      <c r="H21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="1">
-        <v>330</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F22" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3.28084</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="1">
-        <f>B22*$G$8/$G$6</f>
-        <v>330000000000000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" t="s">
-        <v>356</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.3079499999999999</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="1">
-        <f>1000000*G25/2000</f>
-        <v>1.1023099999999999</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-      <c r="B25" s="1">
-        <f>B24*$G$8/$G$6</f>
-        <v>9100000000000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>326</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1">
-        <f>0.00220462</f>
-        <v>2.20462E-3</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>107500000000000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="1">
-        <v>9.2902999999999998E-6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>22000000000000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="1">
-        <v>5280</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>391</v>
-      </c>
-      <c r="B28" s="1">
-        <v>104.9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.453592</v>
-      </c>
-      <c r="H28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B29" s="1">
-        <f>B28*G8/G4</f>
-        <v>104900000000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="C29" s="1" t="str">
+        <f>Economics!C14</f>
+        <v>yr</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
       <c r="F29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="1">
-        <v>6.4515999999999998E-4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>391</v>
-      </c>
-      <c r="B30" s="1">
-        <f>($B$29/$G$16)*G4/G8</f>
-        <v>209.8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30">
-        <v>1.60934</v>
-      </c>
-      <c r="H30" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B31" s="2">
-        <v>9100000000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" t="s">
-        <v>446</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B32" s="2">
-        <f>B31*G4/G8</f>
-        <v>9.1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="2">
-        <f>B32/B30</f>
-        <v>4.3374642516682549E-2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>336</v>
-      </c>
-      <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>393</v>
-      </c>
-      <c r="B34" s="1">
-        <f>B72/B30</f>
-        <v>1.4459359707658085E-2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>336</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="B35" s="1"/>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37">
-        <v>14.7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1">
-        <f>B37*G28/G29</f>
-        <v>10335.11439022878</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="2">
-        <v>510100000000000</v>
-      </c>
-      <c r="C39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="1">
-        <f>B38*B39</f>
-        <v>5.2719418504557005E+18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="1">
-        <f>B40/1000000</f>
-        <v>5271941850455.7002</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="B42" s="38">
-        <f>B41/G5</f>
-        <v>5271941850.4556999</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="1">
-        <f>11000000000/B42</f>
-        <v>2.0865177029691959</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="1">
-        <f>B42*400</f>
-        <v>2108776740182.28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" s="38">
-        <f>B10/B42</f>
-        <v>2.0707093858320822</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="B46" s="38">
-        <f>B45*B42</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47">
-        <v>410</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>251</v>
-      </c>
-      <c r="B48" s="1">
-        <f>B47*B41</f>
-        <v>2161496158686837</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1">
-        <v>106</v>
-      </c>
-      <c r="C52" s="1">
-        <f>G12*B52</f>
-        <v>1273.1659999999999</v>
-      </c>
-      <c r="D52" s="1">
-        <f>C52/C$55</f>
-        <v>0.83308860865513967</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="1">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1">
-        <f>G13*B53</f>
-        <v>224.11199999999999</v>
-      </c>
-      <c r="D53" s="1">
-        <f>C53/C$55</f>
-        <v>0.1466463558270647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1">
-        <f>G15*B54</f>
-        <v>30.97</v>
-      </c>
-      <c r="D54" s="1">
-        <f>C54/C$55</f>
-        <v>2.026503551779554E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <f>SUM(C52:C54)</f>
-        <v>1528.248</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="35"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="1">
-        <f>B15/G17</f>
-        <v>2831548026465.8906</v>
-      </c>
-      <c r="C59" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="1">
-        <f>B59*G2/G4</f>
-        <v>1034222916.6666665</v>
-      </c>
-      <c r="C60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="1">
-        <f>B59*$G$2/$G$8</f>
-        <v>1.0342229166666665</v>
-      </c>
-      <c r="C61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="1">
-        <f>B59/B2</f>
-        <v>188769868431.05939</v>
-      </c>
-      <c r="C62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" s="1">
-        <f>B62/G3</f>
-        <v>18876986.843105938</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="1">
-        <f>B59/B4</f>
-        <v>113261921058.63562</v>
-      </c>
-      <c r="C64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="1">
-        <f>B64/G3</f>
-        <v>11326192.105863562</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="1">
-        <f>B60*G18</f>
-        <v>3102668.7499999995</v>
-      </c>
-      <c r="C66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="1">
-        <f>B60*G16</f>
-        <v>517111458.33333325</v>
-      </c>
-      <c r="C67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="35"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="1">
-        <f>B19/G18</f>
-        <v>8305472051106.5479</v>
-      </c>
-      <c r="C70" t="s">
-        <v>219</v>
-      </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="str">
-        <f>A70</f>
-        <v>Biomass implied</v>
-      </c>
-      <c r="B71" s="1">
-        <f>G2*B70/G4</f>
-        <v>3033573666.6666665</v>
-      </c>
-      <c r="C71" t="s">
-        <v>220</v>
-      </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="str">
-        <f>A71</f>
-        <v>Biomass implied</v>
-      </c>
-      <c r="B72" s="1">
-        <f>B70*$G$2/$G$8</f>
-        <v>3.0335736666666664</v>
-      </c>
-      <c r="C72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>179</v>
-      </c>
-      <c r="B73" s="1">
-        <f>B70/B2</f>
-        <v>553698136740.43652</v>
-      </c>
-      <c r="C73" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="str">
-        <f>A73</f>
-        <v>ATS area implied (low prod)</v>
-      </c>
-      <c r="B74" s="1">
-        <f>B73/G3</f>
-        <v>55369813.674043655</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>180</v>
-      </c>
-      <c r="B75" s="1">
-        <f>B70/B4</f>
-        <v>332218882044.2619</v>
-      </c>
-      <c r="C75" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76" s="1">
-        <f>B75/G3</f>
-        <v>33221888.204426192</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="1">
-        <f>B71*G17</f>
-        <v>145611536</v>
-      </c>
-      <c r="C77" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="1">
-        <f>B71*G16</f>
-        <v>1516786833.3333333</v>
-      </c>
-      <c r="C78" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="34"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="1">
-        <f>G4*B82/G2</f>
-        <v>59776369452701.297</v>
-      </c>
-      <c r="C81" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="1">
-        <f>B10/G16</f>
-        <v>21833318942.599148</v>
-      </c>
-      <c r="C82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" s="1">
-        <f>B81/B2</f>
-        <v>3985091296846.7529</v>
-      </c>
-      <c r="C83" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="str">
-        <f>A83</f>
-        <v>ATS area implied (low prod)</v>
-      </c>
-      <c r="B84" s="1">
-        <f>B83/G3</f>
-        <v>398509129.68467528</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" s="1">
-        <f>B81/B4</f>
-        <v>2391054778108.0518</v>
-      </c>
-      <c r="C85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" s="1">
-        <f>B85/G3</f>
-        <v>239105477.81080517</v>
-      </c>
-      <c r="C86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="1">
-        <f>B82*G17</f>
-        <v>1047999309.2447591</v>
-      </c>
-      <c r="C87" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="1">
-        <f>B82*G18</f>
-        <v>65499956.827797443</v>
-      </c>
-      <c r="C88" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="36"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B92" s="8">
-        <v>50</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="8">
-        <v>100</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="8">
-        <v>200</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B97" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B98" s="8">
-        <v>1.545806E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99" s="8">
-        <v>0.18188969999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101">
-        <v>1.4659849999999999E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B102">
-        <v>1.724974E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103">
-        <v>9.4836279999999995E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="34"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>174</v>
-      </c>
-      <c r="B112" s="1">
-        <v>11194445</v>
-      </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="1">
-        <f>B112*$G$27</f>
-        <v>59106669600</v>
-      </c>
-      <c r="C113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>26</v>
-      </c>
-      <c r="B114" s="1">
-        <v>20</v>
-      </c>
-      <c r="C114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" s="1">
-        <f>B114*B113</f>
-        <v>1182133392000</v>
-      </c>
-      <c r="C115" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>27</v>
-      </c>
-      <c r="B116" s="1">
-        <f>B115*G26</f>
-        <v>10982373.8516976</v>
-      </c>
-      <c r="C116" t="s">
-        <v>3</v>
+        <v>339</v>
+      </c>
+      <c r="G29" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <sortState ref="A2:E20">
+    <sortCondition ref="E2:E20"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="B11" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12955,6 +12177,2495 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="32">
+        <v>146.7885378</v>
+      </c>
+      <c r="C2" s="32">
+        <v>-19.257637299999999</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="32">
+        <v>-80.457524599999999</v>
+      </c>
+      <c r="C3" s="32">
+        <v>26.657368099999999</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3">
+        <v>2009</v>
+      </c>
+      <c r="G3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="32">
+        <v>-74.539295999999993</v>
+      </c>
+      <c r="C4" s="32">
+        <v>40.372374000000001</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="G4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="32">
+        <v>-76.328950000000006</v>
+      </c>
+      <c r="C5" s="32">
+        <v>37.855311</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="G5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="32">
+        <v>-120.9</v>
+      </c>
+      <c r="C6" s="32">
+        <v>50.8</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="G6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="32">
+        <v>-119.7</v>
+      </c>
+      <c r="C7" s="32">
+        <v>50.8</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="G7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="32">
+        <v>-64.7</v>
+      </c>
+      <c r="C8" s="32">
+        <v>17.45</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="G8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="32">
+        <v>120.3</v>
+      </c>
+      <c r="C9" s="32">
+        <v>23</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="32">
+        <v>117.786311</v>
+      </c>
+      <c r="C10" s="32">
+        <v>24.520453</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="G10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="32">
+        <v>-121.132778</v>
+      </c>
+      <c r="C11" s="32">
+        <v>37.473056</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="32">
+        <v>-80.408696000000006</v>
+      </c>
+      <c r="C12" s="32">
+        <v>27.427821999999999</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="G12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="32">
+        <v>-80.427214000000006</v>
+      </c>
+      <c r="C13" s="32">
+        <v>37.223215000000003</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="G13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14">
+        <v>-79.024995599999997</v>
+      </c>
+      <c r="C14">
+        <v>36.001745499999998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="32">
+        <v>-80.907136899999998</v>
+      </c>
+      <c r="C15" s="32">
+        <v>27.213987700000001</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16">
+        <v>-81.965361400000006</v>
+      </c>
+      <c r="C16">
+        <v>27.8745254</v>
+      </c>
+      <c r="E16" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="32">
+        <v>-81.880556400000003</v>
+      </c>
+      <c r="C17" s="32">
+        <v>26.674672000000001</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17">
+        <v>2009</v>
+      </c>
+      <c r="G17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="32">
+        <v>-80.853750700000006</v>
+      </c>
+      <c r="C18" s="33">
+        <v>27.329125999999999</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19">
+        <v>-80.869715799999994</v>
+      </c>
+      <c r="C19">
+        <v>27.5020904</v>
+      </c>
+      <c r="D19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20">
+        <v>-80.398945299999994</v>
+      </c>
+      <c r="C20">
+        <v>27.592262000000002</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21">
+        <v>-80.399409399999996</v>
+      </c>
+      <c r="C21">
+        <v>27.602654600000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21">
+        <v>2010</v>
+      </c>
+      <c r="G21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="32">
+        <v>-80.479466200000005</v>
+      </c>
+      <c r="C22" s="32">
+        <v>27.609477500000001</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="32">
+        <v>-81.445307999999997</v>
+      </c>
+      <c r="C23" s="32">
+        <v>28.5647631</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23">
+        <v>2009</v>
+      </c>
+      <c r="G23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="32">
+        <v>-82.477197000000004</v>
+      </c>
+      <c r="C24" s="32">
+        <v>29.923072999999999</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="32">
+        <v>-85.024425500000007</v>
+      </c>
+      <c r="C25" s="32">
+        <v>34.827157800000002</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26">
+        <v>-76.535835800000001</v>
+      </c>
+      <c r="C26">
+        <v>39.197844400000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27">
+        <v>-76.519799699999993</v>
+      </c>
+      <c r="C27">
+        <v>39.241779600000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27">
+        <v>2015</v>
+      </c>
+      <c r="G27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28">
+        <v>-76.262986100000006</v>
+      </c>
+      <c r="C28">
+        <v>39.7560024</v>
+      </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28">
+        <v>2009</v>
+      </c>
+      <c r="G28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="32">
+        <v>-73.828925999999996</v>
+      </c>
+      <c r="C29" s="32">
+        <v>40.584173399999997</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="32">
+        <v>3.5740601999999999</v>
+      </c>
+      <c r="C30" s="32">
+        <v>51.082552</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="G30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" s="32">
+        <v>16.430962999999998</v>
+      </c>
+      <c r="C31" s="32">
+        <v>48.197578999999998</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="G31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="C32">
+        <v>-19.3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="32">
+        <v>-76.900000000000006</v>
+      </c>
+      <c r="C33" s="32">
+        <v>39</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="G33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="32">
+        <v>-76.713593000000003</v>
+      </c>
+      <c r="C34" s="32">
+        <v>38.784427000000001</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="G34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35">
+        <v>-76.457588999999999</v>
+      </c>
+      <c r="C35">
+        <v>39.131529</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36">
+        <v>-76.268676999999997</v>
+      </c>
+      <c r="C36">
+        <v>39.449888999999999</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="32">
+        <v>-76.188846600000005</v>
+      </c>
+      <c r="C37" s="32">
+        <v>38.609043200000002</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="G37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="32">
+        <v>-76.382262999999995</v>
+      </c>
+      <c r="C38" s="32">
+        <v>37.247632000000003</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="32">
+        <v>-94.1666666666667</v>
+      </c>
+      <c r="C39" s="32">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39">
+        <v>2009</v>
+      </c>
+      <c r="G39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="32">
+        <v>-94.089297000000002</v>
+      </c>
+      <c r="C40" s="32">
+        <v>36.080810999999997</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="32">
+        <v>-82.323492000000002</v>
+      </c>
+      <c r="C41" s="32">
+        <v>29.645575999999998</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="G41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="32">
+        <v>-98.806156999999999</v>
+      </c>
+      <c r="C42" s="32">
+        <v>29.491195399999999</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="32">
+        <v>16.163287777777775</v>
+      </c>
+      <c r="C43" s="32">
+        <v>51.627626666666664</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="G43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44">
+        <v>-103.3499748</v>
+      </c>
+      <c r="C44">
+        <v>34.178595899999998</v>
+      </c>
+      <c r="D44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="32">
+        <v>-75.900000000000006</v>
+      </c>
+      <c r="C45" s="32">
+        <v>39</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="G45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="E47" s="32"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G46">
+    <sortCondition ref="A2:A46"/>
+    <sortCondition ref="C2:C46"/>
+    <sortCondition ref="B2:B46"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="38">
+        <v>15</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="37" t="str">
+        <f>A2</f>
+        <v>ATS productivity (high lat)</v>
+      </c>
+      <c r="B3" s="38">
+        <f>B2*$G$2*$G$3/$G$4</f>
+        <v>54.787500000000001</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <f>100*100</f>
+        <v>10000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="38">
+        <v>25</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="37" t="str">
+        <f>A4</f>
+        <v>ATS productivity (equator)</v>
+      </c>
+      <c r="B5" s="38">
+        <f>B4*$G$2*$G$3/$G$4</f>
+        <v>91.3125</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="38">
+        <v>40</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="37" t="str">
+        <f>A6</f>
+        <v>ATS productivity (Adey et al.)</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B6*$G$2*$G$3/$G$4</f>
+        <v>146.1</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="38">
+        <v>40000000</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="38">
+        <f>B8*G19</f>
+        <v>10566880</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="1">
+        <f>G3*G2/G4</f>
+        <v>3.6524999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="38">
+        <f>40000000000/G11</f>
+        <v>10916659471.299574</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="38">
+        <f>G4*B10/G2</f>
+        <v>29888184726350.648</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <f>(G12+2*G14)/G12</f>
+        <v>3.6641245524935475</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="38">
+        <v>5</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="38">
+        <v>107500000000000</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="1">
+        <v>14.007</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="1">
+        <v>49642700000000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15.9994</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="str">
+        <f>A14</f>
+        <v>Global N excess</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B14/G2</f>
+        <v>135914305270.36276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30.97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="str">
+        <f>A14</f>
+        <v>Global N excess</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B14/G4</f>
+        <v>49642700</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="str">
+        <f>A15</f>
+        <v>Global N excess</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B14/$G$7</f>
+        <v>49.642699999999998</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9100721000000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="str">
+        <f>A18</f>
+        <v>Global P excess</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B18/G2</f>
+        <v>24916416153.319645</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.26417200000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="str">
+        <f>A18</f>
+        <v>Global P excess</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B18/G4</f>
+        <v>9100721</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.47105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B18/$G$7</f>
+        <v>9.1007210000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="1">
+        <f>1/2.54</f>
+        <v>0.39370078740157477</v>
+      </c>
+      <c r="H21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="1">
+        <v>330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.28084</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B22*$G$8/$G$6</f>
+        <v>330000000000000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.3079499999999999</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1000000*G25/2000</f>
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B24*$G$8/$G$6</f>
+        <v>9100000000000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1">
+        <f>0.00220462</f>
+        <v>2.20462E-3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>107500000000000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9.2902999999999998E-6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>22000000000000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5280</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="1">
+        <v>104.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.453592</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B28*G8/G4</f>
+        <v>104900000000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6.4515999999999998E-4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="1">
+        <f>($B$29/$G$16)*G4/G8</f>
+        <v>209.8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>1.60934</v>
+      </c>
+      <c r="H30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9100000000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" t="s">
+        <v>446</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B31*G4/G8</f>
+        <v>9.1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B32/B30</f>
+        <v>4.3374642516682549E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B72/B30</f>
+        <v>1.4459359707658085E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="1"/>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>14.7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1">
+        <f>B37*G28/G29</f>
+        <v>10335.11439022878</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2">
+        <v>510100000000000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B38*B39</f>
+        <v>5.2719418504557005E+18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1">
+        <f>B40/1000000</f>
+        <v>5271941850455.7002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="38">
+        <f>B41/G5</f>
+        <v>5271941850.4556999</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1">
+        <f>11000000000/B42</f>
+        <v>2.0865177029691959</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="1">
+        <f>B42*400</f>
+        <v>2108776740182.28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="38">
+        <f>B10/B42</f>
+        <v>2.0707093858320822</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="38">
+        <f>B45*B42</f>
+        <v>10916659471.299574</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47">
+        <v>410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="1">
+        <f>B47*B41</f>
+        <v>2161496158686837</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1">
+        <f>G12*B52</f>
+        <v>1273.1659999999999</v>
+      </c>
+      <c r="D52" s="1">
+        <f>C52/C$55</f>
+        <v>0.83308860865513967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1">
+        <f>G13*B53</f>
+        <v>224.11199999999999</v>
+      </c>
+      <c r="D53" s="1">
+        <f>C53/C$55</f>
+        <v>0.1466463558270647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <f>G15*B54</f>
+        <v>30.97</v>
+      </c>
+      <c r="D54" s="1">
+        <f>C54/C$55</f>
+        <v>2.026503551779554E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <f>SUM(C52:C54)</f>
+        <v>1528.248</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1">
+        <f>B15/G17</f>
+        <v>2831548026465.8906</v>
+      </c>
+      <c r="C59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="1">
+        <f>B59*G2/G4</f>
+        <v>1034222916.6666665</v>
+      </c>
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1">
+        <f>B59*$G$2/$G$8</f>
+        <v>1.0342229166666665</v>
+      </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="1">
+        <f>B59/B2</f>
+        <v>188769868431.05939</v>
+      </c>
+      <c r="C62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="1">
+        <f>B62/G3</f>
+        <v>18876986.843105938</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="1">
+        <f>B59/B4</f>
+        <v>113261921058.63562</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="1">
+        <f>B64/G3</f>
+        <v>11326192.105863562</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="1">
+        <f>B60*G18</f>
+        <v>3102668.7499999995</v>
+      </c>
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="1">
+        <f>B60*G16</f>
+        <v>517111458.33333325</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="35"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="1">
+        <f>B19/G18</f>
+        <v>8305472051106.5479</v>
+      </c>
+      <c r="C70" t="s">
+        <v>219</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="str">
+        <f>A70</f>
+        <v>Biomass implied</v>
+      </c>
+      <c r="B71" s="1">
+        <f>G2*B70/G4</f>
+        <v>3033573666.6666665</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="str">
+        <f>A71</f>
+        <v>Biomass implied</v>
+      </c>
+      <c r="B72" s="1">
+        <f>B70*$G$2/$G$8</f>
+        <v>3.0335736666666664</v>
+      </c>
+      <c r="C72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="1">
+        <f>B70/B2</f>
+        <v>553698136740.43652</v>
+      </c>
+      <c r="C73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="str">
+        <f>A73</f>
+        <v>ATS area implied (low prod)</v>
+      </c>
+      <c r="B74" s="1">
+        <f>B73/G3</f>
+        <v>55369813.674043655</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="1">
+        <f>B70/B4</f>
+        <v>332218882044.2619</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="1">
+        <f>B75/G3</f>
+        <v>33221888.204426192</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1">
+        <f>B71*G17</f>
+        <v>145611536</v>
+      </c>
+      <c r="C77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1">
+        <f>B71*G16</f>
+        <v>1516786833.3333333</v>
+      </c>
+      <c r="C78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="34"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1">
+        <f>G4*B82/G2</f>
+        <v>59776369452701.297</v>
+      </c>
+      <c r="C81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="1">
+        <f>B10/G16</f>
+        <v>21833318942.599148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="1">
+        <f>B81/B2</f>
+        <v>3985091296846.7529</v>
+      </c>
+      <c r="C83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="str">
+        <f>A83</f>
+        <v>ATS area implied (low prod)</v>
+      </c>
+      <c r="B84" s="1">
+        <f>B83/G3</f>
+        <v>398509129.68467528</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="1">
+        <f>B81/B4</f>
+        <v>2391054778108.0518</v>
+      </c>
+      <c r="C85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="1">
+        <f>B85/G3</f>
+        <v>239105477.81080517</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="1">
+        <f>B82*G17</f>
+        <v>1047999309.2447591</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="1">
+        <f>B82*G18</f>
+        <v>65499956.827797443</v>
+      </c>
+      <c r="C88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="36"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="8">
+        <v>50</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="8">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="8">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="8">
+        <v>1.545806E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="8">
+        <v>0.18188969999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101">
+        <v>1.4659849999999999E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102">
+        <v>1.724974E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103">
+        <v>9.4836279999999995E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="34"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="1">
+        <v>11194445</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="1">
+        <f>B112*$G$27</f>
+        <v>59106669600</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="1">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" s="1">
+        <f>B114*B113</f>
+        <v>1182133392000</v>
+      </c>
+      <c r="C115" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" s="1">
+        <f>B115*G26</f>
+        <v>10982373.8516976</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS208"/>
   <sheetViews>
@@ -19150,7 +20861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG106"/>
   <sheetViews>
@@ -20908,7 +22619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
@@ -21815,7 +23526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C368"/>
   <sheetViews>
@@ -23058,11 +24769,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -23225,1717 +24936,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="32">
-        <v>146.7885378</v>
-      </c>
-      <c r="C2" s="32">
-        <v>-19.257637299999999</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="32">
-        <v>-80.457524599999999</v>
-      </c>
-      <c r="C3" s="32">
-        <v>26.657368099999999</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3">
-        <v>2009</v>
-      </c>
-      <c r="G3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="32">
-        <v>-74.539295999999993</v>
-      </c>
-      <c r="C4" s="32">
-        <v>40.372374000000001</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="G4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="32">
-        <v>-76.328950000000006</v>
-      </c>
-      <c r="C5" s="32">
-        <v>37.855311</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="G5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="32">
-        <v>-120.9</v>
-      </c>
-      <c r="C6" s="32">
-        <v>50.8</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="G6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="32">
-        <v>-119.7</v>
-      </c>
-      <c r="C7" s="32">
-        <v>50.8</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="G7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="32">
-        <v>-64.7</v>
-      </c>
-      <c r="C8" s="32">
-        <v>17.45</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="G8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="32">
-        <v>120.3</v>
-      </c>
-      <c r="C9" s="32">
-        <v>23</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="G9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="32">
-        <v>117.786311</v>
-      </c>
-      <c r="C10" s="32">
-        <v>24.520453</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="G10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="32">
-        <v>-121.132778</v>
-      </c>
-      <c r="C11" s="32">
-        <v>37.473056</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="G11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="32">
-        <v>-80.408696000000006</v>
-      </c>
-      <c r="C12" s="32">
-        <v>27.427821999999999</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="G12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="32">
-        <v>-80.427214000000006</v>
-      </c>
-      <c r="C13" s="32">
-        <v>37.223215000000003</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="G13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14">
-        <v>-79.024995599999997</v>
-      </c>
-      <c r="C14">
-        <v>36.001745499999998</v>
-      </c>
-      <c r="D14" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" s="32">
-        <v>-80.907136899999998</v>
-      </c>
-      <c r="C15" s="32">
-        <v>27.213987700000001</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="G15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16">
-        <v>-81.965361400000006</v>
-      </c>
-      <c r="C16">
-        <v>27.8745254</v>
-      </c>
-      <c r="E16" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="32">
-        <v>-81.880556400000003</v>
-      </c>
-      <c r="C17" s="32">
-        <v>26.674672000000001</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17">
-        <v>2009</v>
-      </c>
-      <c r="G17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="32">
-        <v>-80.853750700000006</v>
-      </c>
-      <c r="C18" s="33">
-        <v>27.329125999999999</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19">
-        <v>-80.869715799999994</v>
-      </c>
-      <c r="C19">
-        <v>27.5020904</v>
-      </c>
-      <c r="D19" t="s">
-        <v>257</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B20">
-        <v>-80.398945299999994</v>
-      </c>
-      <c r="C20">
-        <v>27.592262000000002</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21">
-        <v>-80.399409399999996</v>
-      </c>
-      <c r="C21">
-        <v>27.602654600000001</v>
-      </c>
-      <c r="D21" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21">
-        <v>2010</v>
-      </c>
-      <c r="G21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B22" s="32">
-        <v>-80.479466200000005</v>
-      </c>
-      <c r="C22" s="32">
-        <v>27.609477500000001</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B23" s="32">
-        <v>-81.445307999999997</v>
-      </c>
-      <c r="C23" s="32">
-        <v>28.5647631</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23">
-        <v>2009</v>
-      </c>
-      <c r="G23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B24" s="32">
-        <v>-82.477197000000004</v>
-      </c>
-      <c r="C24" s="32">
-        <v>29.923072999999999</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="F24" t="s">
-        <v>288</v>
-      </c>
-      <c r="G24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="32">
-        <v>-85.024425500000007</v>
-      </c>
-      <c r="C25" s="32">
-        <v>34.827157800000002</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>279</v>
-      </c>
-      <c r="B26">
-        <v>-76.535835800000001</v>
-      </c>
-      <c r="C26">
-        <v>39.197844400000001</v>
-      </c>
-      <c r="D26" t="s">
-        <v>258</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>279</v>
-      </c>
-      <c r="B27">
-        <v>-76.519799699999993</v>
-      </c>
-      <c r="C27">
-        <v>39.241779600000001</v>
-      </c>
-      <c r="D27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F27">
-        <v>2015</v>
-      </c>
-      <c r="G27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28">
-        <v>-76.262986100000006</v>
-      </c>
-      <c r="C28">
-        <v>39.7560024</v>
-      </c>
-      <c r="D28" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28">
-        <v>2009</v>
-      </c>
-      <c r="G28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" s="32">
-        <v>-73.828925999999996</v>
-      </c>
-      <c r="C29" s="32">
-        <v>40.584173399999997</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>306</v>
-      </c>
-      <c r="B30" s="32">
-        <v>3.5740601999999999</v>
-      </c>
-      <c r="C30" s="32">
-        <v>51.082552</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="G30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>307</v>
-      </c>
-      <c r="B31" s="32">
-        <v>16.430962999999998</v>
-      </c>
-      <c r="C31" s="32">
-        <v>48.197578999999998</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="G31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32">
-        <v>146.80000000000001</v>
-      </c>
-      <c r="C32">
-        <v>-19.3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>308</v>
-      </c>
-      <c r="B33" s="32">
-        <v>-76.900000000000006</v>
-      </c>
-      <c r="C33" s="32">
-        <v>39</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="G33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="32">
-        <v>-76.713593000000003</v>
-      </c>
-      <c r="C34" s="32">
-        <v>38.784427000000001</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="G34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35">
-        <v>-76.457588999999999</v>
-      </c>
-      <c r="C35">
-        <v>39.131529</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="G35" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36">
-        <v>-76.268676999999997</v>
-      </c>
-      <c r="C36">
-        <v>39.449888999999999</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="G36" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" s="32">
-        <v>-76.188846600000005</v>
-      </c>
-      <c r="C37" s="32">
-        <v>38.609043200000002</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="G37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="32">
-        <v>-76.382262999999995</v>
-      </c>
-      <c r="C38" s="32">
-        <v>37.247632000000003</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="G38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="32">
-        <v>-94.1666666666667</v>
-      </c>
-      <c r="C39" s="32">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="F39">
-        <v>2009</v>
-      </c>
-      <c r="G39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="32">
-        <v>-94.089297000000002</v>
-      </c>
-      <c r="C40" s="32">
-        <v>36.080810999999997</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E40" t="s">
-        <v>294</v>
-      </c>
-      <c r="F40" t="s">
-        <v>291</v>
-      </c>
-      <c r="G40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>194</v>
-      </c>
-      <c r="B41" s="32">
-        <v>-82.323492000000002</v>
-      </c>
-      <c r="C41" s="32">
-        <v>29.645575999999998</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="G41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>277</v>
-      </c>
-      <c r="B42" s="32">
-        <v>-98.806156999999999</v>
-      </c>
-      <c r="C42" s="32">
-        <v>29.491195399999999</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="32">
-        <v>16.163287777777775</v>
-      </c>
-      <c r="C43" s="32">
-        <v>51.627626666666664</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="G43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44">
-        <v>-103.3499748</v>
-      </c>
-      <c r="C44">
-        <v>34.178595899999998</v>
-      </c>
-      <c r="D44" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="F44" t="s">
-        <v>293</v>
-      </c>
-      <c r="G44" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" s="32">
-        <v>-75.900000000000006</v>
-      </c>
-      <c r="C45" s="32">
-        <v>39</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="G45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="E47" s="32"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:G46">
-    <sortCondition ref="A2:A46"/>
-    <sortCondition ref="C2:C46"/>
-    <sortCondition ref="B2:B46"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="1">
-        <f>Settings!G16</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
-        <v>gC gBiomass-1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="1">
-        <f>Settings!G17</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>Settings!H17&amp;" "&amp;Settings!F17&amp;"-1"</f>
-        <v>gN gBiomass-1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B4" s="1">
-        <f>Settings!G18</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>Settings!H18&amp;" "&amp;Settings!F18&amp;"-1"</f>
-        <v>gP gBiomass-1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="1">
-        <f>Settings!B44</f>
-        <v>2108776740182.28</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>Settings!C44</f>
-        <v>t</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="1">
-        <f>Settings!B46</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>Settings!C46</f>
-        <v>t yr-1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="1">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B9" s="1">
-        <f>Settings!B3</f>
-        <v>54.787500000000001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" s="1">
-        <f>Settings!B5</f>
-        <v>91.3125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" s="1">
-        <f>(B10-B9)/(B8-B7)</f>
-        <v>-0.91312499999999996</v>
-      </c>
-      <c r="C11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" s="1">
-        <f>Settings!B5</f>
-        <v>91.3125</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>Settings!C5</f>
-        <v>t ha-1 yr-1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" s="1">
-        <f>Settings!B22</f>
-        <v>330</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>Settings!C22</f>
-        <v>Pg yr-1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="1">
-        <f>Settings!B24</f>
-        <v>9.1</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>Settings!C24</f>
-        <v>Pg yr-1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="1">
-        <f>Economics!B4</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>Economics!C4</f>
-        <v>ha emp-1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>427</v>
-      </c>
-      <c r="B16" s="1">
-        <f>Economics!B5</f>
-        <v>100000</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>Economics!C5</f>
-        <v>$ yr-1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" s="1">
-        <f>Economics!B6</f>
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>Economics!C6</f>
-        <v>opex yr-1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>429</v>
-      </c>
-      <c r="B18" s="1">
-        <f>Economics!B2</f>
-        <v>250000</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>Economics!C2</f>
-        <v>$ ha-1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B19" s="1">
-        <f>Economics!B3</f>
-        <v>1000000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="1">
-        <f>Economics!B7</f>
-        <v>32500</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f>Economics!C7</f>
-        <v>$ ha-1 yr-1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="1">
-        <f>Economics!B8</f>
-        <v>70000</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>Economics!C8</f>
-        <v>$ ha-1 yr-1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>433</v>
-      </c>
-      <c r="B22" s="1">
-        <f>Economics!B9</f>
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>Economics!C9</f>
-        <v>yr</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B23" s="1">
-        <f>Economics!B10</f>
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>Economics!C10</f>
-        <v>yr</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>435</v>
-      </c>
-      <c r="B24" s="1">
-        <f>Settings!B5</f>
-        <v>91.3125</v>
-      </c>
-      <c r="C24" t="str">
-        <f>Settings!C5</f>
-        <v>t ha-1 yr-1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>436</v>
-      </c>
-      <c r="B25" s="1">
-        <f>Settings!B3</f>
-        <v>54.787500000000001</v>
-      </c>
-      <c r="C25" t="str">
-        <f>Settings!C3</f>
-        <v>t ha-1 yr-1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B26" s="1">
-        <f>Economics!B11</f>
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f>Economics!C11</f>
-        <v>prp</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>335</v>
-      </c>
-      <c r="G26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>438</v>
-      </c>
-      <c r="B27" s="1">
-        <f>Economics!B12</f>
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>Economics!C12</f>
-        <v>yr</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>439</v>
-      </c>
-      <c r="B28" s="1">
-        <f>Economics!B13</f>
-        <v>100</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f>Economics!C13</f>
-        <v>yr</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>440</v>
-      </c>
-      <c r="B29" s="1">
-        <f>Economics!B14</f>
-        <v>200</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>Economics!C14</f>
-        <v>yr</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E20">
-    <sortCondition ref="E2:E20"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="B11" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="80" windowWidth="25600" windowHeight="16060" tabRatio="764" activeTab="1"/>
+    <workbookView xWindow="4220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
     <sheet name="ATS Locations" sheetId="10" r:id="rId2"/>
     <sheet name="Settings" sheetId="1" r:id="rId3"/>
-    <sheet name="Population" sheetId="9" r:id="rId4"/>
-    <sheet name="Boundaries" sheetId="2" r:id="rId5"/>
-    <sheet name="Wetlands" sheetId="5" r:id="rId6"/>
-    <sheet name="Economics" sheetId="7" r:id="rId7"/>
+    <sheet name="Economics" sheetId="7" r:id="rId4"/>
+    <sheet name="Population" sheetId="9" r:id="rId5"/>
+    <sheet name="Boundaries" sheetId="2" r:id="rId6"/>
+    <sheet name="Wetlands" sheetId="5" r:id="rId7"/>
     <sheet name="Highway Costs" sheetId="4" r:id="rId8"/>
     <sheet name="R Population" sheetId="13" r:id="rId9"/>
     <sheet name="MS units" sheetId="14" r:id="rId10"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="452">
   <si>
     <t>Parameters</t>
   </si>
@@ -271,9 +271,6 @@
     <t>B9</t>
   </si>
   <si>
-    <t>Parameters and Results</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1015,18 +1012,9 @@
     <t>Kg yr-1</t>
   </si>
   <si>
-    <t>Field et al., 1998</t>
-  </si>
-  <si>
     <t>Ag NPP</t>
   </si>
   <si>
-    <t>(unit)</t>
-  </si>
-  <si>
-    <t>(val)</t>
-  </si>
-  <si>
     <t>Facility Long Life</t>
   </si>
   <si>
@@ -1066,9 +1054,6 @@
     <t>C Growth Rate</t>
   </si>
   <si>
-    <t>1 ppm C</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -1391,6 +1376,18 @@
   </si>
   <si>
     <t>$ ha yr-1</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>Geider et al., 2001</t>
+  </si>
+  <si>
+    <t>Economic Assumptions</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1459,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,6 +1496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1509,7 +1512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1515">
+  <cellStyleXfs count="1527">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3025,8 +3028,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3091,6 +3106,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3110,7 +3127,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1515">
+  <cellStyles count="1527">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3868,6 +3885,12 @@
     <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4625,6 +4648,12 @@
     <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7358,11 +7387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134565960"/>
-        <c:axId val="2134462808"/>
+        <c:axId val="-2144046744"/>
+        <c:axId val="-2144043688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134565960"/>
+        <c:axId val="-2144046744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7372,7 +7401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134462808"/>
+        <c:crossAx val="-2144043688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7380,7 +7409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134462808"/>
+        <c:axId val="-2144043688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7391,7 +7420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134565960"/>
+        <c:crossAx val="-2144046744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10503,11 +10532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134511048"/>
-        <c:axId val="2132674504"/>
+        <c:axId val="-2144009944"/>
+        <c:axId val="-2144006904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134511048"/>
+        <c:axId val="-2144009944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10517,7 +10546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132674504"/>
+        <c:crossAx val="-2144006904"/>
         <c:crossesAt val="-1.2E8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10525,7 +10554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132674504"/>
+        <c:axId val="-2144006904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10536,7 +10565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134511048"/>
+        <c:crossAx val="-2144009944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10987,10 +11016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10998,580 +11027,440 @@
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>213</v>
       </c>
-      <c r="C1" t="s">
-        <v>214</v>
-      </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="41">
         <f>Settings!G16</f>
         <v>0.5</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="41" t="str">
         <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
         <v>gC gBiomass-1</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="D2" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="41">
         <f>Settings!G17</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="41" t="str">
         <f>Settings!H17&amp;" "&amp;Settings!F17&amp;"-1"</f>
         <v>gN gBiomass-1</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D3" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="41">
         <f>Settings!G18</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="41" t="str">
         <f>Settings!H18&amp;" "&amp;Settings!F18&amp;"-1"</f>
         <v>gP gBiomass-1</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D4" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" s="41">
         <f>Settings!B44</f>
         <v>2108776740182.28</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="41" t="str">
         <f>Settings!C44</f>
         <v>t</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="D5" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="41">
         <f>Settings!B46</f>
         <v>10916659471.299574</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="41" t="str">
         <f>Settings!C46</f>
         <v>t yr-1</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B9" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="41">
         <f>Settings!B3</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C9" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="41">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C10" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="41">
         <f>(B10-B9)/(B8-B7)</f>
         <v>-0.91312499999999996</v>
       </c>
-      <c r="C11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C11" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="41">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="41" t="str">
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="D12" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="41">
         <f>Settings!B22</f>
-        <v>330</v>
-      </c>
-      <c r="C13" s="1" t="str">
+        <v>104.9</v>
+      </c>
+      <c r="C13" s="41" t="str">
         <f>Settings!C22</f>
         <v>Pg yr-1</v>
       </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="D13" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="41">
         <f>Settings!B24</f>
-        <v>9.1</v>
-      </c>
-      <c r="C14" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="C14" s="41" t="str">
         <f>Settings!C24</f>
         <v>Pg yr-1</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="1">
-        <f>Economics!B4</f>
+      <c r="D14" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" s="41">
+        <f>Settings!B59</f>
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="41" t="str">
         <f>Economics!C4</f>
         <v>ha emp-1</v>
       </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>427</v>
-      </c>
-      <c r="B16" s="1">
-        <f>Economics!B5</f>
+      <c r="D15" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="41">
+        <f>Settings!B60</f>
         <v>100000</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="41" t="str">
         <f>Economics!C5</f>
         <v>$ yr-1</v>
       </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" s="1">
-        <f>Economics!B6</f>
+      <c r="D16" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" s="41">
+        <f>Settings!B61</f>
         <v>0.05</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="41" t="str">
         <f>Economics!C6</f>
         <v>opex yr-1</v>
       </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>429</v>
-      </c>
-      <c r="B18" s="1">
-        <f>Economics!B2</f>
+      <c r="D17" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="41">
+        <f>Settings!B57</f>
         <v>250000</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="41" t="str">
         <f>Economics!C2</f>
         <v>$ ha-1</v>
       </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B19" s="41">
+        <f>Settings!B58</f>
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="G18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B19" s="1">
-        <f>Economics!B3</f>
-        <v>1000000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="1">
-        <f>Economics!B7</f>
+      <c r="E19" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" s="41">
+        <f>Settings!B62</f>
         <v>32500</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" s="41" t="str">
         <f>Economics!C7</f>
         <v>$ ha-1 yr-1</v>
       </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="1">
-        <f>Economics!B8</f>
+      <c r="D20" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="41">
+        <f>Settings!B63</f>
         <v>70000</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="41" t="str">
         <f>Economics!C8</f>
         <v>$ ha-1 yr-1</v>
       </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>433</v>
-      </c>
-      <c r="B22" s="1">
-        <f>Economics!B9</f>
+      <c r="D21" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="41">
+        <f>Settings!B64</f>
         <v>40</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C22" s="41" t="str">
         <f>Economics!C9</f>
         <v>yr</v>
       </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B23" s="1">
-        <f>Economics!B10</f>
+      <c r="D22" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="41">
+        <f>Settings!B65</f>
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="41" t="str">
         <f>Economics!C10</f>
         <v>yr</v>
       </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B24" s="1">
         <f>Settings!B5</f>
@@ -11582,21 +11471,18 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B25" s="1">
         <f>Settings!B3</f>
@@ -11607,122 +11493,92 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B26" s="1">
-        <f>Economics!B11</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" s="41">
+        <f>Settings!B66</f>
         <v>0.1</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="41" t="str">
         <f>Economics!C11</f>
         <v>prp</v>
       </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>335</v>
-      </c>
-      <c r="G26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>438</v>
-      </c>
-      <c r="B27" s="1">
-        <f>Economics!B12</f>
+      <c r="D26" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" s="41">
+        <f>Settings!B67</f>
         <v>50</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="41" t="str">
         <f>Economics!C12</f>
         <v>yr</v>
       </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>439</v>
-      </c>
-      <c r="B28" s="1">
-        <f>Economics!B13</f>
+      <c r="D27" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28" s="41">
+        <f>Settings!B68</f>
         <v>100</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="41" t="str">
         <f>Economics!C13</f>
         <v>yr</v>
       </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>440</v>
-      </c>
-      <c r="B29" s="1">
-        <f>Economics!B14</f>
+      <c r="D28" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B29" s="41">
+        <f>Settings!B69</f>
         <v>200</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="41" t="str">
         <f>Economics!C14</f>
         <v>yr</v>
       </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G29" t="s">
-        <v>236</v>
+      <c r="D29" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E20">
-    <sortCondition ref="E2:E20"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -11753,27 +11609,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1">
         <f>Settings!B3</f>
@@ -11788,7 +11644,7 @@
         <v>20.113896137840282</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11805,12 +11661,12 @@
         <v>53.637056367574083</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B4" s="1">
         <f>Settings!B8</f>
@@ -11825,7 +11681,7 @@
         <v>10566880</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11833,14 +11689,14 @@
         <v>250000</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1">
         <f>B5/Settings!$G$20</f>
         <v>101171.56674288258</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11848,14 +11704,14 @@
         <v>1000000</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="1">
         <f>B6/Settings!$G$20</f>
         <v>404686.26697153033</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11863,17 +11719,17 @@
         <v>40000</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1">
         <f>B7/Settings!$G$20</f>
         <v>16187.450678861213</v>
       </c>
       <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
         <v>364</v>
-      </c>
-      <c r="F7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11881,35 +11737,35 @@
         <v>70000</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1">
         <f>B8/Settings!$G$20</f>
         <v>28328.038688007124</v>
       </c>
       <c r="E8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D9" s="1">
         <f>B9/Settings!$G$24</f>
         <v>90.718581887127954</v>
       </c>
       <c r="E9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11918,7 +11774,7 @@
         <v>5478.75</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11929,21 +11785,21 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B12" s="1">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="1">
         <f>(B12/Settings!$G$24)/Settings!$G$20</f>
         <v>33.523160229733804</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -11952,36 +11808,36 @@
         <v>54.787500000000001</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="1">
         <f>(B13/Settings!$G$24)/Settings!$G$20</f>
         <v>20.113896137840282</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B14" s="1">
         <f>50000000000/Settings!$G$5</f>
         <v>50000000</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="1">
         <f>B14*Settings!$G$24</f>
         <v>55115499.999999993</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11990,17 +11846,17 @@
         <v>8100000</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" s="1">
         <f>B15*Settings!$G$24</f>
         <v>8928711</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -12008,17 +11864,17 @@
         <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="1">
         <f>(B16/Settings!$G$24)/Settings!$G$20</f>
         <v>33.408433466456131</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -12026,17 +11882,17 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="1">
         <f>(B17/Settings!$G$24)/Settings!$G$20</f>
         <v>9.9123923471902824</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F17" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -12054,7 +11910,7 @@
         <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -12072,7 +11928,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -12090,7 +11946,7 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -12108,7 +11964,7 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -12126,7 +11982,7 @@
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -12144,7 +12000,7 @@
         <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -12152,17 +12008,17 @@
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="1">
         <f>(B24/Settings!$G$24)/Settings!$G$20</f>
         <v>23.496041119265854</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F24" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -12180,7 +12036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -12195,30 +12051,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>263</v>
-      </c>
       <c r="E1" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="32">
         <v>146.7885378</v>
@@ -12227,18 +12083,18 @@
         <v>-19.257637299999999</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="32">
         <v>-80.457524599999999</v>
@@ -12247,21 +12103,21 @@
         <v>26.657368099999999</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="32">
         <v>-74.539295999999993</v>
@@ -12270,16 +12126,16 @@
         <v>40.372374000000001</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="32"/>
       <c r="G4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="32">
         <v>-76.328950000000006</v>
@@ -12288,16 +12144,16 @@
         <v>37.855311</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="32"/>
       <c r="G5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="32">
         <v>-120.9</v>
@@ -12306,16 +12162,16 @@
         <v>50.8</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="32"/>
       <c r="G6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="32">
         <v>-119.7</v>
@@ -12324,16 +12180,16 @@
         <v>50.8</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" s="32"/>
       <c r="G7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="32">
         <v>-64.7</v>
@@ -12342,16 +12198,16 @@
         <v>17.45</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="32"/>
       <c r="G8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="32">
         <v>120.3</v>
@@ -12360,16 +12216,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="32"/>
       <c r="G9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="32">
         <v>117.786311</v>
@@ -12378,16 +12234,16 @@
         <v>24.520453</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="32"/>
       <c r="G10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="32">
         <v>-121.132778</v>
@@ -12396,21 +12252,21 @@
         <v>37.473056</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="32">
         <v>-80.408696000000006</v>
@@ -12419,16 +12275,16 @@
         <v>27.427821999999999</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="32"/>
       <c r="G12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="32">
         <v>-80.427214000000006</v>
@@ -12437,16 +12293,16 @@
         <v>37.223215000000003</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="32"/>
       <c r="G13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -12455,21 +12311,21 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" t="s">
         <v>285</v>
       </c>
-      <c r="F14" t="s">
-        <v>286</v>
-      </c>
       <c r="G14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B15" s="32">
         <v>-80.907136899999998</v>
@@ -12478,21 +12334,21 @@
         <v>27.213987700000001</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -12501,15 +12357,15 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B17" s="32">
         <v>-81.880556400000003</v>
@@ -12518,21 +12374,21 @@
         <v>26.674672000000001</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="32">
         <v>-80.853750700000006</v>
@@ -12541,21 +12397,21 @@
         <v>27.329125999999999</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -12564,21 +12420,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -12587,21 +12443,21 @@
         <v>27.592262000000002</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -12610,21 +12466,21 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>259</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="32">
         <v>-80.479466200000005</v>
@@ -12633,21 +12489,21 @@
         <v>27.609477500000001</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23" s="32">
         <v>-81.445307999999997</v>
@@ -12656,21 +12512,21 @@
         <v>28.5647631</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="32">
         <v>-82.477197000000004</v>
@@ -12679,21 +12535,21 @@
         <v>29.923072999999999</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" s="32">
         <v>-85.024425500000007</v>
@@ -12702,21 +12558,21 @@
         <v>34.827157800000002</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -12725,21 +12581,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="F26" t="s">
-        <v>284</v>
-      </c>
       <c r="G26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -12748,21 +12604,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -12771,21 +12627,21 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="32">
         <v>-73.828925999999996</v>
@@ -12794,21 +12650,21 @@
         <v>40.584173399999997</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30" s="32">
         <v>3.5740601999999999</v>
@@ -12817,16 +12673,16 @@
         <v>51.082552</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E30" s="32"/>
       <c r="G30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" s="32">
         <v>16.430962999999998</v>
@@ -12835,16 +12691,16 @@
         <v>48.197578999999998</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E31" s="32"/>
       <c r="G31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32">
         <v>146.80000000000001</v>
@@ -12853,12 +12709,12 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" s="32">
         <v>-76.900000000000006</v>
@@ -12867,16 +12723,16 @@
         <v>39</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E33" s="32"/>
       <c r="G33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="32">
         <v>-76.713593000000003</v>
@@ -12885,16 +12741,16 @@
         <v>38.784427000000001</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E34" s="32"/>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35">
         <v>-76.457588999999999</v>
@@ -12903,15 +12759,15 @@
         <v>39.131529</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36">
         <v>-76.268676999999997</v>
@@ -12920,15 +12776,15 @@
         <v>39.449888999999999</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="32">
         <v>-76.188846600000005</v>
@@ -12937,16 +12793,16 @@
         <v>38.609043200000002</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E37" s="32"/>
       <c r="G37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B38" s="32">
         <v>-76.382262999999995</v>
@@ -12955,21 +12811,21 @@
         <v>37.247632000000003</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" s="32">
         <v>-94.1666666666667</v>
@@ -12978,21 +12834,21 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" s="32">
         <v>-94.089297000000002</v>
@@ -13001,21 +12857,21 @@
         <v>36.080810999999997</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="32">
         <v>-82.323492000000002</v>
@@ -13024,16 +12880,16 @@
         <v>29.645575999999998</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E41" s="32"/>
       <c r="G41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B42" s="32">
         <v>-98.806156999999999</v>
@@ -13042,21 +12898,21 @@
         <v>29.491195399999999</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="32">
         <v>16.163287777777775</v>
@@ -13065,16 +12921,16 @@
         <v>51.627626666666664</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E43" s="32"/>
       <c r="G43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -13083,21 +12939,21 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="32">
         <v>-75.900000000000006</v>
@@ -13106,11 +12962,11 @@
         <v>39</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E45" s="32"/>
       <c r="G45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -13138,10 +12994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13149,7 +13005,7 @@
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -13165,117 +13021,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+        <v>363</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="A2" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="41">
         <v>15</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="41">
         <v>365.25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="37" t="str">
+      <c r="A3" s="40" t="str">
         <f>A2</f>
         <v>ATS productivity (high lat)</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="41">
         <f>B2*$G$2*$G$3/$G$4</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C3" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="41">
         <f>100*100</f>
         <v>10000</v>
       </c>
-      <c r="H3" t="s">
-        <v>222</v>
+      <c r="H3" s="40" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="41">
         <v>25</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="41">
         <v>1000000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="37" t="str">
+      <c r="A5" s="40" t="str">
         <f>A4</f>
         <v>ATS productivity (equator)</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="41">
         <f>B4*$G$2*$G$3/$G$4</f>
         <v>91.3125</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="41">
         <v>1000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="37" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B6" s="38">
         <v>40</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G6" s="1">
         <v>1000</v>
@@ -13294,7 +13153,7 @@
         <v>146.1</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -13309,13 +13168,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="37" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B8" s="38">
         <v>40000000</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -13330,40 +13189,40 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="37" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B9" s="38">
         <f>B8*G19</f>
         <v>10566880</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1">
         <f>G3*G2/G4</f>
         <v>3.6524999999999999</v>
       </c>
       <c r="H9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="41">
         <f>40000000000/G11</f>
         <v>10916659471.299574</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>220</v>
+      <c r="C10" s="40" t="s">
+        <v>219</v>
       </c>
       <c r="F10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
@@ -13382,7 +13241,7 @@
         <v>29888184726350.648</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -13397,7 +13256,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="37" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B12" s="38">
         <v>5</v>
@@ -13406,7 +13265,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="1">
         <v>12.010999999999999</v>
@@ -13423,10 +13282,10 @@
         <v>107500000000000</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" s="1">
         <v>14.007</v>
@@ -13437,16 +13296,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="1">
         <v>49642700000000</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" s="1">
         <v>15.9994</v>
@@ -13465,10 +13324,10 @@
         <v>135914305270.36276</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" s="1">
         <v>30.97</v>
@@ -13488,16 +13347,16 @@
         <v>49642700</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="1">
+        <v>219</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="41">
         <v>0.5</v>
       </c>
-      <c r="H16" t="s">
-        <v>231</v>
+      <c r="H16" s="40" t="s">
+        <v>230</v>
       </c>
       <c r="K16" s="1"/>
     </row>
@@ -13511,38 +13370,38 @@
         <v>49.642699999999998</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="41">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H17" t="s">
-        <v>232</v>
+      <c r="H17" s="40" t="s">
+        <v>231</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1">
         <v>9100721000000</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="1">
+        <v>217</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="41">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H18" t="s">
-        <v>233</v>
+      <c r="H18" s="40" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13555,7 +13414,7 @@
         <v>24916416153.319645</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
@@ -13577,10 +13436,10 @@
         <v>9100721</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G20" s="1">
         <v>2.47105</v>
@@ -13591,38 +13450,41 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="1">
         <f>B18/$G$7</f>
         <v>9.1007210000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" s="1">
         <f>1/2.54</f>
         <v>0.39370078740157477</v>
       </c>
       <c r="H21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="1">
-        <v>330</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
+      <c r="A22" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" s="41">
+        <v>104.9</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>449</v>
       </c>
       <c r="F22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G22" s="1">
         <v>3.28084</v>
@@ -13634,56 +13496,59 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="1">
         <f>B22*$G$8/$G$6</f>
-        <v>330000000000000</v>
+        <v>104900000000000</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G23" s="1">
         <v>1.3079499999999999</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
+      <c r="A24" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="41">
+        <v>8</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>449</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="1">
         <f>1000000*G25/2000</f>
         <v>1.1023099999999999</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B25" s="1">
         <f>B24*$G$8/$G$6</f>
-        <v>9100000000000</v>
+        <v>8000000000000</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -13704,10 +13569,10 @@
         <v>107500000000000</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G26" s="1">
         <v>9.2902999999999998E-6</v>
@@ -13724,7 +13589,7 @@
         <v>22000000000000</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -13738,56 +13603,56 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B28" s="1">
         <v>104.9</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="41">
         <v>0.453592</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B29" s="1">
         <f>B28*G8/G4</f>
         <v>104900000000</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="41">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="H29" t="s">
-        <v>222</v>
+      <c r="H29" s="40" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B30" s="1">
         <f>($B$29/$G$16)*G4/G8</f>
         <v>209.8</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -13796,70 +13661,70 @@
         <v>1.60934</v>
       </c>
       <c r="H30" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B31" s="2">
         <v>9100000000</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G31" s="1">
         <v>1000</v>
       </c>
       <c r="H31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B32" s="2">
         <f>B31*G4/G8</f>
         <v>9.1</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2">
         <f>B32/B30</f>
         <v>4.3374642516682549E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B34" s="1">
-        <f>B72/B30</f>
+        <f>B85/B30</f>
         <v>1.4459359707658085E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
+        <v>332</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:13">
       <c r="B35" s="1"/>
@@ -13870,83 +13735,83 @@
         <v>1000</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" t="s">
+      <c r="A37" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="40">
         <v>14.7</v>
       </c>
-      <c r="C37" t="s">
-        <v>225</v>
+      <c r="C37" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="s">
+      <c r="A38" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="41">
         <f>B37*G28/G29</f>
         <v>10335.11439022878</v>
       </c>
-      <c r="C38" t="s">
-        <v>226</v>
+      <c r="C38" s="40" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" t="s">
+      <c r="A39" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="41">
         <v>510100000000000</v>
       </c>
-      <c r="C39" t="s">
-        <v>222</v>
+      <c r="C39" s="40" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" t="s">
+      <c r="A40" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="41">
         <f>B38*B39</f>
         <v>5.2719418504557005E+18</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" t="s">
+      <c r="A41" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="41">
         <f>B40/1000000</f>
         <v>5271941850455.7002</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="B42" s="38">
+      <c r="A42" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="41">
         <f>B41/G5</f>
         <v>5271941850.4556999</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13963,44 +13828,44 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" t="s">
+      <c r="A44" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="41">
         <f>B42*400</f>
         <v>2108776740182.28</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" s="38">
+      <c r="A45" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="41">
         <f>B10/B42</f>
         <v>2.0707093858320822</v>
       </c>
-      <c r="C45" s="37" t="s">
-        <v>227</v>
+      <c r="C45" s="40" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="B46" s="38">
+      <c r="A46" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="41">
         <f>B45*B42</f>
         <v>10916659471.299574</v>
       </c>
-      <c r="C46" s="37" t="s">
-        <v>220</v>
+      <c r="C46" s="40" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B47">
         <v>410</v>
@@ -14012,7 +13877,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B48" s="1">
         <f>B47*B41</f>
@@ -14026,26 +13891,26 @@
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="A50" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" t="s">
         <v>166</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>167</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -14105,554 +13970,1979 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="41">
+        <v>250000</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="35"/>
+      <c r="A58" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="A59" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="41">
+        <v>5</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="41">
+        <v>100000</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="41">
+        <v>0.05</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="41">
+        <f>(B$60/B$59)+B57*B$61</f>
+        <v>32500</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="41">
+        <f>(B$60/B$59)+B58*B$61</f>
+        <v>70000</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" s="1">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B65" s="1">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="1">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>337</v>
+      </c>
+      <c r="B68" s="1">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="1">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B72" s="1">
         <f>B15/G17</f>
         <v>2831548026465.8906</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="1">
+        <f>B72*G2/G4</f>
+        <v>1034222916.6666665</v>
+      </c>
+      <c r="C73" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="1">
-        <f>B59*G2/G4</f>
-        <v>1034222916.6666665</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B74" s="1">
+        <f>B72*$G$2/$G$8</f>
+        <v>1.0342229166666665</v>
+      </c>
+      <c r="C74" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="1">
+        <f>B72/B2</f>
+        <v>188769868431.05939</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="1">
+        <f>B75/G3</f>
+        <v>18876986.843105938</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="1">
+        <f>B72/B4</f>
+        <v>113261921058.63562</v>
+      </c>
+      <c r="C77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="1">
+        <f>B77/G3</f>
+        <v>11326192.105863562</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="1">
+        <f>B73*G18</f>
+        <v>3102668.7499999995</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="1">
+        <f>B73*G16</f>
+        <v>517111458.33333325</v>
+      </c>
+      <c r="C80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="35"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="1">
-        <f>B59*$G$2/$G$8</f>
-        <v>1.0342229166666665</v>
-      </c>
-      <c r="C61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="1">
-        <f>B59/B2</f>
-        <v>188769868431.05939</v>
-      </c>
-      <c r="C62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" s="1">
-        <f>B62/G3</f>
-        <v>18876986.843105938</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="1">
-        <f>B59/B4</f>
-        <v>113261921058.63562</v>
-      </c>
-      <c r="C64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="1">
-        <f>B64/G3</f>
-        <v>11326192.105863562</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="1">
-        <f>B60*G18</f>
-        <v>3102668.7499999995</v>
-      </c>
-      <c r="C66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="1">
-        <f>B60*G16</f>
-        <v>517111458.33333325</v>
-      </c>
-      <c r="C67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="35"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="1">
+      <c r="B83" s="1">
         <f>B19/G18</f>
         <v>8305472051106.5479</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C83" t="s">
+        <v>218</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="str">
+        <f>A83</f>
+        <v>Biomass implied</v>
+      </c>
+      <c r="B84" s="1">
+        <f>G2*B83/G4</f>
+        <v>3033573666.6666665</v>
+      </c>
+      <c r="C84" t="s">
         <v>219</v>
       </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="str">
-        <f>A70</f>
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="str">
+        <f>A84</f>
         <v>Biomass implied</v>
       </c>
-      <c r="B71" s="1">
-        <f>G2*B70/G4</f>
-        <v>3033573666.6666665</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B85" s="1">
+        <f>B83*$G$2/$G$8</f>
+        <v>3.0335736666666664</v>
+      </c>
+      <c r="C85" t="s">
         <v>220</v>
       </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="str">
-        <f>A71</f>
-        <v>Biomass implied</v>
-      </c>
-      <c r="B72" s="1">
-        <f>B70*$G$2/$G$8</f>
-        <v>3.0335736666666664</v>
-      </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="1">
+        <f>B83/B2</f>
+        <v>553698136740.43652</v>
+      </c>
+      <c r="C86" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
+    <row r="87" spans="1:9">
+      <c r="A87" t="str">
+        <f>A86</f>
+        <v>ATS area implied (low prod)</v>
+      </c>
+      <c r="B87" s="1">
+        <f>B86/G3</f>
+        <v>55369813.674043655</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="1">
-        <f>B70/B2</f>
-        <v>553698136740.43652</v>
-      </c>
-      <c r="C73" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="str">
-        <f>A73</f>
-        <v>ATS area implied (low prod)</v>
-      </c>
-      <c r="B74" s="1">
-        <f>B73/G3</f>
-        <v>55369813.674043655</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B88" s="1">
+        <f>B83/B4</f>
+        <v>332218882044.2619</v>
+      </c>
+      <c r="C88" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="1">
+        <f>B88/G3</f>
+        <v>33221888.204426192</v>
+      </c>
+      <c r="C89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>180</v>
-      </c>
-      <c r="B75" s="1">
-        <f>B70/B4</f>
-        <v>332218882044.2619</v>
-      </c>
-      <c r="C75" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76" s="1">
-        <f>B75/G3</f>
-        <v>33221888.204426192</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="1">
-        <f>B71*G17</f>
+      <c r="B90" s="1">
+        <f>B84*G17</f>
         <v>145611536</v>
       </c>
-      <c r="C77" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
+      <c r="C90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="1">
-        <f>B71*G16</f>
+      <c r="B91" s="1">
+        <f>B84*G16</f>
         <v>1516786833.3333333</v>
       </c>
-      <c r="C78" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="34"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="34"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="1">
-        <f>G4*B82/G2</f>
+      <c r="B94" s="1">
+        <f>G4*B95/G2</f>
         <v>59776369452701.297</v>
       </c>
-      <c r="C81" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+      <c r="C94" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B95" s="1">
         <f>B10/G16</f>
         <v>21833318942.599148</v>
       </c>
-      <c r="C82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="1">
+        <f>B94/B2</f>
+        <v>3985091296846.7529</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="str">
+        <f>A96</f>
+        <v>ATS area implied (low prod)</v>
+      </c>
+      <c r="B97" s="1">
+        <f>B96/G3</f>
+        <v>398509129.68467528</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="1">
-        <f>B81/B2</f>
-        <v>3985091296846.7529</v>
-      </c>
-      <c r="C83" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="str">
-        <f>A83</f>
-        <v>ATS area implied (low prod)</v>
-      </c>
-      <c r="B84" s="1">
-        <f>B83/G3</f>
-        <v>398509129.68467528</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B98" s="1">
+        <f>B94/B4</f>
+        <v>2391054778108.0518</v>
+      </c>
+      <c r="C98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="1">
+        <f>B98/G3</f>
+        <v>239105477.81080517</v>
+      </c>
+      <c r="C99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" s="1">
-        <f>B81/B4</f>
-        <v>2391054778108.0518</v>
-      </c>
-      <c r="C85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" s="1">
-        <f>B85/G3</f>
-        <v>239105477.81080517</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="1">
+        <f>B95*G17</f>
+        <v>1047999309.2447591</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="1">
+        <f>B95*G18</f>
+        <v>65499956.827797443</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="36"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="8">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" s="8">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="8">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1.545806E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="8">
+        <v>0.18188969999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114">
+        <v>1.4659849999999999E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115">
+        <v>1.724974E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116">
+        <v>9.4836279999999995E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="34"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="1">
+        <v>11194445</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="1">
+        <f>B125*$G$27</f>
+        <v>59106669600</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="1">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="1">
+        <f>B127*B126</f>
+        <v>1182133392000</v>
+      </c>
+      <c r="C128" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="1">
+        <f>B128*G26</f>
+        <v>10982373.8516976</v>
+      </c>
+      <c r="C129" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="1">
-        <f>B82*G17</f>
-        <v>1047999309.2447591</v>
-      </c>
-      <c r="C87" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="1">
-        <f>B82*G18</f>
-        <v>65499956.827797443</v>
-      </c>
-      <c r="C88" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="36"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B92" s="8">
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A56:C56"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C368"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(B$5/B$4)+B2*B$6</f>
+        <v>32500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1">
+        <f>(B$5/B$4)+B3*B$6</f>
+        <v>70000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="1">
         <v>50</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="8">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="1">
         <v>100</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="8">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="1">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B97" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B98" s="8">
-        <v>1.545806E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99" s="8">
-        <v>0.18188969999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101">
-        <v>1.4659849999999999E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B102">
-        <v>1.724974E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103">
-        <v>9.4836279999999995E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="34"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>174</v>
-      </c>
-      <c r="B112" s="1">
-        <v>11194445</v>
-      </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="1">
-        <f>B112*$G$27</f>
-        <v>59106669600</v>
-      </c>
-      <c r="C113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>26</v>
-      </c>
-      <c r="B114" s="1">
-        <v>20</v>
-      </c>
-      <c r="C114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" s="1">
-        <f>B114*B113</f>
-        <v>1182133392000</v>
-      </c>
-      <c r="C115" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>27</v>
-      </c>
-      <c r="B116" s="1">
-        <f>B115*G26</f>
-        <v>10982373.8516976</v>
-      </c>
-      <c r="C116" t="s">
-        <v>3</v>
-      </c>
+    <row r="15" spans="1:3">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188"/>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190"/>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192"/>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196"/>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200"/>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206"/>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208"/>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212"/>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250"/>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252"/>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256"/>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258"/>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278"/>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280"/>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282"/>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284"/>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286"/>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288"/>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290"/>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292"/>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294"/>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295"/>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296"/>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298"/>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300"/>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302"/>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303"/>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304"/>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306"/>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307"/>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308"/>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309"/>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310"/>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311"/>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312"/>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314"/>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315"/>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317"/>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318"/>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319"/>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320"/>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321"/>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322"/>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323"/>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324"/>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325"/>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326"/>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327"/>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328"/>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329"/>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330"/>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331"/>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332"/>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333"/>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334"/>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335"/>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336"/>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337"/>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338"/>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339"/>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340"/>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341"/>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342"/>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343"/>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344"/>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346"/>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347"/>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348"/>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349"/>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350"/>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351"/>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352"/>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353"/>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354"/>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355"/>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356"/>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357"/>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358"/>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359"/>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360"/>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361"/>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362"/>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363"/>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365"/>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366"/>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367"/>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="F34:H34"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14665,7 +15955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS208"/>
   <sheetViews>
@@ -14692,28 +15982,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
-        <v>128</v>
-      </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1">
         <f t="array" ref="I1:J1">LINEST(G17:G40,A17:A40)</f>
@@ -14723,18 +16013,18 @@
         <v>1976853561.1151385</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
@@ -14800,10 +16090,10 @@
         <v>6195589560</v>
       </c>
       <c r="Q2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:71">
@@ -14831,10 +16121,10 @@
         <v>6274734084.1000004</v>
       </c>
       <c r="Q3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -14862,10 +16152,10 @@
         <v>6353976427.1999998</v>
       </c>
       <c r="Q4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" t="s">
         <v>118</v>
-      </c>
-      <c r="R4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -14893,10 +16183,10 @@
         <v>6433748714</v>
       </c>
       <c r="Q5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" t="s">
         <v>120</v>
-      </c>
-      <c r="R5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -20861,7 +22151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG106"/>
   <sheetViews>
@@ -20904,128 +22194,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="18" customFormat="1">
-      <c r="C1" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1"/>
-      <c r="J1" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="42"/>
-      <c r="M1" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" s="42"/>
-      <c r="P1" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="J1" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="M1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="P1" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
       <c r="AB1"/>
-      <c r="AC1" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
+      <c r="AC1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
       <c r="AG1" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" t="s">
         <v>95</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" t="s">
         <v>97</v>
       </c>
-      <c r="S2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" t="s">
-        <v>98</v>
-      </c>
       <c r="Y2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB2"/>
       <c r="AC2" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -21034,7 +22324,7 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="24">
         <f>ROW()-2</f>
@@ -21066,7 +22356,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="27" t="s">
         <v>44</v>
@@ -21125,14 +22415,14 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="19">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="20">
         <v>0.05</v>
@@ -21157,7 +22447,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>44</v>
@@ -21216,7 +22506,7 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="24">
         <f t="shared" ref="D5:D13" si="2">ROW()-2</f>
@@ -21247,7 +22537,7 @@
         <v>0.1</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="27" t="s">
         <v>44</v>
@@ -21306,7 +22596,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="19">
         <f t="shared" si="2"/>
@@ -21329,10 +22619,10 @@
         <v>2.0707093858320822</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="27" t="s">
         <v>44</v>
@@ -21393,14 +22683,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="24">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="24">
         <v>62</v>
@@ -21419,7 +22709,7 @@
       </c>
       <c r="O7" s="8"/>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="27" t="s">
         <v>44</v>
@@ -21468,7 +22758,7 @@
         <v>NA</v>
       </c>
       <c r="AG7" t="str">
-        <f>"fact.ct &lt;- "&amp;Settings!I70&amp;" # number of factors in bar"</f>
+        <f>"fact.ct &lt;- "&amp;Settings!I83&amp;" # number of factors in bar"</f>
         <v>fact.ct &lt;-  # number of factors in bar</v>
       </c>
     </row>
@@ -21480,14 +22770,14 @@
         <v>12</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="24">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="24">
         <v>6.2</v>
@@ -21508,7 +22798,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="27" t="s">
         <v>44</v>
@@ -21567,14 +22857,14 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="19">
         <v>4000</v>
@@ -21595,7 +22885,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="27" t="s">
         <v>44</v>
@@ -21654,14 +22944,14 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="24">
         <v>0.75</v>
@@ -21682,7 +22972,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>44</v>
@@ -21737,20 +23027,20 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="19">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="19">
         <v>10</v>
@@ -21771,7 +23061,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="27" t="s">
         <v>44</v>
@@ -21826,20 +23116,20 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="19">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" ref="F12:G12" si="3">F11</f>
@@ -21862,7 +23152,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="27" t="s">
         <v>44</v>
@@ -21921,14 +23211,14 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="24">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="24">
         <v>350</v>
@@ -21951,7 +23241,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="27" t="s">
         <v>44</v>
@@ -22619,7 +23909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
@@ -22652,10 +23942,10 @@
         <v>46</v>
       </c>
       <c r="R1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
@@ -22698,10 +23988,10 @@
         <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -22750,13 +24040,13 @@
         <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
       </c>
       <c r="T3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -22805,14 +24095,14 @@
         <v>52</v>
       </c>
       <c r="R4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
         <v>42.551625000000001</v>
       </c>
       <c r="T4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -22858,7 +24148,7 @@
         <v>2.8</v>
       </c>
       <c r="T5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -22904,7 +24194,7 @@
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -22950,7 +24240,7 @@
         <v>0.97999999999999987</v>
       </c>
       <c r="T7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -22987,13 +24277,13 @@
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
       </c>
       <c r="T8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -23039,7 +24329,7 @@
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -23076,7 +24366,7 @@
         <v>0.10400000000000001</v>
       </c>
       <c r="T10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -23106,26 +24396,26 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="S11" s="1">
         <f>S7/Settings!G17</f>
         <v>20.416666666666664</v>
       </c>
       <c r="T11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S12" s="1">
         <f>S10/Settings!$G$18</f>
         <v>34.666666666666671</v>
       </c>
       <c r="T12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -23139,81 +24429,81 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
         <v>2.084161224489796</v>
       </c>
       <c r="T13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
         <v>1.2274507211538461</v>
       </c>
       <c r="T14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
       </c>
       <c r="T18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
         <v>84.646687499999999</v>
       </c>
       <c r="T19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
       </c>
       <c r="T20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
@@ -23225,48 +24515,48 @@
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S23" s="1">
         <f>S22*Settings!$G$10</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="18:20">
@@ -23277,7 +24567,7 @@
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="18:20">
@@ -23289,7 +24579,7 @@
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="18:20">
@@ -23301,7 +24591,7 @@
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="18:20">
@@ -23313,7 +24603,7 @@
         <v>1.2269478E-3</v>
       </c>
       <c r="T29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="18:20">
@@ -23325,63 +24615,63 @@
         <v>0.49077912000000001</v>
       </c>
       <c r="T30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S31" s="1">
         <f>S30/Settings!$G$18</f>
         <v>163.59304</v>
       </c>
       <c r="T31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
       </c>
       <c r="T35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
         <v>68.667000000000002</v>
       </c>
       <c r="T36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
@@ -23392,48 +24682,48 @@
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S39" s="1">
         <f>S38*Settings!$G$10</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="18:20">
@@ -23444,7 +24734,7 @@
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="18:20">
@@ -23456,7 +24746,7 @@
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="18:20">
@@ -23468,7 +24758,7 @@
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="18:20">
@@ -23480,7 +24770,7 @@
         <v>3.9695370000000004E-3</v>
       </c>
       <c r="T45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="18:20">
@@ -23492,19 +24782,19 @@
         <v>3.7098476635514023E-3</v>
       </c>
       <c r="T46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S47" s="1">
         <f>S46/Settings!$G$18</f>
         <v>1.2366158878504674</v>
       </c>
       <c r="T47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="18:20">
@@ -23512,1253 +24802,10 @@
         <v>48</v>
       </c>
       <c r="T51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C368"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="1">
-        <v>250000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1">
-        <f>(B$5/B$4)+B2*B$6</f>
-        <v>32500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="1">
-        <f>(B$5/B$4)+B3*B$6</f>
-        <v>70000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" s="1">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B12" s="1">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="1">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="1">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157"/>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158"/>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159"/>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174"/>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175"/>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176"/>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177"/>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184"/>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185"/>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186"/>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187"/>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188"/>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189"/>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190"/>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191"/>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192"/>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193"/>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196"/>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197"/>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199"/>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200"/>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201"/>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204"/>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205"/>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206"/>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207"/>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208"/>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209"/>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210"/>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211"/>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212"/>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213"/>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214"/>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215"/>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216"/>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217"/>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218"/>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219"/>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220"/>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221"/>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222"/>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223"/>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224"/>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225"/>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226"/>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227"/>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228"/>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229"/>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230"/>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231"/>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232"/>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233"/>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234"/>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235"/>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236"/>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237"/>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238"/>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239"/>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240"/>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242"/>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244"/>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245"/>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246"/>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247"/>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248"/>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249"/>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250"/>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251"/>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252"/>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253"/>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254"/>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255"/>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256"/>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257"/>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258"/>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259"/>
-    </row>
-    <row r="260" spans="2:2">
-      <c r="B260"/>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261"/>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262"/>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263"/>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264"/>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265"/>
-    </row>
-    <row r="266" spans="2:2">
-      <c r="B266"/>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267"/>
-    </row>
-    <row r="268" spans="2:2">
-      <c r="B268"/>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269"/>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270"/>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271"/>
-    </row>
-    <row r="272" spans="2:2">
-      <c r="B272"/>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273"/>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274"/>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275"/>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276"/>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277"/>
-    </row>
-    <row r="278" spans="2:2">
-      <c r="B278"/>
-    </row>
-    <row r="279" spans="2:2">
-      <c r="B279"/>
-    </row>
-    <row r="280" spans="2:2">
-      <c r="B280"/>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281"/>
-    </row>
-    <row r="282" spans="2:2">
-      <c r="B282"/>
-    </row>
-    <row r="283" spans="2:2">
-      <c r="B283"/>
-    </row>
-    <row r="284" spans="2:2">
-      <c r="B284"/>
-    </row>
-    <row r="285" spans="2:2">
-      <c r="B285"/>
-    </row>
-    <row r="286" spans="2:2">
-      <c r="B286"/>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287"/>
-    </row>
-    <row r="288" spans="2:2">
-      <c r="B288"/>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289"/>
-    </row>
-    <row r="290" spans="2:2">
-      <c r="B290"/>
-    </row>
-    <row r="291" spans="2:2">
-      <c r="B291"/>
-    </row>
-    <row r="292" spans="2:2">
-      <c r="B292"/>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293"/>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294"/>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295"/>
-    </row>
-    <row r="296" spans="2:2">
-      <c r="B296"/>
-    </row>
-    <row r="297" spans="2:2">
-      <c r="B297"/>
-    </row>
-    <row r="298" spans="2:2">
-      <c r="B298"/>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299"/>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300"/>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301"/>
-    </row>
-    <row r="302" spans="2:2">
-      <c r="B302"/>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303"/>
-    </row>
-    <row r="304" spans="2:2">
-      <c r="B304"/>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305"/>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306"/>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307"/>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308"/>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309"/>
-    </row>
-    <row r="310" spans="2:2">
-      <c r="B310"/>
-    </row>
-    <row r="311" spans="2:2">
-      <c r="B311"/>
-    </row>
-    <row r="312" spans="2:2">
-      <c r="B312"/>
-    </row>
-    <row r="313" spans="2:2">
-      <c r="B313"/>
-    </row>
-    <row r="314" spans="2:2">
-      <c r="B314"/>
-    </row>
-    <row r="315" spans="2:2">
-      <c r="B315"/>
-    </row>
-    <row r="316" spans="2:2">
-      <c r="B316"/>
-    </row>
-    <row r="317" spans="2:2">
-      <c r="B317"/>
-    </row>
-    <row r="318" spans="2:2">
-      <c r="B318"/>
-    </row>
-    <row r="319" spans="2:2">
-      <c r="B319"/>
-    </row>
-    <row r="320" spans="2:2">
-      <c r="B320"/>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321"/>
-    </row>
-    <row r="322" spans="2:2">
-      <c r="B322"/>
-    </row>
-    <row r="323" spans="2:2">
-      <c r="B323"/>
-    </row>
-    <row r="324" spans="2:2">
-      <c r="B324"/>
-    </row>
-    <row r="325" spans="2:2">
-      <c r="B325"/>
-    </row>
-    <row r="326" spans="2:2">
-      <c r="B326"/>
-    </row>
-    <row r="327" spans="2:2">
-      <c r="B327"/>
-    </row>
-    <row r="328" spans="2:2">
-      <c r="B328"/>
-    </row>
-    <row r="329" spans="2:2">
-      <c r="B329"/>
-    </row>
-    <row r="330" spans="2:2">
-      <c r="B330"/>
-    </row>
-    <row r="331" spans="2:2">
-      <c r="B331"/>
-    </row>
-    <row r="332" spans="2:2">
-      <c r="B332"/>
-    </row>
-    <row r="333" spans="2:2">
-      <c r="B333"/>
-    </row>
-    <row r="334" spans="2:2">
-      <c r="B334"/>
-    </row>
-    <row r="335" spans="2:2">
-      <c r="B335"/>
-    </row>
-    <row r="336" spans="2:2">
-      <c r="B336"/>
-    </row>
-    <row r="337" spans="2:2">
-      <c r="B337"/>
-    </row>
-    <row r="338" spans="2:2">
-      <c r="B338"/>
-    </row>
-    <row r="339" spans="2:2">
-      <c r="B339"/>
-    </row>
-    <row r="340" spans="2:2">
-      <c r="B340"/>
-    </row>
-    <row r="341" spans="2:2">
-      <c r="B341"/>
-    </row>
-    <row r="342" spans="2:2">
-      <c r="B342"/>
-    </row>
-    <row r="343" spans="2:2">
-      <c r="B343"/>
-    </row>
-    <row r="344" spans="2:2">
-      <c r="B344"/>
-    </row>
-    <row r="345" spans="2:2">
-      <c r="B345"/>
-    </row>
-    <row r="346" spans="2:2">
-      <c r="B346"/>
-    </row>
-    <row r="347" spans="2:2">
-      <c r="B347"/>
-    </row>
-    <row r="348" spans="2:2">
-      <c r="B348"/>
-    </row>
-    <row r="349" spans="2:2">
-      <c r="B349"/>
-    </row>
-    <row r="350" spans="2:2">
-      <c r="B350"/>
-    </row>
-    <row r="351" spans="2:2">
-      <c r="B351"/>
-    </row>
-    <row r="352" spans="2:2">
-      <c r="B352"/>
-    </row>
-    <row r="353" spans="2:2">
-      <c r="B353"/>
-    </row>
-    <row r="354" spans="2:2">
-      <c r="B354"/>
-    </row>
-    <row r="355" spans="2:2">
-      <c r="B355"/>
-    </row>
-    <row r="356" spans="2:2">
-      <c r="B356"/>
-    </row>
-    <row r="357" spans="2:2">
-      <c r="B357"/>
-    </row>
-    <row r="358" spans="2:2">
-      <c r="B358"/>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359"/>
-    </row>
-    <row r="360" spans="2:2">
-      <c r="B360"/>
-    </row>
-    <row r="361" spans="2:2">
-      <c r="B361"/>
-    </row>
-    <row r="362" spans="2:2">
-      <c r="B362"/>
-    </row>
-    <row r="363" spans="2:2">
-      <c r="B363"/>
-    </row>
-    <row r="364" spans="2:2">
-      <c r="B364"/>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365"/>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366"/>
-    </row>
-    <row r="367" spans="2:2">
-      <c r="B367"/>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -24787,21 +24834,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
@@ -24811,24 +24858,24 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B3" s="1">
         <f>'Highway Costs'!B2*Settings!G31*Settings!G30</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -24839,19 +24886,19 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B5" s="1">
         <f>B4/Settings!G22</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
@@ -24863,7 +24910,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
@@ -24875,56 +24922,56 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
         <v>105423740057.83682</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
         <v>51442240042.163231</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
         <v>156865980100.00006</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -24959,10 +25006,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="764"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="353">
   <si>
     <t>Parameters</t>
   </si>
@@ -554,12 +554,6 @@
     <t>low OPEX</t>
   </si>
   <si>
-    <t>high biomass productivity</t>
-  </si>
-  <si>
-    <t>low biomass productivity</t>
-  </si>
-  <si>
     <t>C:biomass ratio</t>
   </si>
   <si>
@@ -974,12 +968,6 @@
     <t>mod_lat_eq</t>
   </si>
   <si>
-    <t>mod_prod_hi</t>
-  </si>
-  <si>
-    <t>mod_prod_lo</t>
-  </si>
-  <si>
     <t>mod_m</t>
   </si>
   <si>
@@ -1073,16 +1061,31 @@
     <t>$ ha yr-1</t>
   </si>
   <si>
-    <t>param</t>
-  </si>
-  <si>
     <t>Geider et al., 2001</t>
   </si>
   <si>
     <t>Economic Assumptions</t>
   </si>
   <si>
-    <t>delete</t>
+    <t>Model High Latitude</t>
+  </si>
+  <si>
+    <t>Model Low Latitude</t>
+  </si>
+  <si>
+    <t>{AASHTO, 2005, #2622}</t>
+  </si>
+  <si>
+    <t>ATS productivity slope</t>
+  </si>
+  <si>
+    <t>High latitude</t>
+  </si>
+  <si>
+    <t>Low latitude</t>
+  </si>
+  <si>
+    <t>ATS productivity y intercept</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1533">
+  <cellStyleXfs count="1537">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2723,8 +2726,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2761,6 +2768,10 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2780,7 +2791,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1533">
+  <cellStyles count="1537">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3547,6 +3558,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4313,6 +4326,8 @@
     <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4751,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4767,550 +4782,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="23">
+        <f>Settings!G20</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="23" t="str">
+        <f>Settings!H20&amp;" "&amp;Settings!F20&amp;"-1"</f>
+        <v>gC gBiomass-1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="23">
+        <f>Settings!G21</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C3" s="23" t="str">
+        <f>Settings!H21&amp;" "&amp;Settings!F21&amp;"-1"</f>
+        <v>gN gBiomass-1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="21">
-        <f>Settings!G16</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="21" t="str">
-        <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
-        <v>gC gBiomass-1</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="B4" s="23">
+        <f>Settings!G22</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="23" t="str">
+        <f>Settings!H22&amp;" "&amp;Settings!F22&amp;"-1"</f>
+        <v>gP gBiomass-1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E4" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="20" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="21">
-        <f>Settings!G17</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C3" s="21" t="str">
-        <f>Settings!H17&amp;" "&amp;Settings!F17&amp;"-1"</f>
-        <v>gN gBiomass-1</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="B5" s="23">
+        <f>Settings!B50</f>
+        <v>2108776740182.28</v>
+      </c>
+      <c r="C5" s="23" t="str">
+        <f>Settings!C50</f>
+        <v>t</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="20" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="21">
-        <f>Settings!G18</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="21" t="str">
-        <f>Settings!H18&amp;" "&amp;Settings!F18&amp;"-1"</f>
-        <v>gP gBiomass-1</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="B6" s="23">
+        <f>Settings!B52</f>
+        <v>10916659471.299574</v>
+      </c>
+      <c r="C6" s="23" t="str">
+        <f>Settings!C52</f>
+        <v>t yr-1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="20" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="21">
-        <f>Settings!B44</f>
-        <v>2108776740182.28</v>
-      </c>
-      <c r="C5" s="21" t="str">
-        <f>Settings!C44</f>
-        <v>t</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="B7" s="23">
+        <f>Settings!B39</f>
+        <v>40</v>
+      </c>
+      <c r="C7" s="23" t="str">
+        <f>Settings!C39</f>
+        <v>deg</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="20" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="21">
-        <f>Settings!B46</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C6" s="21" t="str">
-        <f>Settings!C46</f>
-        <v>t yr-1</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="B8" s="23">
+        <f>Settings!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="23" t="str">
+        <f>Settings!C40</f>
+        <v>deg</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="1">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" t="s">
-        <v>348</v>
-      </c>
-    </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="23">
         <f>Settings!B3</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="A10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="23">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" s="21">
+      <c r="A11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="23">
         <f>(B10-B9)/(B8-B7)</f>
         <v>-0.91312499999999996</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="A12" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="23">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="23" t="str">
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="23">
+        <f>Settings!B26</f>
+        <v>104.9</v>
+      </c>
+      <c r="C13" s="23" t="str">
+        <f>Settings!C26</f>
+        <v>Pg yr-1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="23">
+        <f>Settings!B28</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="23" t="str">
+        <f>Settings!C28</f>
+        <v>Pg yr-1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="23">
+        <f>Settings!B65</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>Settings!C65</f>
+        <v>ha emp-1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="23">
+        <f>Settings!B66</f>
+        <v>100000</v>
+      </c>
+      <c r="C16" s="23" t="str">
+        <f>Settings!C66</f>
+        <v>$ yr-1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="21">
-        <f>Settings!B22</f>
-        <v>104.9</v>
-      </c>
-      <c r="C13" s="21" t="str">
-        <f>Settings!C22</f>
-        <v>Pg yr-1</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="20" t="s">
+      <c r="B17" s="23">
+        <f>Settings!B67</f>
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f>Settings!C67</f>
+        <v>opex yr-1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B14" s="21">
-        <f>Settings!B24</f>
-        <v>8</v>
-      </c>
-      <c r="C14" s="21" t="str">
-        <f>Settings!C24</f>
-        <v>Pg yr-1</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20" t="s">
+      <c r="B18" s="23">
+        <f>Settings!B63</f>
+        <v>250000</v>
+      </c>
+      <c r="C18" s="23" t="str">
+        <f>Settings!C63</f>
+        <v>$ ha-1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="21">
-        <f>Settings!B59</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="21" t="str">
-        <f>Settings!C59</f>
-        <v>ha emp-1</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="B19" s="23">
+        <f>Settings!B64</f>
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>Settings!C64</f>
+        <v>$ ha-1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="21">
-        <f>Settings!B60</f>
-        <v>100000</v>
-      </c>
-      <c r="C16" s="21" t="str">
-        <f>Settings!C60</f>
-        <v>$ yr-1</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="B20" s="23">
+        <f>Settings!B68</f>
+        <v>32500</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>Settings!C68</f>
+        <v>$ ha-1 yr-1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="20" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="21">
-        <f>Settings!B61</f>
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="21" t="str">
-        <f>Settings!C61</f>
-        <v>opex yr-1</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="B21" s="23">
+        <f>Settings!B69</f>
+        <v>70000</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>Settings!C69</f>
+        <v>$ ha-1 yr-1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B18" s="21">
-        <f>Settings!B57</f>
-        <v>250000</v>
-      </c>
-      <c r="C18" s="21" t="str">
-        <f>Settings!C57</f>
-        <v>$ ha-1</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="B22" s="23">
+        <f>Settings!B70</f>
+        <v>40</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>Settings!C70</f>
+        <v>yr</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="21">
-        <f>Settings!B58</f>
-        <v>1000000</v>
-      </c>
-      <c r="C19" s="21" t="str">
-        <f>Settings!C58</f>
-        <v>$ ha-1</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="B23" s="23">
+        <f>Settings!B71</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>Settings!C71</f>
+        <v>yr</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" s="21">
-        <f>Settings!B62</f>
-        <v>32500</v>
-      </c>
-      <c r="C20" s="21" t="str">
-        <f>Settings!C62</f>
-        <v>$ ha-1 yr-1</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="20" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="23">
+        <f>Settings!B72</f>
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>Settings!C72</f>
+        <v>prp</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B21" s="21">
-        <f>Settings!B63</f>
-        <v>70000</v>
-      </c>
-      <c r="C21" s="21" t="str">
-        <f>Settings!C63</f>
-        <v>$ ha-1 yr-1</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="20" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="23">
+        <f>Settings!B73</f>
+        <v>50</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>Settings!C73</f>
+        <v>yr</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="B22" s="21">
-        <f>Settings!B64</f>
-        <v>40</v>
-      </c>
-      <c r="C22" s="21" t="str">
-        <f>Settings!C64</f>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="23">
+        <f>Settings!B74</f>
+        <v>100</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>Settings!C74</f>
         <v>yr</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="D26" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="21">
-        <f>Settings!B65</f>
-        <v>20</v>
-      </c>
-      <c r="C23" s="21" t="str">
-        <f>Settings!C65</f>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="23">
+        <f>Settings!B75</f>
+        <v>200</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f>Settings!C75</f>
         <v>yr</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>330</v>
-      </c>
-      <c r="B24" s="1">
-        <f>Settings!B5</f>
-        <v>91.3125</v>
-      </c>
-      <c r="C24" t="str">
-        <f>Settings!C5</f>
-        <v>t ha-1 yr-1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="1">
-        <f>Settings!B3</f>
-        <v>54.787500000000001</v>
-      </c>
-      <c r="C25" t="str">
-        <f>Settings!C3</f>
-        <v>t ha-1 yr-1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" s="21">
-        <f>Settings!B66</f>
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="21" t="str">
-        <f>Settings!C66</f>
-        <v>prp</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B27" s="21">
-        <f>Settings!B67</f>
-        <v>50</v>
-      </c>
-      <c r="C27" s="21" t="str">
-        <f>Settings!C67</f>
-        <v>yr</v>
-      </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B28" s="21">
-        <f>Settings!B68</f>
-        <v>100</v>
-      </c>
-      <c r="C28" s="21" t="str">
-        <f>Settings!C68</f>
-        <v>yr</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="B29" s="21">
-        <f>Settings!B69</f>
-        <v>200</v>
-      </c>
-      <c r="C29" s="21" t="str">
-        <f>Settings!C69</f>
-        <v>yr</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" s="20" t="s">
+      <c r="E27" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5347,30 +5322,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="13">
         <v>146.7885378</v>
@@ -5379,18 +5354,18 @@
         <v>-19.257637299999999</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="13">
         <v>-80.457524599999999</v>
@@ -5399,21 +5374,21 @@
         <v>26.657368099999999</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="13">
         <v>-74.539295999999993</v>
@@ -5422,11 +5397,11 @@
         <v>40.372374000000001</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5440,16 +5415,16 @@
         <v>37.855311</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="13"/>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B6" s="13">
         <v>-120.9</v>
@@ -5458,16 +5433,16 @@
         <v>50.8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="13"/>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="13">
         <v>-119.7</v>
@@ -5476,11 +5451,11 @@
         <v>50.8</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="13"/>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5494,16 +5469,16 @@
         <v>17.45</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E8" s="13"/>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="13">
         <v>120.3</v>
@@ -5512,11 +5487,11 @@
         <v>23</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="13"/>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5530,16 +5505,16 @@
         <v>24.520453</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="13"/>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B11" s="13">
         <v>-121.132778</v>
@@ -5548,16 +5523,16 @@
         <v>37.473056</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5571,11 +5546,11 @@
         <v>27.427821999999999</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" s="13"/>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5589,16 +5564,16 @@
         <v>37.223215000000003</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" s="13"/>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -5607,21 +5582,21 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15" s="13">
         <v>-80.907136899999998</v>
@@ -5630,21 +5605,21 @@
         <v>27.213987700000001</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -5653,15 +5628,15 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" t="s">
         <v>240</v>
-      </c>
-      <c r="G16" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="13">
         <v>-81.880556400000003</v>
@@ -5670,21 +5645,21 @@
         <v>26.674672000000001</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18" s="13">
         <v>-80.853750700000006</v>
@@ -5693,21 +5668,21 @@
         <v>27.329125999999999</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -5716,21 +5691,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -5739,21 +5714,21 @@
         <v>27.592262000000002</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -5762,21 +5737,21 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" s="13">
         <v>-80.479466200000005</v>
@@ -5785,21 +5760,21 @@
         <v>27.609477500000001</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B23" s="13">
         <v>-81.445307999999997</v>
@@ -5808,21 +5783,21 @@
         <v>28.5647631</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" s="13">
         <v>-82.477197000000004</v>
@@ -5831,21 +5806,21 @@
         <v>29.923072999999999</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B25" s="13">
         <v>-85.024425500000007</v>
@@ -5854,21 +5829,21 @@
         <v>34.827157800000002</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -5877,21 +5852,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -5900,21 +5875,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -5923,21 +5898,21 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B29" s="13">
         <v>-73.828925999999996</v>
@@ -5946,21 +5921,21 @@
         <v>40.584173399999997</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" s="13">
         <v>3.5740601999999999</v>
@@ -5969,16 +5944,16 @@
         <v>51.082552</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E30" s="13"/>
       <c r="G30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="13">
         <v>16.430962999999998</v>
@@ -5987,11 +5962,11 @@
         <v>48.197578999999998</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" s="13"/>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6005,12 +5980,12 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B33" s="13">
         <v>-76.900000000000006</v>
@@ -6019,11 +5994,11 @@
         <v>39</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="13"/>
       <c r="G33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6037,11 +6012,11 @@
         <v>38.784427000000001</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="13"/>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6055,10 +6030,10 @@
         <v>39.131529</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6072,10 +6047,10 @@
         <v>39.449888999999999</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6089,11 +6064,11 @@
         <v>38.609043200000002</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E37" s="13"/>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6107,16 +6082,16 @@
         <v>37.247632000000003</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6130,16 +6105,16 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6153,16 +6128,16 @@
         <v>36.080810999999997</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6176,16 +6151,16 @@
         <v>29.645575999999998</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="13"/>
       <c r="G41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B42" s="13">
         <v>-98.806156999999999</v>
@@ -6194,21 +6169,21 @@
         <v>29.491195399999999</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B43" s="13">
         <v>16.163287777777775</v>
@@ -6217,16 +6192,16 @@
         <v>51.627626666666664</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E43" s="13"/>
       <c r="G43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -6235,21 +6210,21 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B45" s="13">
         <v>-75.900000000000006</v>
@@ -6258,11 +6233,11 @@
         <v>39</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E45" s="13"/>
       <c r="G45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6290,10 +6265,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6317,32 +6292,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="21">
         <v>15</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>336</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>1</v>
@@ -6379,7 +6351,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" s="21">
         <v>25</v>
@@ -6420,1135 +6392,1149 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="21">
         <v>40</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="21">
+        <f>(B5-B3)/(B7-B6)</f>
+        <v>-0.91312499999999996</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="21">
+        <f>B6</f>
+        <v>40</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="19">
+        <v>40</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="18" t="str">
-        <f>A6</f>
-        <v>ATS productivity (Adey et al.)</v>
-      </c>
-      <c r="B7" s="19">
-        <f>B6*$G$2*$G$3/$G$4</f>
-        <v>146.1</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1000000000000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="19">
-        <v>40000000</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1000000000000000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="19">
-        <f>B8*G19</f>
-        <v>10566880</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="1">
-        <f>G3*G2/G4</f>
-        <v>3.6524999999999999</v>
-      </c>
-      <c r="H9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="21">
-        <f>40000000000/G11</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="1"/>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18" t="s">
-        <v>16</v>
+      <c r="A11" s="18" t="str">
+        <f>A10</f>
+        <v>ATS productivity (Adey et al.)</v>
       </c>
       <c r="B11" s="19">
-        <f>G4*B10/G2</f>
-        <v>29888184726350.648</v>
+        <f>B10*$G$2*$G$3/$G$4</f>
+        <v>146.1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
-        <f>(G12+2*G14)/G12</f>
-        <v>3.6641245524935475</v>
+        <v>1000000000000</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="18" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="19">
-        <v>5</v>
+        <v>40000000</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1">
-        <v>12.010999999999999</v>
+        <v>1000000000000000</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="19">
+        <f>B12*G23</f>
+        <v>10566880</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="1">
+        <f>G3*G2/G4</f>
+        <v>3.6524999999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="21">
+        <f>40000000000/G15</f>
+        <v>10916659471.299574</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="19">
+        <f>G4*B14/G2</f>
+        <v>29888184726350.648</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <f>(G16+2*G18)/G16</f>
+        <v>3.6641245524935475</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="19">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B17" s="19">
         <v>107500000000000</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F17" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G17" s="1">
         <v>14.007</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1">
-        <v>49642700000000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="1">
-        <v>15.9994</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="str">
-        <f>A14</f>
-        <v>Global N excess</v>
-      </c>
-      <c r="B15" s="1">
-        <f>B14/G2</f>
-        <v>135914305270.36276</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <v>30.97</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="str">
-        <f>A14</f>
-        <v>Global N excess</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B14/G4</f>
-        <v>49642700</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="str">
-        <f>A15</f>
-        <v>Global N excess</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B14/$G$7</f>
-        <v>49.642699999999998</v>
-      </c>
-      <c r="C17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="21">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1">
-        <v>9100721000000</v>
+        <v>49642700000000</v>
       </c>
       <c r="C18" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>162</v>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15.9994</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="str">
         <f>A18</f>
-        <v>Global P excess</v>
+        <v>Global N excess</v>
       </c>
       <c r="B19" s="1">
         <f>B18/G2</f>
-        <v>24916416153.319645</v>
+        <v>135914305270.36276</v>
       </c>
       <c r="C19" t="s">
         <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>0.26417200000000002</v>
+        <v>30.97</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="str">
         <f>A18</f>
-        <v>Global P excess</v>
+        <v>Global N excess</v>
       </c>
       <c r="B20" s="1">
         <f>B18/G4</f>
-        <v>9100721</v>
+        <v>49642700</v>
       </c>
       <c r="C20" t="s">
         <v>149</v>
       </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2.47105</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
+      <c r="F20" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>106</v>
+      <c r="A21" t="str">
+        <f>A19</f>
+        <v>Global N excess</v>
       </c>
       <c r="B21" s="1">
-        <f>B18/$G$7</f>
-        <v>9.1007210000000001</v>
+        <f>B18/$G$11</f>
+        <v>49.642699999999998</v>
       </c>
       <c r="C21" t="s">
         <v>129</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9100721000000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="str">
+        <f>A22</f>
+        <v>Global P excess</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B22/G2</f>
+        <v>24916416153.319645</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.26417200000000002</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="str">
+        <f>A22</f>
+        <v>Global P excess</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B22/G4</f>
+        <v>9100721</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.47105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B22/$G$11</f>
+        <v>9.1007210000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G25" s="1">
         <f>1/2.54</f>
         <v>0.39370078740157477</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="20" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="21">
+        <v>104.9</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.28084</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="1">
+        <f>B26*$G$12/$G$10</f>
+        <v>104900000000000</v>
+      </c>
+      <c r="C27" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="21">
-        <v>104.9</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="F27" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.3079499999999999</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="21">
+        <v>8</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="F22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3.28084</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="D28" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="1">
+        <f>1000000*G29/2000</f>
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B28*$G$12/$G$10</f>
+        <v>8000000000000</v>
+      </c>
+      <c r="C29" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="1">
-        <f>B22*$G$8/$G$6</f>
-        <v>104900000000000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.3079499999999999</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="21">
-        <v>8</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="F24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="1">
-        <f>1000000*G25/2000</f>
-        <v>1.1023099999999999</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="1">
-        <f>B24*$G$8/$G$6</f>
-        <v>8000000000000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F29" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G29" s="1">
         <f>0.00220462</f>
         <v>2.20462E-3</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H29" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>107500000000000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="1">
-        <v>9.2902999999999998E-6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>22000000000000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="1">
-        <v>5280</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B28" s="1">
-        <v>104.9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0.453592</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B29" s="1">
-        <f>B28*G8/G4</f>
-        <v>104900000000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="21">
-        <v>6.4515999999999998E-4</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="1">
-        <f>($B$29/$G$16)*G4/G8</f>
-        <v>209.8</v>
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>107500000000000</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9.2902999999999998E-6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>22000000000000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G30">
-        <v>1.60934</v>
-      </c>
-      <c r="H30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" s="2">
-        <v>9100000000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" t="s">
-        <v>341</v>
-      </c>
       <c r="G31" s="1">
-        <v>1000</v>
+        <v>5280</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B32" s="2">
-        <f>B31*G4/G8</f>
-        <v>9.1</v>
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="1">
+        <v>104.9</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0.453592</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="2">
-        <f>B32/B30</f>
-        <v>4.3374642516682549E-2</v>
+        <v>298</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B32*G12/G4</f>
+        <v>104900000000</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
-      </c>
-      <c r="M33" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="21">
+        <v>6.4515999999999998E-4</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B34" s="1">
-        <f>B85/B30</f>
+        <f>($B$33/$G$20)*G4/G12</f>
+        <v>209.8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>1.60934</v>
+      </c>
+      <c r="H34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="2">
+        <v>9100000000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="2">
+        <f>B35*G4/G12</f>
+        <v>9.1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B36/B34</f>
+        <v>4.3374642516682549E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" s="1">
+        <f>B91/B34</f>
         <v>1.4459359707658085E-2</v>
       </c>
-      <c r="C34" t="s">
-        <v>262</v>
-      </c>
-      <c r="F34" s="25" t="s">
+      <c r="C38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="1"/>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="B35" s="1"/>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="20" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B43" s="20">
         <v>14.7</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="21">
-        <f>B37*G28/G29</f>
-        <v>10335.11439022878</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="21">
-        <v>510100000000000</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="21">
-        <f>B38*B39</f>
-        <v>5.2719418504557005E+18</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="21">
-        <f>B40/1000000</f>
-        <v>5271941850455.7002</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="21">
-        <f>B41/G5</f>
-        <v>5271941850.4556999</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="1">
-        <f>11000000000/B42</f>
-        <v>2.0865177029691959</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B44" s="21">
-        <f>B42*400</f>
-        <v>2108776740182.28</v>
+        <f>B43*G32/G33</f>
+        <v>10335.11439022878</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="20" t="s">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="B45" s="21">
-        <f>B10/B42</f>
-        <v>2.0707093858320822</v>
+        <v>510100000000000</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="20" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="B46" s="21">
-        <f>B45*B42</f>
+        <f>B44*B45</f>
+        <v>5.2719418504557005E+18</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="21">
+        <f>B46/1000000</f>
+        <v>5271941850455.7002</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="21">
+        <f>B47/G5</f>
+        <v>5271941850.4556999</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1">
+        <f>11000000000/B48</f>
+        <v>2.0865177029691959</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="21">
+        <f>B48*400</f>
+        <v>2108776740182.28</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="21">
+        <f>B14/B48</f>
+        <v>2.0707093858320822</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="21">
+        <f>B51*B48</f>
         <v>10916659471.299574</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47">
-        <v>410</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="1">
-        <f>B47*B41</f>
-        <v>2161496158686837</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1">
-        <v>106</v>
-      </c>
-      <c r="C52" s="1">
-        <f>G12*B52</f>
-        <v>1273.1659999999999</v>
-      </c>
-      <c r="D52" s="1">
-        <f>C52/C$55</f>
-        <v>0.83308860865513967</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="1">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1">
-        <f>G13*B53</f>
-        <v>224.11199999999999</v>
-      </c>
-      <c r="D53" s="1">
-        <f>C53/C$55</f>
-        <v>0.1466463558270647</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B53">
+        <v>410</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1">
-        <f>G15*B54</f>
-        <v>30.97</v>
-      </c>
-      <c r="D54" s="1">
-        <f>C54/C$55</f>
-        <v>2.026503551779554E-2</v>
+        <f>B53*B47</f>
+        <v>2161496158686837</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <f>SUM(C52:C54)</f>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1">
+        <f>G16*B58</f>
+        <v>1273.1659999999999</v>
+      </c>
+      <c r="D58" s="1">
+        <f>C58/C$61</f>
+        <v>0.83308860865513967</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1">
+        <f>G17*B59</f>
+        <v>224.11199999999999</v>
+      </c>
+      <c r="D59" s="1">
+        <f>C59/C$61</f>
+        <v>0.1466463558270647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <f>G19*B60</f>
+        <v>30.97</v>
+      </c>
+      <c r="D60" s="1">
+        <f>C60/C$61</f>
+        <v>2.026503551779554E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1">
+        <f>SUM(C58:C60)</f>
         <v>1528.248</v>
       </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="21">
-        <v>250000</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="21">
-        <v>1000000</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="21">
-        <v>5</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="21">
-        <v>100000</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" t="s">
-        <v>336</v>
-      </c>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="21">
-        <f>(B$60/B$59)+B57*B$61</f>
-        <v>32500</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="A62" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="21">
+        <v>250000</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="21">
+        <v>5</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="21">
+        <v>100000</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="21">
+        <f>(B$66/B$65)+B63*B$67</f>
+        <v>32500</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="21">
-        <f>(B$60/B$59)+B58*B$61</f>
+      <c r="B69" s="21">
+        <f>(B$66/B$65)+B64*B$67</f>
         <v>70000</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C69" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>257</v>
-      </c>
-      <c r="B64" s="1">
+    <row r="70" spans="1:4">
+      <c r="A70" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="21">
         <v>40</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C70" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D64" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>258</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="D70" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" s="21">
         <v>20</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C71" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="D71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B72" s="21">
         <v>0.1</v>
       </c>
-      <c r="C66" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="C72" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="21">
+        <v>50</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B74" s="21">
+        <v>100</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B67" s="1">
-        <v>50</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B75" s="21">
+        <v>200</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>267</v>
-      </c>
-      <c r="B68" s="1">
-        <v>100</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="1">
-        <v>200</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="23" t="s">
+      <c r="D75" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="16"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="1">
-        <f>B15/G17</f>
-        <v>2831548026465.8906</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="1">
-        <f>B72*G2/G4</f>
-        <v>1034222916.6666665</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="1">
-        <f>B72*$G$2/$G$8</f>
-        <v>1.0342229166666665</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="1">
-        <f>B72/B2</f>
-        <v>188769868431.05939</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="1">
-        <f>B75/G3</f>
-        <v>18876986.843105938</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="1">
-        <f>B72/B4</f>
-        <v>113261921058.63562</v>
-      </c>
-      <c r="C77" t="s">
-        <v>151</v>
-      </c>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B78" s="1">
-        <f>B77/G3</f>
-        <v>11326192.105863562</v>
+        <f>B19/G21</f>
+        <v>2831548026465.8906</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B79" s="1">
-        <f>B73*G18</f>
-        <v>3102668.7499999995</v>
+        <f>B78*G2/G4</f>
+        <v>1034222916.6666665</v>
       </c>
       <c r="C79" t="s">
         <v>149</v>
@@ -7556,447 +7542,519 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1">
-        <f>B73*G16</f>
-        <v>517111458.33333325</v>
+        <f>B78*$G$2/$G$12</f>
+        <v>1.0342229166666665</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="B81" s="1"/>
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="1">
+        <f>B78/B2</f>
+        <v>188769868431.05939</v>
+      </c>
+      <c r="C81" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="16"/>
-      <c r="I82" s="4"/>
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="1">
+        <f>B81/G3</f>
+        <v>18876986.843105938</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B83" s="1">
-        <f>B19/G18</f>
-        <v>8305472051106.5479</v>
+        <f>B78/B4</f>
+        <v>113261921058.63562</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="10"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" t="str">
-        <f>A83</f>
-        <v>Biomass implied</v>
+      <c r="A84" t="s">
+        <v>109</v>
       </c>
       <c r="B84" s="1">
-        <f>G2*B83/G4</f>
-        <v>3033573666.6666665</v>
+        <f>B83/G3</f>
+        <v>11326192.105863562</v>
       </c>
       <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="1">
+        <f>B79*G22</f>
+        <v>3102668.7499999995</v>
+      </c>
+      <c r="C85" t="s">
         <v>149</v>
-      </c>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="str">
-        <f>A84</f>
-        <v>Biomass implied</v>
-      </c>
-      <c r="B85" s="1">
-        <f>B83*$G$2/$G$8</f>
-        <v>3.0335736666666664</v>
-      </c>
-      <c r="C85" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B86" s="1">
-        <f>B83/B2</f>
-        <v>553698136740.43652</v>
+        <f>B79*G20</f>
+        <v>517111458.33333325</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" t="str">
-        <f>A86</f>
-        <v>ATS area implied (low prod)</v>
-      </c>
-      <c r="B87" s="1">
-        <f>B86/G3</f>
-        <v>55369813.674043655</v>
-      </c>
-      <c r="C87" t="s">
-        <v>3</v>
-      </c>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>109</v>
-      </c>
-      <c r="B88" s="1">
-        <f>B83/B4</f>
-        <v>332218882044.2619</v>
-      </c>
-      <c r="C88" t="s">
-        <v>151</v>
-      </c>
+      <c r="A88" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="16"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1">
-        <f>B88/G3</f>
-        <v>33221888.204426192</v>
+        <f>B23/G22</f>
+        <v>8305472051106.5479</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>22</v>
+      <c r="A90" t="str">
+        <f>A89</f>
+        <v>Biomass implied</v>
       </c>
       <c r="B90" s="1">
-        <f>B84*G17</f>
-        <v>145611536</v>
+        <f>G2*B89/G4</f>
+        <v>3033573666.6666665</v>
       </c>
       <c r="C90" t="s">
         <v>149</v>
       </c>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>25</v>
+      <c r="A91" t="str">
+        <f>A90</f>
+        <v>Biomass implied</v>
       </c>
       <c r="B91" s="1">
-        <f>B84*G16</f>
-        <v>1516786833.3333333</v>
+        <f>B89*$G$2/$G$12</f>
+        <v>3.0335736666666664</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="1">
+        <f>B89/B2</f>
+        <v>553698136740.43652</v>
+      </c>
+      <c r="C92" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="15"/>
+      <c r="A93" t="str">
+        <f>A92</f>
+        <v>ATS area implied (low prod)</v>
+      </c>
+      <c r="B93" s="1">
+        <f>B92/G3</f>
+        <v>55369813.674043655</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B94" s="1">
-        <f>G4*B95/G2</f>
-        <v>59776369452701.297</v>
+        <f>B89/B4</f>
+        <v>332218882044.2619</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1">
-        <f>B10/G16</f>
-        <v>21833318942.599148</v>
+        <f>B94/G3</f>
+        <v>33221888.204426192</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="B96" s="1">
-        <f>B94/B2</f>
-        <v>3985091296846.7529</v>
+        <f>B90*G21</f>
+        <v>145611536</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" t="str">
-        <f>A96</f>
-        <v>ATS area implied (low prod)</v>
+      <c r="A97" t="s">
+        <v>25</v>
       </c>
       <c r="B97" s="1">
-        <f>B96/G3</f>
-        <v>398509129.68467528</v>
+        <f>B90*G20</f>
+        <v>1516786833.3333333</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>109</v>
-      </c>
-      <c r="B98" s="1">
-        <f>B94/B4</f>
-        <v>2391054778108.0518</v>
-      </c>
-      <c r="C98" t="s">
-        <v>151</v>
-      </c>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" s="1">
-        <f>B98/G3</f>
-        <v>239105477.81080517</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3</v>
-      </c>
+      <c r="A99" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="15"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B100" s="1">
-        <f>B95*G17</f>
-        <v>1047999309.2447591</v>
+        <f>G4*B101/G2</f>
+        <v>59776369452701.297</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B101" s="1">
-        <f>B95*G18</f>
-        <v>65499956.827797443</v>
+        <f>B14/G20</f>
+        <v>21833318942.599148</v>
       </c>
       <c r="C101" t="s">
         <v>149</v>
       </c>
     </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="1">
+        <f>B100/B2</f>
+        <v>3985091296846.7529</v>
+      </c>
+      <c r="C102" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="24" t="s">
+      <c r="A103" t="str">
+        <f>A102</f>
+        <v>ATS area implied (low prod)</v>
+      </c>
+      <c r="B103" s="1">
+        <f>B102/G3</f>
+        <v>398509129.68467528</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="1">
+        <f>B100/B4</f>
+        <v>2391054778108.0518</v>
+      </c>
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="1">
+        <f>B104/G3</f>
+        <v>239105477.81080517</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="1">
+        <f>B101*G21</f>
+        <v>1047999309.2447591</v>
+      </c>
+      <c r="C106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="1">
+        <f>B101*G22</f>
+        <v>65499956.827797443</v>
+      </c>
+      <c r="C107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="17"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="11" t="s">
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="17"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="5" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B111" s="4">
         <v>50</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="5" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B112" s="4">
         <v>100</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="5" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B113" s="4">
         <v>200</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="5" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B114" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="5" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B115" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="8" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B116" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="8" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B117" s="4">
         <v>1.545806E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="8" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B118" s="4">
         <v>0.18188969999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="6" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B119" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="8" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B114">
+      <c r="B120">
         <v>1.4659849999999999E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="8" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B115">
+      <c r="B121">
         <v>1.724974E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="6" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B116">
+      <c r="B122">
         <v>9.4836279999999995E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="22" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="15"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="15"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B131" s="1">
         <v>11194445</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C131" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>23</v>
       </c>
-      <c r="B126" s="1">
-        <f>B125*$G$27</f>
+      <c r="B132" s="1">
+        <f>B131*$G$31</f>
         <v>59106669600</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C132" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>26</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B133" s="1">
         <v>20</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C133" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>27</v>
       </c>
-      <c r="B128" s="1">
-        <f>B127*B126</f>
+      <c r="B134" s="1">
+        <f>B133*B132</f>
         <v>1182133392000</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C134" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>27</v>
       </c>
-      <c r="B129" s="1">
-        <f>B128*G26</f>
+      <c r="B135" s="1">
+        <f>B134*G30</f>
         <v>10982373.8516976</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C135" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A109:C109"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="F38:H38"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8041,10 +8099,10 @@
         <v>36</v>
       </c>
       <c r="R1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -8087,10 +8145,10 @@
         <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -8139,7 +8197,7 @@
         <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
@@ -8194,7 +8252,7 @@
         <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
@@ -8293,7 +8351,7 @@
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -8376,7 +8434,7 @@
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
@@ -8428,7 +8486,7 @@
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -8495,10 +8553,10 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S11" s="1">
-        <f>S7/Settings!G17</f>
+        <f>S7/Settings!G21</f>
         <v>20.416666666666664</v>
       </c>
       <c r="T11" t="s">
@@ -8507,10 +8565,10 @@
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S12" s="1">
-        <f>S10/Settings!$G$18</f>
+        <f>S10/Settings!$G$22</f>
         <v>34.666666666666671</v>
       </c>
       <c r="T12" t="s">
@@ -8528,47 +8586,47 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
         <v>2.084161224489796</v>
       </c>
       <c r="T13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
         <v>1.2274507211538461</v>
       </c>
       <c r="T14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
@@ -8579,7 +8637,7 @@
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
@@ -8591,7 +8649,7 @@
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
@@ -8602,7 +8660,7 @@
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
@@ -8614,48 +8672,48 @@
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S23" s="1">
-        <f>S22*Settings!$G$10</f>
+        <f>S22*Settings!$G$14</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="18:20">
@@ -8666,7 +8724,7 @@
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="18:20">
@@ -8678,7 +8736,7 @@
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="18:20">
@@ -8690,7 +8748,7 @@
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="18:20">
@@ -8698,7 +8756,7 @@
         <v>34</v>
       </c>
       <c r="S29" s="1">
-        <f>S28/(Settings!$G$4*Settings!$G$35)</f>
+        <f>S28/(Settings!$G$4*Settings!$G$41)</f>
         <v>1.2269478E-3</v>
       </c>
       <c r="T29" t="s">
@@ -8719,10 +8777,10 @@
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S31" s="1">
-        <f>S30/Settings!$G$18</f>
+        <f>S30/Settings!$G$22</f>
         <v>163.59304</v>
       </c>
       <c r="T31" t="s">
@@ -8731,23 +8789,23 @@
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
@@ -8758,7 +8816,7 @@
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
@@ -8770,7 +8828,7 @@
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
@@ -8781,48 +8839,48 @@
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S39" s="1">
-        <f>S38*Settings!$G$10</f>
+        <f>S38*Settings!$G$14</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="18:20">
@@ -8833,7 +8891,7 @@
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="18:20">
@@ -8845,7 +8903,7 @@
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="18:20">
@@ -8857,7 +8915,7 @@
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="18:20">
@@ -8865,7 +8923,7 @@
         <v>34</v>
       </c>
       <c r="S45" s="1">
-        <f>S44/(Settings!$G$4*Settings!$G$35)</f>
+        <f>S44/(Settings!$G$4*Settings!$G$41)</f>
         <v>3.9695370000000004E-3</v>
       </c>
       <c r="T45" t="s">
@@ -8886,10 +8944,10 @@
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S47" s="1">
-        <f>S46/Settings!$G$18</f>
+        <f>S46/Settings!$G$22</f>
         <v>1.2366158878504674</v>
       </c>
       <c r="T47" t="s">
@@ -8920,7 +8978,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8933,7 +8991,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>77</v>
@@ -8942,12 +9000,12 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
@@ -8957,24 +9015,24 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B3" s="1">
-        <f>'Highway Costs'!B2*Settings!G31*Settings!G30</f>
+        <f>'Highway Costs'!B2*Settings!G35*Settings!G34</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -8982,22 +9040,25 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
+      <c r="D4" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B5" s="1">
-        <f>B4/Settings!G22</f>
+        <f>B4/Settings!G26</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
@@ -9009,7 +9070,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
@@ -9021,7 +9082,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
@@ -9031,12 +9092,12 @@
         <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
@@ -9046,12 +9107,12 @@
         <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
@@ -9063,14 +9124,14 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="764" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="353">
-  <si>
-    <t>Parameters</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="301">
   <si>
     <t>yr</t>
   </si>
@@ -50,9 +47,6 @@
     <t>g</t>
   </si>
   <si>
-    <t>Global P applied</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Tg</t>
   </si>
   <si>
-    <t>Net atmospheric C</t>
-  </si>
-  <si>
     <t>Pg</t>
   </si>
   <si>
@@ -92,45 +83,12 @@
     <t>Gross World Product</t>
   </si>
   <si>
-    <t>Biomass implied</t>
-  </si>
-  <si>
     <t>N removed</t>
   </si>
   <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t>Atmospheric pressure</t>
-  </si>
-  <si>
-    <t>C removed</t>
-  </si>
-  <si>
-    <t>Road width</t>
-  </si>
-  <si>
-    <t>Road area</t>
-  </si>
-  <si>
-    <t>Earth Surface</t>
-  </si>
-  <si>
-    <t>Atmosphere mass</t>
-  </si>
-  <si>
-    <t>1 ppm</t>
-  </si>
-  <si>
-    <t>11 Gt</t>
-  </si>
-  <si>
     <t>ppm</t>
   </si>
   <si>
-    <t>400 ppm</t>
-  </si>
-  <si>
     <t>P removed</t>
   </si>
   <si>
@@ -266,48 +224,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Strong divisor</t>
-  </si>
-  <si>
-    <t>Weak divisor</t>
-  </si>
-  <si>
-    <t>Medium divisor</t>
-  </si>
-  <si>
-    <t>Calculation Parameters</t>
-  </si>
-  <si>
-    <t>Boundaries worksheet</t>
-  </si>
-  <si>
-    <t>Interval 1</t>
-  </si>
-  <si>
-    <t>Interval 2</t>
-  </si>
-  <si>
-    <t>Interval 3</t>
-  </si>
-  <si>
-    <t>NP reduction Years 1-50</t>
-  </si>
-  <si>
-    <t>NP reduction Years 50-100</t>
-  </si>
-  <si>
-    <t>NP reduction Years 100-200</t>
-  </si>
-  <si>
-    <t>C reduction Years 1-50</t>
-  </si>
-  <si>
-    <t>C reduction Years 50-100</t>
-  </si>
-  <si>
-    <t>C reduction Years 100-200</t>
-  </si>
-  <si>
     <t>Redfield Ratios</t>
   </si>
   <si>
@@ -335,39 +251,9 @@
     <t>Conversion Factors, Constants</t>
   </si>
   <si>
-    <t>Road Construction</t>
-  </si>
-  <si>
-    <t>US Roads</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Global N excess</t>
-  </si>
-  <si>
-    <t>Global P excess</t>
-  </si>
-  <si>
     <t>mol O</t>
   </si>
   <si>
-    <t>ATS area implied (low prod)</t>
-  </si>
-  <si>
-    <t>ATS area implied (high prod)</t>
-  </si>
-  <si>
-    <t>Derived values, N removal</t>
-  </si>
-  <si>
-    <t>Derived values, P removal</t>
-  </si>
-  <si>
-    <t>Derived values, C removal</t>
-  </si>
-  <si>
     <t>{Adey et al., 2013, #773}</t>
   </si>
   <si>
@@ -407,24 +293,6 @@
     <t>US$</t>
   </si>
   <si>
-    <t>Pg C yr-1</t>
-  </si>
-  <si>
-    <t>T C yr-1</t>
-  </si>
-  <si>
-    <t>T BM yr-1</t>
-  </si>
-  <si>
-    <t>Tg yr-1</t>
-  </si>
-  <si>
-    <t>Pg BM yr-1</t>
-  </si>
-  <si>
-    <t>Ag/Global PP</t>
-  </si>
-  <si>
     <t>Ha</t>
   </si>
   <si>
@@ -470,12 +338,6 @@
     <t>t ha-1 yr-1</t>
   </si>
   <si>
-    <t>g yr-1</t>
-  </si>
-  <si>
-    <t>g d-1</t>
-  </si>
-  <si>
     <t>t yr-1</t>
   </si>
   <si>
@@ -491,12 +353,6 @@
     <t>ft2</t>
   </si>
   <si>
-    <t>lb in-2</t>
-  </si>
-  <si>
-    <t>kg m-2</t>
-  </si>
-  <si>
     <t>ppm yr-1</t>
   </si>
   <si>
@@ -563,9 +419,6 @@
     <t>P:biomass ratio</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>low CAPEX</t>
   </si>
   <si>
@@ -830,12 +683,6 @@
     <t>Final year</t>
   </si>
   <si>
-    <t>C Growth Rate</t>
-  </si>
-  <si>
-    <t>ATS productivity (Adey et al.)</t>
-  </si>
-  <si>
     <t>L d-1</t>
   </si>
   <si>
@@ -845,9 +692,6 @@
     <t>yd3</t>
   </si>
   <si>
-    <t>gal d-1</t>
-  </si>
-  <si>
     <t>checking</t>
   </si>
   <si>
@@ -920,33 +764,12 @@
     <t>mg yr-1</t>
   </si>
   <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>Global Primary Production</t>
-  </si>
-  <si>
-    <t>Ag Primary Production</t>
-  </si>
-  <si>
-    <t>ATS/Global PP</t>
-  </si>
-  <si>
     <t>Hsin-Hai, Taiwan</t>
   </si>
   <si>
     <t>Area per operator</t>
   </si>
   <si>
-    <t>To Retire</t>
-  </si>
-  <si>
-    <t>ATS HLR</t>
-  </si>
-  <si>
-    <t>Tons C per ppm C</t>
-  </si>
-  <si>
     <t>C_prp</t>
   </si>
   <si>
@@ -1064,9 +887,6 @@
     <t>Geider et al., 2001</t>
   </si>
   <si>
-    <t>Economic Assumptions</t>
-  </si>
-  <si>
     <t>Model High Latitude</t>
   </si>
   <si>
@@ -1076,16 +896,40 @@
     <t>{AASHTO, 2005, #2622}</t>
   </si>
   <si>
-    <t>ATS productivity slope</t>
-  </si>
-  <si>
-    <t>High latitude</t>
-  </si>
-  <si>
-    <t>Low latitude</t>
-  </si>
-  <si>
-    <t>ATS productivity y intercept</t>
+    <t>{Ciais et al., 2014, #20246}</t>
+  </si>
+  <si>
+    <t>t C</t>
+  </si>
+  <si>
+    <t>1 ppm CO2 (by volume)</t>
+  </si>
+  <si>
+    <t>Ecological Parameters</t>
+  </si>
+  <si>
+    <t>Economic Parameters</t>
+  </si>
+  <si>
+    <t>Model Slope</t>
+  </si>
+  <si>
+    <t>Model y Intercept</t>
+  </si>
+  <si>
+    <t>Net Atmospheric CO2</t>
+  </si>
+  <si>
+    <t>Net Atmospheric C</t>
+  </si>
+  <si>
+    <t>{Geider et al., 2001, #57976}</t>
+  </si>
+  <si>
+    <t>Baseline CO2</t>
+  </si>
+  <si>
+    <t>Baseline C</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +939,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1135,12 +979,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1151,7 +989,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,12 +1010,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1192,7 +1024,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1537">
+  <cellStyleXfs count="1567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2730,68 +2562,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1537">
+  <cellStyles count="1567">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3560,6 +3395,21 @@
     <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4328,6 +4178,21 @@
     <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4769,7 +4634,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4783,517 +4648,520 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>142</v>
+        <v>97</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="23">
-        <f>Settings!G20</f>
+        <v>247</v>
+      </c>
+      <c r="B2" s="14">
+        <f>Settings!G16</f>
         <v>0.5</v>
       </c>
-      <c r="C2" s="23" t="str">
-        <f>Settings!H20&amp;" "&amp;Settings!F20&amp;"-1"</f>
+      <c r="C2" s="14" t="str">
+        <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
         <v>gC gBiomass-1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="23">
-        <f>Settings!G21</f>
+        <v>248</v>
+      </c>
+      <c r="B3" s="14">
+        <f>Settings!G17</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C3" s="23" t="str">
-        <f>Settings!H21&amp;" "&amp;Settings!F21&amp;"-1"</f>
+      <c r="C3" s="14" t="str">
+        <f>Settings!H17&amp;" "&amp;Settings!F17&amp;"-1"</f>
         <v>gN gBiomass-1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="23">
-        <f>Settings!G22</f>
+        <v>249</v>
+      </c>
+      <c r="B4" s="14">
+        <f>Settings!G18</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C4" s="23" t="str">
-        <f>Settings!H22&amp;" "&amp;Settings!F22&amp;"-1"</f>
+      <c r="C4" s="14" t="str">
+        <f>Settings!H18&amp;" "&amp;Settings!F18&amp;"-1"</f>
         <v>gP gBiomass-1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="23">
-        <f>Settings!B50</f>
-        <v>2108776740182.28</v>
-      </c>
-      <c r="C5" s="23" t="str">
-        <f>Settings!C50</f>
-        <v>t</v>
+        <v>250</v>
+      </c>
+      <c r="B5" s="14">
+        <f>Settings!B10</f>
+        <v>410</v>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f>Settings!C10</f>
+        <v>ppm</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="23">
-        <f>Settings!B52</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C6" s="23" t="str">
-        <f>Settings!C52</f>
-        <v>t yr-1</v>
+        <v>251</v>
+      </c>
+      <c r="B6" s="14">
+        <f>Settings!B12</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>Settings!C12</f>
+        <v>ppm yr-1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="23">
-        <f>Settings!B39</f>
+        <v>252</v>
+      </c>
+      <c r="B7" s="14">
+        <f>Settings!B6</f>
         <v>40</v>
       </c>
-      <c r="C7" s="23" t="str">
-        <f>Settings!C39</f>
+      <c r="C7" s="14" t="str">
+        <f>Settings!C6</f>
         <v>deg</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="23">
-        <f>Settings!B40</f>
+        <v>253</v>
+      </c>
+      <c r="B8" s="14">
+        <f>Settings!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="23" t="str">
-        <f>Settings!C40</f>
+      <c r="C8" s="14" t="str">
+        <f>Settings!C7</f>
         <v>deg</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B9" s="23">
+        <v>267</v>
+      </c>
+      <c r="B9" s="14">
         <f>Settings!B3</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>146</v>
+      <c r="C9" s="14" t="str">
+        <f>Settings!C3</f>
+        <v>t ha-1 yr-1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" s="23">
+        <v>268</v>
+      </c>
+      <c r="B10" s="14">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>146</v>
+      <c r="C10" s="14" t="str">
+        <f>Settings!C5</f>
+        <v>t ha-1 yr-1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B11" s="23">
-        <f>(B10-B9)/(B8-B7)</f>
+        <v>254</v>
+      </c>
+      <c r="B11" s="14">
+        <f>Settings!B8</f>
         <v>-0.91312499999999996</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>144</v>
+      <c r="C11" s="14" t="str">
+        <f>Settings!C8</f>
+        <v>t ha-1 yr-1 deg-1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="23">
+        <v>255</v>
+      </c>
+      <c r="B12" s="14">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="14" t="str">
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="23">
-        <f>Settings!B26</f>
+        <v>256</v>
+      </c>
+      <c r="B13" s="14">
+        <f>Settings!B18</f>
         <v>104.9</v>
       </c>
-      <c r="C13" s="23" t="str">
-        <f>Settings!C26</f>
+      <c r="C13" s="14" t="str">
+        <f>Settings!C18</f>
         <v>Pg yr-1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="23">
-        <f>Settings!B28</f>
+        <v>257</v>
+      </c>
+      <c r="B14" s="14">
+        <f>Settings!B20</f>
         <v>8</v>
       </c>
-      <c r="C14" s="23" t="str">
-        <f>Settings!C28</f>
+      <c r="C14" s="14" t="str">
+        <f>Settings!C20</f>
         <v>Pg yr-1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" s="23">
-        <f>Settings!B65</f>
+        <v>258</v>
+      </c>
+      <c r="B15" s="14">
+        <f>Settings!B24</f>
         <v>5</v>
       </c>
-      <c r="C15" s="23" t="str">
-        <f>Settings!C65</f>
+      <c r="C15" s="14" t="str">
+        <f>Settings!C24</f>
         <v>ha emp-1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" s="23">
-        <f>Settings!B66</f>
+        <v>259</v>
+      </c>
+      <c r="B16" s="14">
+        <f>Settings!B25</f>
         <v>100000</v>
       </c>
-      <c r="C16" s="23" t="str">
-        <f>Settings!C66</f>
+      <c r="C16" s="14" t="str">
+        <f>Settings!C25</f>
         <v>$ yr-1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B17" s="23">
-        <f>Settings!B67</f>
+        <v>260</v>
+      </c>
+      <c r="B17" s="14">
+        <f>Settings!B26</f>
         <v>0.05</v>
       </c>
-      <c r="C17" s="23" t="str">
-        <f>Settings!C67</f>
+      <c r="C17" s="14" t="str">
+        <f>Settings!C26</f>
         <v>opex yr-1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="23">
-        <f>Settings!B63</f>
+        <v>261</v>
+      </c>
+      <c r="B18" s="14">
+        <f>Settings!B22</f>
         <v>250000</v>
       </c>
-      <c r="C18" s="23" t="str">
-        <f>Settings!C63</f>
+      <c r="C18" s="14" t="str">
+        <f>Settings!C22</f>
         <v>$ ha-1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B19" s="23">
-        <f>Settings!B64</f>
+        <v>262</v>
+      </c>
+      <c r="B19" s="14">
+        <f>Settings!B23</f>
         <v>1000000</v>
       </c>
-      <c r="C19" s="23" t="str">
-        <f>Settings!C64</f>
+      <c r="C19" s="14" t="str">
+        <f>Settings!C23</f>
         <v>$ ha-1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B20" s="23">
-        <f>Settings!B68</f>
+        <v>263</v>
+      </c>
+      <c r="B20" s="14">
+        <f>Settings!B27</f>
         <v>32500</v>
       </c>
-      <c r="C20" s="23" t="str">
-        <f>Settings!C68</f>
+      <c r="C20" s="14" t="str">
+        <f>Settings!C27</f>
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="23">
-        <f>Settings!B69</f>
+        <v>264</v>
+      </c>
+      <c r="B21" s="14">
+        <f>Settings!B28</f>
         <v>70000</v>
       </c>
-      <c r="C21" s="23" t="str">
-        <f>Settings!C69</f>
+      <c r="C21" s="14" t="str">
+        <f>Settings!C28</f>
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="23">
-        <f>Settings!B70</f>
+        <v>265</v>
+      </c>
+      <c r="B22" s="14">
+        <f>Settings!B29</f>
         <v>40</v>
       </c>
-      <c r="C22" s="23" t="str">
-        <f>Settings!C70</f>
+      <c r="C22" s="14" t="str">
+        <f>Settings!C29</f>
         <v>yr</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B23" s="23">
-        <f>Settings!B71</f>
+        <v>266</v>
+      </c>
+      <c r="B23" s="14">
+        <f>Settings!B30</f>
         <v>20</v>
       </c>
-      <c r="C23" s="23" t="str">
-        <f>Settings!C71</f>
+      <c r="C23" s="14" t="str">
+        <f>Settings!C30</f>
         <v>yr</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="23">
-        <f>Settings!B72</f>
+        <v>269</v>
+      </c>
+      <c r="B24" s="14">
+        <f>Settings!B31</f>
         <v>0.1</v>
       </c>
-      <c r="C24" s="23" t="str">
-        <f>Settings!C72</f>
+      <c r="C24" s="14" t="str">
+        <f>Settings!C31</f>
         <v>prp</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="23">
-        <f>Settings!B73</f>
+        <v>270</v>
+      </c>
+      <c r="B25" s="14">
+        <f>Settings!B32</f>
         <v>50</v>
       </c>
-      <c r="C25" s="23" t="str">
-        <f>Settings!C73</f>
+      <c r="C25" s="14" t="str">
+        <f>Settings!C32</f>
         <v>yr</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B26" s="23">
-        <f>Settings!B74</f>
+        <v>271</v>
+      </c>
+      <c r="B26" s="14">
+        <f>Settings!B33</f>
         <v>100</v>
       </c>
-      <c r="C26" s="23" t="str">
-        <f>Settings!C74</f>
+      <c r="C26" s="14" t="str">
+        <f>Settings!C33</f>
         <v>yr</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="23">
-        <f>Settings!B75</f>
+        <v>272</v>
+      </c>
+      <c r="B27" s="14">
+        <f>Settings!B34</f>
         <v>200</v>
       </c>
-      <c r="C27" s="23" t="str">
-        <f>Settings!C75</f>
+      <c r="C27" s="14" t="str">
+        <f>Settings!C34</f>
         <v>yr</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="B11" formula="1"/>
+    <ignoredError sqref="B11:C11" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5321,259 +5189,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="13">
+        <v>193</v>
+      </c>
+      <c r="B2" s="10">
         <v>146.7885378</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>-19.257637299999999</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>244</v>
+      <c r="D2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="10">
         <v>-80.457524599999999</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>26.657368099999999</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>198</v>
+      <c r="D3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="13">
+        <v>179</v>
+      </c>
+      <c r="B4" s="10">
         <v>-74.539295999999993</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>40.372374000000001</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="13"/>
+      <c r="D4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="13">
+        <v>75</v>
+      </c>
+      <c r="B5" s="10">
         <v>-76.328950000000006</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>37.855311</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="D5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="13">
+        <v>180</v>
+      </c>
+      <c r="B6" s="10">
         <v>-120.9</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>50.8</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="13"/>
+      <c r="D6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="13">
+        <v>181</v>
+      </c>
+      <c r="B7" s="10">
         <v>-119.7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>50.8</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="D7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="13">
+        <v>76</v>
+      </c>
+      <c r="B8" s="10">
         <v>-64.7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>17.45</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="D8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="13">
+        <v>182</v>
+      </c>
+      <c r="B9" s="10">
         <v>120.3</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>23</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="D9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="13">
+        <v>77</v>
+      </c>
+      <c r="B10" s="10">
         <v>117.786311</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>24.520453</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="D10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="13">
+        <v>183</v>
+      </c>
+      <c r="B11" s="10">
         <v>-121.132778</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>37.473056</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="13">
+        <v>78</v>
+      </c>
+      <c r="B12" s="10">
         <v>-80.408696000000006</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>27.427821999999999</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="D12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="13">
+        <v>79</v>
+      </c>
+      <c r="B13" s="10">
         <v>-80.427214000000006</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>37.223215000000003</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="D13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="G13" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -5582,44 +5450,44 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>212</v>
+        <v>135</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="13">
+        <v>188</v>
+      </c>
+      <c r="B15" s="10">
         <v>-80.907136899999998</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>27.213987700000001</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>224</v>
+      <c r="D15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -5628,61 +5496,61 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="13">
+        <v>157</v>
+      </c>
+      <c r="B17" s="10">
         <v>-81.880556400000003</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>26.674672000000001</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>196</v>
+      <c r="D17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="13">
+        <v>157</v>
+      </c>
+      <c r="B18" s="10">
         <v>-80.853750700000006</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>27.329125999999999</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>223</v>
+      <c r="D18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -5691,21 +5559,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>225</v>
+        <v>135</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -5713,22 +5581,22 @@
       <c r="C20">
         <v>27.592262000000002</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>200</v>
+      <c r="D20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -5737,113 +5605,113 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>186</v>
+        <v>136</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="13">
+        <v>157</v>
+      </c>
+      <c r="B22" s="10">
         <v>-80.479466200000005</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>27.609477500000001</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>216</v>
+      <c r="D22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="13">
+        <v>157</v>
+      </c>
+      <c r="B23" s="10">
         <v>-81.445307999999997</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="10">
         <v>28.5647631</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>197</v>
+      <c r="D23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="13">
+        <v>157</v>
+      </c>
+      <c r="B24" s="10">
         <v>-82.477197000000004</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>29.923072999999999</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>195</v>
+      <c r="D24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="13">
+        <v>157</v>
+      </c>
+      <c r="B25" s="10">
         <v>-85.024425500000007</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <v>34.827157800000002</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>217</v>
+      <c r="D25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -5852,21 +5720,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>210</v>
+        <v>136</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -5875,21 +5743,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>209</v>
+        <v>136</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -5898,80 +5766,80 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>207</v>
+        <v>136</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="13">
+        <v>157</v>
+      </c>
+      <c r="B29" s="10">
         <v>-73.828925999999996</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <v>40.584173399999997</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>218</v>
+      <c r="D29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="13">
+        <v>184</v>
+      </c>
+      <c r="B30" s="10">
         <v>3.5740601999999999</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <v>51.082552</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="13">
+        <v>185</v>
+      </c>
+      <c r="B31" s="10">
         <v>16.430962999999998</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="10">
         <v>48.197578999999998</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="13"/>
+      <c r="D31" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>146.80000000000001</v>
@@ -5980,48 +5848,48 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="13">
+        <v>186</v>
+      </c>
+      <c r="B33" s="10">
         <v>-76.900000000000006</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="10">
         <v>39</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="13"/>
+      <c r="D33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="13">
+        <v>80</v>
+      </c>
+      <c r="B34" s="10">
         <v>-76.713593000000003</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <v>38.784427000000001</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="13"/>
+      <c r="D34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="10"/>
       <c r="G34" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <v>-76.457588999999999</v>
@@ -6029,16 +5897,16 @@
       <c r="C35">
         <v>39.131529</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>185</v>
+      <c r="D35" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B36">
         <v>-76.268676999999997</v>
@@ -6046,162 +5914,162 @@
       <c r="C36">
         <v>39.449888999999999</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>185</v>
+      <c r="D36" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="13">
+        <v>81</v>
+      </c>
+      <c r="B37" s="10">
         <v>-76.188846600000005</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="10">
         <v>38.609043200000002</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="13"/>
+      <c r="D37" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="10"/>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="13">
+        <v>82</v>
+      </c>
+      <c r="B38" s="10">
         <v>-76.382262999999995</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="10">
         <v>37.247632000000003</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>215</v>
+      <c r="D38" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="13">
+        <v>83</v>
+      </c>
+      <c r="B39" s="10">
         <v>-94.1666666666667</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="10">
         <v>36.200000000000003</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>201</v>
+      <c r="D39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="13">
+        <v>84</v>
+      </c>
+      <c r="B40" s="10">
         <v>-94.089297000000002</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="10">
         <v>36.080810999999997</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>185</v>
+      <c r="D40" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="13">
+        <v>85</v>
+      </c>
+      <c r="B41" s="10">
         <v>-82.323492000000002</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="10">
         <v>29.645575999999998</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="13"/>
+      <c r="D41" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="10"/>
       <c r="G41" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B42" s="13">
+        <v>155</v>
+      </c>
+      <c r="B42" s="10">
         <v>-98.806156999999999</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="10">
         <v>29.491195399999999</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>225</v>
+      <c r="D42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>236</v>
-      </c>
-      <c r="B43" s="13">
+        <v>187</v>
+      </c>
+      <c r="B43" s="10">
         <v>16.163287777777775</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>51.627626666666664</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="13"/>
+      <c r="D43" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="10"/>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -6210,42 +6078,42 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>214</v>
+        <v>136</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="13">
+      <c r="A45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="10">
         <v>-75.900000000000006</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="10">
         <v>39</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="13"/>
+      <c r="D45" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="E47" s="13"/>
+      <c r="E47" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:G46">
@@ -6265,10 +6133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6276,12 +6144,12 @@
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -6292,1769 +6160,830 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="13">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="21">
-        <v>15</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="13">
+        <v>365.25</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21">
-        <v>365.25</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="20" t="str">
+      <c r="A3" s="12" t="str">
         <f>A2</f>
         <v>ATS productivity (high lat)</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="13">
         <f>B2*$G$2*$G$3/$G$4</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="C3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13">
         <f>100*100</f>
         <v>10000</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>151</v>
+      <c r="H3" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="13">
         <v>25</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21">
-        <v>1000000</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="12" t="str">
         <f>A4</f>
         <v>ATS productivity (equator)</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="13">
         <f>B4*$G$2*$G$3/$G$4</f>
         <v>91.3125</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="13">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="21">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="21">
-        <v>40</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="13">
         <v>0</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="A8" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="13">
         <f>(B5-B3)/(B7-B6)</f>
         <v>-0.91312499999999996</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000000000000000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B9" s="21">
-        <f>B6</f>
-        <v>40</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="13">
+        <v>91</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="1">
+        <f>G3*G2/G4</f>
+        <v>3.6524999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="19">
-        <v>40</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>145</v>
+      <c r="A10" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="13">
+        <v>410</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
       </c>
-      <c r="H10" t="s">
-        <v>6</v>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18" t="str">
-        <f>A10</f>
-        <v>ATS productivity (Adey et al.)</v>
-      </c>
-      <c r="B11" s="19">
-        <f>B10*$G$2*$G$3/$G$4</f>
-        <v>146.1</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="A11" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="13">
+        <f>B10*G32</f>
+        <v>873300000000</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1">
-        <v>1000000000000</v>
+        <f>(G12+2*G14)/G12</f>
+        <v>3.6641245524935475</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="19">
-        <v>40000000</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>269</v>
+      <c r="A12" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>289</v>
       </c>
       <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="13">
+        <f>B12*G32</f>
+        <v>4260000000</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1">
+        <v>14.007</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15.9994</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30.97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="14">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="1">
-        <v>1000000000000000</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="19">
-        <f>B12*G23</f>
-        <v>10566880</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="1">
-        <f>G3*G2/G4</f>
-        <v>3.6524999999999999</v>
-      </c>
-      <c r="H13" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="21">
-        <f>40000000000/G15</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="19">
-        <f>G4*B14/G2</f>
-        <v>29888184726350.648</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1">
-        <f>(G16+2*G18)/G16</f>
-        <v>3.6641245524935475</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="19">
-        <v>5</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="1">
-        <v>12.010999999999999</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="B17" s="14">
         <v>107500000000000</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="1">
-        <v>14.007</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="1">
-        <v>49642700000000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="1">
-        <v>15.9994</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="13">
+        <v>104.9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" t="str">
-        <f>A18</f>
-        <v>Global N excess</v>
+      <c r="A19" t="s">
+        <v>202</v>
       </c>
       <c r="B19" s="1">
-        <f>B18/G2</f>
-        <v>135914305270.36276</v>
+        <f>B18*$G$8/$G$6</f>
+        <v>104900000000000</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1">
-        <v>30.97</v>
+        <v>0.26417200000000002</v>
       </c>
       <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" t="str">
-        <f>A18</f>
-        <v>Global N excess</v>
-      </c>
-      <c r="B20" s="1">
-        <f>B18/G4</f>
-        <v>49642700</v>
-      </c>
-      <c r="C20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="1"/>
+      <c r="A20" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="13">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.47105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="str">
-        <f>A19</f>
-        <v>Global N excess</v>
+      <c r="A21" t="s">
+        <v>205</v>
       </c>
       <c r="B21" s="1">
-        <f>B18/$G$11</f>
-        <v>49.642699999999998</v>
+        <f>B20*$G$8/$G$6</f>
+        <v>8000000000000</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="21">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9100721000000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="str">
-        <f>A22</f>
-        <v>Global P excess</v>
-      </c>
-      <c r="B23" s="1">
-        <f>B22/G2</f>
-        <v>24916416153.319645</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.26417200000000002</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="str">
-        <f>A22</f>
-        <v>Global P excess</v>
-      </c>
-      <c r="B24" s="1">
-        <f>B22/G4</f>
-        <v>9100721</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2.47105</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="1">
-        <f>B22/$G$11</f>
-        <v>9.1007210000000001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="1">
+        <v>204</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1">
         <f>1/2.54</f>
         <v>0.39370078740157477</v>
       </c>
-      <c r="H25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="21">
-        <v>104.9</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="13">
+        <v>250000</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="1">
         <v>3.28084</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="1">
-        <f>B26*$G$12/$G$10</f>
-        <v>104900000000000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="1">
         <v>1.3079499999999999</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B28" s="21">
-        <v>8</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="F28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="1">
-        <f>1000000*G29/2000</f>
+      <c r="H23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="13">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1000000*G25/2000</f>
         <v>1.1023099999999999</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="1">
-        <f>B28*$G$12/$G$10</f>
-        <v>8000000000000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="H24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="13">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
         <f>0.00220462</f>
         <v>2.20462E-3</v>
       </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9.2902999999999998E-6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="13">
+        <f>(B$25/B$24)+B22*B$26</f>
+        <v>32500</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5280</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="13">
+        <f>(B$25/B$24)+B23*B$26</f>
+        <v>70000</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.453592</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="13">
+        <v>40</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="13">
+        <v>6.4515999999999998E-4</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" t="s">
+      <c r="A30" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="13">
         <v>20</v>
       </c>
-      <c r="B30" s="2">
-        <v>107500000000000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
+      <c r="C30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>273</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="1">
-        <v>9.2902999999999998E-6</v>
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>1.60934</v>
       </c>
       <c r="H30" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1">
-        <v>22000000000000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
+      <c r="A31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="G31" s="1">
-        <v>5280</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>298</v>
-      </c>
-      <c r="B32" s="1">
-        <v>104.9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="21">
-        <v>0.453592</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>8</v>
+      <c r="A32" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="13">
+        <v>50</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2130000000</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="1">
-        <f>B32*G12/G4</f>
-        <v>104900000000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="21">
-        <v>6.4515999999999998E-4</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>151</v>
+      <c r="A33" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="13">
+        <v>100</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>298</v>
-      </c>
-      <c r="B34" s="1">
-        <f>($B$33/$G$20)*G4/G12</f>
-        <v>209.8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34">
-        <v>1.60934</v>
-      </c>
-      <c r="H34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B35" s="2">
-        <v>9100000000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" t="s">
-        <v>337</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H35" t="s">
-        <v>245</v>
+      <c r="A34" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="13">
+        <v>200</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B36" s="2">
-        <f>B35*G4/G12</f>
-        <v>9.1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
+      <c r="A36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="2">
-        <f>B36/B34</f>
-        <v>4.3374642516682549E-2</v>
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
-      </c>
-      <c r="M37" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
-        <f>B91/B34</f>
-        <v>1.4459359707658085E-2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+        <v>106</v>
+      </c>
+      <c r="C38" s="1">
+        <f>G12*B38</f>
+        <v>1273.1659999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <f>C38/C$41</f>
+        <v>0.83308860865513967</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>346</v>
-      </c>
-      <c r="B39">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1">
+        <f>G13*B39</f>
+        <v>224.11199999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <f>C39/C$41</f>
+        <v>0.1466463558270647</v>
+      </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <f>G15*B40</f>
+        <v>30.97</v>
+      </c>
+      <c r="D40" s="1">
+        <f>C40/C$41</f>
+        <v>2.026503551779554E-2</v>
+      </c>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13">
       <c r="B41" s="1"/>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="20">
-        <v>14.7</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="21">
-        <f>B43*G32/G33</f>
-        <v>10335.11439022878</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="21">
-        <v>510100000000000</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="21">
-        <f>B44*B45</f>
-        <v>5.2719418504557005E+18</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="21">
-        <f>B46/1000000</f>
-        <v>5271941850455.7002</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="21">
-        <f>B47/G5</f>
-        <v>5271941850.4556999</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="1">
-        <f>11000000000/B48</f>
-        <v>2.0865177029691959</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="21">
-        <f>B48*400</f>
-        <v>2108776740182.28</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B51" s="21">
-        <f>B14/B48</f>
-        <v>2.0707093858320822</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B52" s="21">
-        <f>B51*B48</f>
-        <v>10916659471.299574</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53">
-        <v>410</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="1">
-        <f>B53*B47</f>
-        <v>2161496158686837</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1">
-        <v>106</v>
-      </c>
-      <c r="C58" s="1">
-        <f>G16*B58</f>
-        <v>1273.1659999999999</v>
-      </c>
-      <c r="D58" s="1">
-        <f>C58/C$61</f>
-        <v>0.83308860865513967</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="1">
-        <v>16</v>
-      </c>
-      <c r="C59" s="1">
-        <f>G17*B59</f>
-        <v>224.11199999999999</v>
-      </c>
-      <c r="D59" s="1">
-        <f>C59/C$61</f>
-        <v>0.1466463558270647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1">
-        <f>G19*B60</f>
-        <v>30.97</v>
-      </c>
-      <c r="D60" s="1">
-        <f>C60/C$61</f>
-        <v>2.026503551779554E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1">
-        <f>SUM(C58:C60)</f>
+      <c r="C41" s="1">
+        <f>SUM(C38:C40)</f>
         <v>1528.248</v>
       </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="21">
-        <v>250000</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="21">
-        <v>1000000</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="21">
-        <v>5</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="21">
-        <v>100000</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="21">
-        <f>(B$66/B$65)+B63*B$67</f>
-        <v>32500</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="21">
-        <f>(B$66/B$65)+B64*B$67</f>
-        <v>70000</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B70" s="21">
-        <v>40</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B71" s="21">
-        <v>20</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D72" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B73" s="21">
-        <v>50</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B74" s="21">
-        <v>100</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="21">
-        <v>200</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="1">
-        <f>B19/G21</f>
-        <v>2831548026465.8906</v>
-      </c>
-      <c r="C78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="1">
-        <f>B78*G2/G4</f>
-        <v>1034222916.6666665</v>
-      </c>
-      <c r="C79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="1">
-        <f>B78*$G$2/$G$12</f>
-        <v>1.0342229166666665</v>
-      </c>
-      <c r="C80" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" s="1">
-        <f>B78/B2</f>
-        <v>188769868431.05939</v>
-      </c>
-      <c r="C81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="1">
-        <f>B81/G3</f>
-        <v>18876986.843105938</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="1">
-        <f>B78/B4</f>
-        <v>113261921058.63562</v>
-      </c>
-      <c r="C83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="1">
-        <f>B83/G3</f>
-        <v>11326192.105863562</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="1">
-        <f>B79*G22</f>
-        <v>3102668.7499999995</v>
-      </c>
-      <c r="C85" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="1">
-        <f>B79*G20</f>
-        <v>517111458.33333325</v>
-      </c>
-      <c r="C86" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="16"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="1">
-        <f>B23/G22</f>
-        <v>8305472051106.5479</v>
-      </c>
-      <c r="C89" t="s">
-        <v>148</v>
-      </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="str">
-        <f>A89</f>
-        <v>Biomass implied</v>
-      </c>
-      <c r="B90" s="1">
-        <f>G2*B89/G4</f>
-        <v>3033573666.6666665</v>
-      </c>
-      <c r="C90" t="s">
-        <v>149</v>
-      </c>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" t="str">
-        <f>A90</f>
-        <v>Biomass implied</v>
-      </c>
-      <c r="B91" s="1">
-        <f>B89*$G$2/$G$12</f>
-        <v>3.0335736666666664</v>
-      </c>
-      <c r="C91" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>108</v>
-      </c>
-      <c r="B92" s="1">
-        <f>B89/B2</f>
-        <v>553698136740.43652</v>
-      </c>
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="str">
-        <f>A92</f>
-        <v>ATS area implied (low prod)</v>
-      </c>
-      <c r="B93" s="1">
-        <f>B92/G3</f>
-        <v>55369813.674043655</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94" s="1">
-        <f>B89/B4</f>
-        <v>332218882044.2619</v>
-      </c>
-      <c r="C94" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95" s="1">
-        <f>B94/G3</f>
-        <v>33221888.204426192</v>
-      </c>
-      <c r="C95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="1">
-        <f>B90*G21</f>
-        <v>145611536</v>
-      </c>
-      <c r="C96" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="1">
-        <f>B90*G20</f>
-        <v>1516786833.3333333</v>
-      </c>
-      <c r="C97" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="15"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="1">
-        <f>G4*B101/G2</f>
-        <v>59776369452701.297</v>
-      </c>
-      <c r="C100" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="1">
-        <f>B14/G20</f>
-        <v>21833318942.599148</v>
-      </c>
-      <c r="C101" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="1">
-        <f>B100/B2</f>
-        <v>3985091296846.7529</v>
-      </c>
-      <c r="C102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="str">
-        <f>A102</f>
-        <v>ATS area implied (low prod)</v>
-      </c>
-      <c r="B103" s="1">
-        <f>B102/G3</f>
-        <v>398509129.68467528</v>
-      </c>
-      <c r="C103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="1">
-        <f>B100/B4</f>
-        <v>2391054778108.0518</v>
-      </c>
-      <c r="C104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="1">
-        <f>B104/G3</f>
-        <v>239105477.81080517</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" s="1">
-        <f>B101*G21</f>
-        <v>1047999309.2447591</v>
-      </c>
-      <c r="C106" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="1">
-        <f>B101*G22</f>
-        <v>65499956.827797443</v>
-      </c>
-      <c r="C107" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="17"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="4">
-        <v>50</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B112" s="4">
-        <v>100</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" s="4">
-        <v>200</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B114" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B115" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B116" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B117" s="4">
-        <v>1.545806E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B118" s="4">
-        <v>0.18188969999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B120">
-        <v>1.4659849999999999E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B121">
-        <v>1.724974E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122">
-        <v>9.4836279999999995E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="15"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>103</v>
-      </c>
-      <c r="B131" s="1">
-        <v>11194445</v>
-      </c>
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="1">
-        <f>B131*$G$31</f>
-        <v>59106669600</v>
-      </c>
-      <c r="C132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>26</v>
-      </c>
-      <c r="B133" s="1">
-        <v>20</v>
-      </c>
-      <c r="C133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>27</v>
-      </c>
-      <c r="B134" s="1">
-        <f>B133*B132</f>
-        <v>1182133392000</v>
-      </c>
-      <c r="C134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" s="1">
-        <f>B134*G30</f>
-        <v>10982373.8516976</v>
-      </c>
-      <c r="C135" t="s">
-        <v>3</v>
-      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="86" spans="8:9">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="8:9">
+      <c r="H87" s="7"/>
+    </row>
+    <row r="92" spans="8:9">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="8:9">
+      <c r="I93" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A109:C109"/>
+  <mergeCells count="4">
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="F38:H38"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8084,76 +7013,76 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N1">
         <v>3.7854100000000002</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2">
         <v>1000000</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="S2" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8162,7 +7091,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>760</v>
@@ -8187,28 +7116,28 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2">
         <f>N2/N1</f>
         <v>264172.17685798893</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
       </c>
       <c r="T3" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -8217,7 +7146,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>11000</v>
@@ -8242,29 +7171,29 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <f>24*60</f>
         <v>1440</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
         <v>42.551625000000001</v>
       </c>
       <c r="T4" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="E5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>4500</v>
@@ -8289,28 +7218,28 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <f>10*N1</f>
         <v>37.854100000000003</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="S5" s="1">
         <v>2.8</v>
       </c>
       <c r="T5" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="E6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>9385</v>
@@ -8335,28 +7264,28 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <f>N5</f>
         <v>37.854100000000003</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S6" s="1">
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="E7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>2800</v>
@@ -8381,28 +7310,28 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>10000</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S7" s="1">
         <f>S6*S5</f>
         <v>0.97999999999999987</v>
       </c>
       <c r="T7" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="E8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>3400</v>
@@ -8427,25 +7356,25 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <f>N6*1000000/N7</f>
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
       </c>
       <c r="T8" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="E9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>2750</v>
@@ -8470,28 +7399,28 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N9" s="2">
         <f>N8/K13</f>
         <v>85.658420571428564</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S9" s="1">
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="E10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>1550</v>
@@ -8516,19 +7445,19 @@
       </c>
       <c r="L10" s="2"/>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S10" s="1">
         <f>S9*S8</f>
         <v>0.10400000000000001</v>
       </c>
       <c r="T10" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="E11" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>1650</v>
@@ -8553,26 +7482,26 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="S11" s="1">
-        <f>S7/Settings!G21</f>
+        <f>S7/Settings!G17</f>
         <v>20.416666666666664</v>
       </c>
       <c r="T11" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="S12" s="1">
-        <f>S10/Settings!$G$22</f>
+        <f>S10/Settings!$G$18</f>
         <v>34.666666666666671</v>
       </c>
       <c r="T12" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -8586,380 +7515,380 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
         <v>2.084161224489796</v>
       </c>
       <c r="T13" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
         <v>1.2274507211538461</v>
       </c>
       <c r="T14" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
       </c>
       <c r="T18" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
         <v>84.646687499999999</v>
       </c>
       <c r="T19" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
       </c>
       <c r="T20" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="T21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="S23" s="1">
-        <f>S22*Settings!$G$14</f>
+        <f>S22*Settings!$G$10</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="18:20">
       <c r="R26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S26" s="1">
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="18:20">
       <c r="R27" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S27" s="1">
         <f>S26*S25</f>
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="18:20">
       <c r="R28" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S28" s="1">
         <f>S27*Settings!$G$2</f>
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="18:20">
       <c r="R29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S29" s="1">
-        <f>S28/(Settings!$G$4*Settings!$G$41)</f>
-        <v>1.2269478E-3</v>
+        <v>20</v>
+      </c>
+      <c r="S29" s="1" t="e">
+        <f>S28/(Settings!$G$4*Settings!$G$37)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T29" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="18:20">
       <c r="R30" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="1">
+        <v>20</v>
+      </c>
+      <c r="S30" s="1" t="e">
         <f>S29/S21</f>
-        <v>0.49077912000000001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T30" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>281</v>
-      </c>
-      <c r="S31" s="1">
-        <f>S30/Settings!$G$22</f>
-        <v>163.59304</v>
+        <v>229</v>
+      </c>
+      <c r="S31" s="1" t="e">
+        <f>S30/Settings!$G$18</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T31" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
       </c>
       <c r="T35" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
         <v>68.667000000000002</v>
       </c>
       <c r="T36" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
       </c>
       <c r="T37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="S39" s="1">
-        <f>S38*Settings!$G$14</f>
+        <f>S38*Settings!$G$10</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="18:20">
       <c r="R42" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S42" s="1">
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="18:20">
       <c r="R43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S43" s="1">
         <f>S42*S41</f>
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="18:20">
       <c r="R44" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S44" s="1">
         <f>S43*Settings!$G$2</f>
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="18:20">
       <c r="R45" t="s">
-        <v>34</v>
-      </c>
-      <c r="S45" s="1">
-        <f>S44/(Settings!$G$4*Settings!$G$41)</f>
-        <v>3.9695370000000004E-3</v>
+        <v>20</v>
+      </c>
+      <c r="S45" s="1" t="e">
+        <f>S44/(Settings!$G$4*Settings!$G$37)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T45" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="18:20">
       <c r="R46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="1">
+        <v>20</v>
+      </c>
+      <c r="S46" s="1" t="e">
         <f>S45/S37</f>
-        <v>3.7098476635514023E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T46" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>281</v>
-      </c>
-      <c r="S47" s="1">
-        <f>S46/Settings!$G$22</f>
-        <v>1.2366158878504674</v>
+        <v>229</v>
+      </c>
+      <c r="S47" s="1" t="e">
+        <f>S46/Settings!$G$18</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T47" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="18:20">
       <c r="R51" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="T51" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -8991,147 +7920,147 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
         <v>8766049.1899999995</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="B3" s="1">
-        <f>'Highway Costs'!B2*Settings!G35*Settings!G34</f>
+        <f>'Highway Costs'!B2*Settings!G31*Settings!G30</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="B5" s="1">
-        <f>B4/Settings!G26</f>
+        <f>B4/Settings!G22</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
         <v>51599786408.729233</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
         <v>5159978.6408729237</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
         <v>105423740057.83682</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
         <v>51442240042.163231</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
         <v>156865980100.00006</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="302">
   <si>
     <t>yr</t>
   </si>
@@ -395,9 +395,6 @@
     <t>maintenance proportion</t>
   </si>
   <si>
-    <t>model y intercept</t>
-  </si>
-  <si>
     <t>model high latitude</t>
   </si>
   <si>
@@ -930,6 +927,12 @@
   </si>
   <si>
     <t>Baseline C</t>
+  </si>
+  <si>
+    <t>model y intercept (==prod_lo)</t>
+  </si>
+  <si>
+    <t>Assumption</t>
   </si>
 </sst>
 </file>
@@ -989,7 +992,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,6 +1017,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2593,7 +2608,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2616,15 +2631,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1567">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4634,7 +4656,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4665,7 +4687,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="14">
         <f>Settings!G16</f>
@@ -4676,7 +4698,7 @@
         <v>gC gBiomass-1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -4684,7 +4706,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="14">
         <f>Settings!G17</f>
@@ -4695,7 +4717,7 @@
         <v>gN gBiomass-1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>118</v>
@@ -4703,7 +4725,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" s="14">
         <f>Settings!G18</f>
@@ -4714,7 +4736,7 @@
         <v>gP gBiomass-1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>118</v>
@@ -4722,7 +4744,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="14">
         <f>Settings!B10</f>
@@ -4733,7 +4755,7 @@
         <v>ppm</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>118</v>
@@ -4741,7 +4763,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="14">
         <f>Settings!B12</f>
@@ -4752,7 +4774,7 @@
         <v>ppm yr-1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>118</v>
@@ -4760,7 +4782,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="14">
         <f>Settings!B6</f>
@@ -4771,7 +4793,7 @@
         <v>deg</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>118</v>
@@ -4779,7 +4801,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="14">
         <f>Settings!B7</f>
@@ -4790,7 +4812,7 @@
         <v>deg</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>118</v>
@@ -4798,7 +4820,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" s="14">
         <f>Settings!B3</f>
@@ -4809,7 +4831,7 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>118</v>
@@ -4817,7 +4839,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="14">
         <f>Settings!B5</f>
@@ -4828,7 +4850,7 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>118</v>
@@ -4836,7 +4858,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="14">
         <f>Settings!B8</f>
@@ -4847,7 +4869,7 @@
         <v>t ha-1 yr-1 deg-1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>118</v>
@@ -4855,18 +4877,18 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="14">
-        <f>Settings!B5</f>
-        <v>91.3125</v>
+        <f>Settings!B9</f>
+        <v>91</v>
       </c>
       <c r="C12" s="14" t="str">
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>118</v>
@@ -4874,7 +4896,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="14">
         <f>Settings!B18</f>
@@ -4885,7 +4907,7 @@
         <v>Pg yr-1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>118</v>
@@ -4893,7 +4915,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="14">
         <f>Settings!B20</f>
@@ -4904,7 +4926,7 @@
         <v>Pg yr-1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>118</v>
@@ -4912,7 +4934,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15" s="14">
         <f>Settings!B24</f>
@@ -4931,7 +4953,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B16" s="14">
         <f>Settings!B25</f>
@@ -4950,7 +4972,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="14">
         <f>Settings!B26</f>
@@ -4969,7 +4991,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="14">
         <f>Settings!B22</f>
@@ -4980,7 +5002,7 @@
         <v>$ ha-1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>117</v>
@@ -4988,7 +5010,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B19" s="14">
         <f>Settings!B23</f>
@@ -4999,7 +5021,7 @@
         <v>$ ha-1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>117</v>
@@ -5007,7 +5029,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="14">
         <f>Settings!B27</f>
@@ -5018,7 +5040,7 @@
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>117</v>
@@ -5026,7 +5048,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="14">
         <f>Settings!B28</f>
@@ -5037,7 +5059,7 @@
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>117</v>
@@ -5045,7 +5067,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" s="14">
         <f>Settings!B29</f>
@@ -5056,7 +5078,7 @@
         <v>yr</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>117</v>
@@ -5064,7 +5086,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" s="14">
         <f>Settings!B30</f>
@@ -5075,7 +5097,7 @@
         <v>yr</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>117</v>
@@ -5083,7 +5105,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" s="14">
         <f>Settings!B31</f>
@@ -5094,7 +5116,7 @@
         <v>prp</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>117</v>
@@ -5102,7 +5124,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="14">
         <f>Settings!B32</f>
@@ -5113,7 +5135,7 @@
         <v>yr</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>117</v>
@@ -5121,7 +5143,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="14">
         <f>Settings!B33</f>
@@ -5132,7 +5154,7 @@
         <v>yr</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>117</v>
@@ -5140,7 +5162,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="14">
         <f>Settings!B34</f>
@@ -5151,7 +5173,7 @@
         <v>yr</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>117</v>
@@ -5190,30 +5212,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="10">
         <v>146.7885378</v>
@@ -5222,18 +5244,18 @@
         <v>-19.257637299999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="10">
         <v>-80.457524599999999</v>
@@ -5242,21 +5264,21 @@
         <v>26.657368099999999</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="10">
         <v>-74.539295999999993</v>
@@ -5265,11 +5287,11 @@
         <v>40.372374000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5283,16 +5305,16 @@
         <v>37.855311</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="10">
         <v>-120.9</v>
@@ -5301,16 +5323,16 @@
         <v>50.8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="10">
         <v>-119.7</v>
@@ -5319,11 +5341,11 @@
         <v>50.8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5337,16 +5359,16 @@
         <v>17.45</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="10"/>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="10">
         <v>120.3</v>
@@ -5355,11 +5377,11 @@
         <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="10"/>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5373,16 +5395,16 @@
         <v>24.520453</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="10">
         <v>-121.132778</v>
@@ -5391,16 +5413,16 @@
         <v>37.473056</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5414,11 +5436,11 @@
         <v>27.427821999999999</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="10"/>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5432,16 +5454,16 @@
         <v>37.223215000000003</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -5450,21 +5472,21 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="s">
         <v>163</v>
       </c>
-      <c r="F14" t="s">
-        <v>164</v>
-      </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="10">
         <v>-80.907136899999998</v>
@@ -5473,21 +5495,21 @@
         <v>27.213987700000001</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -5496,15 +5518,15 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="10">
         <v>-81.880556400000003</v>
@@ -5513,21 +5535,21 @@
         <v>26.674672000000001</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="10">
         <v>-80.853750700000006</v>
@@ -5536,21 +5558,21 @@
         <v>27.329125999999999</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -5559,21 +5581,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -5582,21 +5604,21 @@
         <v>27.592262000000002</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -5605,21 +5627,21 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="10">
         <v>-80.479466200000005</v>
@@ -5628,21 +5650,21 @@
         <v>27.609477500000001</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="10">
         <v>-81.445307999999997</v>
@@ -5651,21 +5673,21 @@
         <v>28.5647631</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="10">
         <v>-82.477197000000004</v>
@@ -5674,21 +5696,21 @@
         <v>29.923072999999999</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="10">
         <v>-85.024425500000007</v>
@@ -5697,21 +5719,21 @@
         <v>34.827157800000002</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -5720,21 +5742,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
         <v>161</v>
       </c>
-      <c r="F26" t="s">
-        <v>162</v>
-      </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -5743,21 +5765,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -5766,21 +5788,21 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="10">
         <v>-73.828925999999996</v>
@@ -5789,21 +5811,21 @@
         <v>40.584173399999997</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="10">
         <v>3.5740601999999999</v>
@@ -5812,16 +5834,16 @@
         <v>51.082552</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="10">
         <v>16.430962999999998</v>
@@ -5830,11 +5852,11 @@
         <v>48.197578999999998</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="10"/>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5848,12 +5870,12 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="10">
         <v>-76.900000000000006</v>
@@ -5862,11 +5884,11 @@
         <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="10"/>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5880,11 +5902,11 @@
         <v>38.784427000000001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" s="10"/>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5898,10 +5920,10 @@
         <v>39.131529</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5915,10 +5937,10 @@
         <v>39.449888999999999</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5932,11 +5954,11 @@
         <v>38.609043200000002</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="10"/>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5950,16 +5972,16 @@
         <v>37.247632000000003</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5973,16 +5995,16 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5996,16 +6018,16 @@
         <v>36.080810999999997</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6019,16 +6041,16 @@
         <v>29.645575999999998</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="10"/>
       <c r="G41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="10">
         <v>-98.806156999999999</v>
@@ -6037,21 +6059,21 @@
         <v>29.491195399999999</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="10">
         <v>16.163287777777775</v>
@@ -6060,16 +6082,16 @@
         <v>51.627626666666664</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="10"/>
       <c r="G43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -6078,21 +6100,21 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="10">
         <v>-75.900000000000006</v>
@@ -6101,11 +6123,11 @@
         <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6135,8 +6157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6160,80 +6182,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="21">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="21">
         <v>365.25</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="12" t="str">
+      <c r="A3" s="20" t="str">
         <f>A2</f>
         <v>ATS productivity (high lat)</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="21">
         <f>B2*$G$2*$G$3/$G$4</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="21">
         <f>100*100</f>
         <v>10000</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="21">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="21">
         <v>1000000</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6249,19 +6274,20 @@
       <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>1000</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="13">
         <v>40</v>
@@ -6269,19 +6295,20 @@
       <c r="C6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="D6" s="12"/>
+      <c r="F6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="14">
         <v>1000</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="13">
         <v>0</v>
@@ -6289,6 +6316,7 @@
       <c r="C7" s="12" t="s">
         <v>96</v>
       </c>
+      <c r="D7" s="12"/>
       <c r="F7" t="s">
         <v>13</v>
       </c>
@@ -6301,7 +6329,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="13">
         <f>(B5-B3)/(B7-B6)</f>
@@ -6310,6 +6338,7 @@
       <c r="C8" s="12" t="s">
         <v>100</v>
       </c>
+      <c r="D8" s="12"/>
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -6322,7 +6351,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="13">
         <v>91</v>
@@ -6330,6 +6359,7 @@
       <c r="C9" s="12" t="s">
         <v>102</v>
       </c>
+      <c r="D9" s="12"/>
       <c r="F9" t="s">
         <v>101</v>
       </c>
@@ -6343,7 +6373,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="13">
         <v>410</v>
@@ -6351,8 +6381,9 @@
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="12"/>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
@@ -6362,17 +6393,17 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="A11" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="21">
         <f>B10*G32</f>
         <v>873300000000</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="21"/>
       <c r="F11" t="s">
         <v>11</v>
       </c>
@@ -6386,7 +6417,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
@@ -6394,8 +6425,8 @@
       <c r="C12" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D12" t="s">
-        <v>289</v>
+      <c r="D12" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="F12" t="s">
         <v>70</v>
@@ -6409,16 +6440,17 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="21">
         <f>B12*G32</f>
         <v>4260000000</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="20" t="s">
         <v>103</v>
       </c>
+      <c r="D13" s="20"/>
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -6443,13 +6475,13 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -6463,14 +6495,17 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="23">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="22" t="s">
         <v>2</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>115</v>
@@ -6506,7 +6541,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="13">
         <v>104.9</v>
@@ -6515,7 +6550,7 @@
         <v>104</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>115</v>
@@ -6529,30 +6564,31 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="14">
         <f>B18*$G$8/$G$6</f>
         <v>104900000000000</v>
       </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="14">
         <v>0.26417200000000002</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="13">
         <v>8</v>
@@ -6561,38 +6597,39 @@
         <v>104</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="14">
         <v>2.47105</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="14">
         <f>B20*$G$8/$G$6</f>
         <v>8000000000000</v>
       </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C21" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="14">
         <f>1/2.54</f>
         <v>0.39370078740157477</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6606,16 +6643,16 @@
       <c r="C22" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D22" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="D22" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="14">
         <v>3.28084</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="1"/>
@@ -6630,17 +6667,17 @@
       <c r="C23" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1.3079499999999999</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.3079499999999999</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -6654,18 +6691,18 @@
       <c r="C24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
-        <v>273</v>
+      <c r="D24" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="14">
         <f>1000000*G25/2000</f>
         <v>1.1023099999999999</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="14" t="s">
         <v>94</v>
       </c>
       <c r="K24" s="1"/>
@@ -6680,17 +6717,17 @@
       <c r="C25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="14">
         <f>0.00220462</f>
         <v>2.20462E-3</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6704,16 +6741,16 @@
       <c r="C26" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
-        <v>273</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="14">
         <v>9.2902999999999998E-6</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6728,13 +6765,14 @@
       <c r="C27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D27" s="12"/>
+      <c r="F27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="14">
         <v>5280</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6749,19 +6787,20 @@
       <c r="C28" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="12"/>
+      <c r="F28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="14">
         <v>0.453592</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="13">
         <v>40</v>
@@ -6769,23 +6808,23 @@
       <c r="C29" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>273</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="14">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="13">
         <v>20</v>
@@ -6793,17 +6832,17 @@
       <c r="C30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>1.60934</v>
       </c>
-      <c r="H30" t="s">
-        <v>278</v>
+      <c r="H30" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6814,24 +6853,24 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" t="s">
-        <v>273</v>
-      </c>
-      <c r="F31" t="s">
-        <v>278</v>
-      </c>
-      <c r="G31" s="1">
+        <v>210</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" s="14">
         <v>1000</v>
       </c>
-      <c r="H31" t="s">
-        <v>196</v>
+      <c r="H31" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" s="13">
         <v>50</v>
@@ -6839,22 +6878,22 @@
       <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="D32" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="21">
         <v>2130000000</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>290</v>
+      <c r="H32" s="20" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33" s="13">
         <v>100</v>
@@ -6862,13 +6901,16 @@
       <c r="C33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D33" t="s">
-        <v>273</v>
-      </c>
+      <c r="D33" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" s="13">
         <v>200</v>
@@ -6876,61 +6918,70 @@
       <c r="C34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
-        <v>273</v>
-      </c>
+      <c r="D34" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="14">
         <v>106</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="14">
         <f>G12*B38</f>
         <v>1273.1659999999999</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="14">
         <f>C38/C$41</f>
         <v>0.83308860865513967</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="14">
         <v>16</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="14">
         <f>G13*B39</f>
         <v>224.11199999999999</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="14">
         <f>C39/C$41</f>
         <v>0.1466463558270647</v>
       </c>
@@ -7028,10 +7079,10 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -7074,10 +7125,10 @@
         <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -7126,7 +7177,7 @@
         <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
@@ -7181,11 +7232,11 @@
         <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
-        <v>42.551625000000001</v>
+        <v>42.239125000000001</v>
       </c>
       <c r="T4" t="s">
         <v>102</v>
@@ -7280,7 +7331,7 @@
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -7363,7 +7414,7 @@
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
@@ -7415,7 +7466,7 @@
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7482,7 +7533,7 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S11" s="1">
         <f>S7/Settings!G17</f>
@@ -7494,7 +7545,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S12" s="1">
         <f>S10/Settings!$G$18</f>
@@ -7515,47 +7566,47 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
-        <v>2.084161224489796</v>
+        <v>2.0688551020408168</v>
       </c>
       <c r="T13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
-        <v>1.2274507211538461</v>
+        <v>1.218436298076923</v>
       </c>
       <c r="T14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
@@ -7566,11 +7617,11 @@
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
-        <v>84.646687499999999</v>
+        <v>84.334187499999999</v>
       </c>
       <c r="T19" t="s">
         <v>102</v>
@@ -7578,7 +7629,7 @@
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
@@ -7589,7 +7640,7 @@
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
@@ -7601,48 +7652,48 @@
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S23" s="1">
         <f>S22*Settings!$G$10</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="18:20">
@@ -7653,7 +7704,7 @@
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="18:20">
@@ -7665,7 +7716,7 @@
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="18:20">
@@ -7677,7 +7728,7 @@
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="18:20">
@@ -7706,7 +7757,7 @@
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S31" s="1" t="e">
         <f>S30/Settings!$G$18</f>
@@ -7718,23 +7769,23 @@
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
@@ -7745,11 +7796,11 @@
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
-        <v>68.667000000000002</v>
+        <v>68.354500000000002</v>
       </c>
       <c r="T36" t="s">
         <v>102</v>
@@ -7757,7 +7808,7 @@
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
@@ -7768,48 +7819,48 @@
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S39" s="1">
         <f>S38*Settings!$G$10</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="18:20">
@@ -7820,7 +7871,7 @@
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="18:20">
@@ -7832,7 +7883,7 @@
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="18:20">
@@ -7844,7 +7895,7 @@
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="18:20">
@@ -7873,7 +7924,7 @@
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S47" s="1" t="e">
         <f>S46/Settings!$G$18</f>
@@ -7920,7 +7971,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>63</v>
@@ -7929,12 +7980,12 @@
         <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
@@ -7944,24 +7995,24 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="1">
         <f>'Highway Costs'!B2*Settings!G31*Settings!G30</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -7970,24 +8021,24 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="1">
         <f>B4/Settings!G22</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
@@ -7999,7 +8050,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
@@ -8011,7 +8062,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
@@ -8021,12 +8072,12 @@
         <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
@@ -8036,12 +8087,12 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
@@ -8053,14 +8104,14 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="764" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="308">
   <si>
     <t>yr</t>
   </si>
@@ -68,9 +68,6 @@
     <t>g CO2</t>
   </si>
   <si>
-    <t>Tg</t>
-  </si>
-  <si>
     <t>Pg</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>US$</t>
   </si>
   <si>
-    <t>Ha</t>
-  </si>
-  <si>
     <t>$ ha-1</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>Mg</t>
   </si>
   <si>
-    <t>ton</t>
-  </si>
-  <si>
     <t>$ yr-1</t>
   </si>
   <si>
@@ -896,12 +887,6 @@
     <t>{Ciais et al., 2014, #20246}</t>
   </si>
   <si>
-    <t>t C</t>
-  </si>
-  <si>
-    <t>1 ppm CO2 (by volume)</t>
-  </si>
-  <si>
     <t>Ecological Parameters</t>
   </si>
   <si>
@@ -933,6 +918,39 @@
   </si>
   <si>
     <t>Assumption</t>
+  </si>
+  <si>
+    <t>{The World Bank, 2017, #21801}</t>
+  </si>
+  <si>
+    <t>ppm CO2 (vol.)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>tC</t>
+  </si>
+  <si>
+    <t>us_val</t>
+  </si>
+  <si>
+    <t>us_unit</t>
+  </si>
+  <si>
+    <t>T ac-1 yr-1</t>
+  </si>
+  <si>
+    <t>T ac-1 yr-1 deg-1</t>
+  </si>
+  <si>
+    <t>lbC lbBiomass-1</t>
+  </si>
+  <si>
+    <t>lbN lbBiomass-1</t>
+  </si>
+  <si>
+    <t>lbP lbBiomass-1</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1010,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,6 +1047,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1039,7 +1063,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1567">
+  <cellStyleXfs count="1589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2607,8 +2631,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2631,6 +2677,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2640,15 +2692,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1567">
+  <cellStyles count="1589">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3432,6 +3480,17 @@
     <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4215,6 +4274,17 @@
     <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4653,10 +4723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4664,87 +4734,116 @@
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="14">
+        <f>Settings!G13</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>Settings!H13&amp;" "&amp;Settings!F13&amp;"-1"</f>
+        <v>gC gBiomass-1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="14">
+        <f>Settings!G14</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>Settings!H14&amp;" "&amp;Settings!F14&amp;"-1"</f>
+        <v>gN gBiomass-1</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D8" si="0">B3</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="14">
+        <f>Settings!G15</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>Settings!H15&amp;" "&amp;Settings!F15&amp;"-1"</f>
+        <v>gP gBiomass-1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B2" s="14">
-        <f>Settings!G16</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="14" t="str">
-        <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
-        <v>gC gBiomass-1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="14">
-        <f>Settings!G17</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C3" s="14" t="str">
-        <f>Settings!H17&amp;" "&amp;Settings!F17&amp;"-1"</f>
-        <v>gN gBiomass-1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="14">
-        <f>Settings!G18</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="14" t="str">
-        <f>Settings!H18&amp;" "&amp;Settings!F18&amp;"-1"</f>
-        <v>gP gBiomass-1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="B5" s="14">
         <f>Settings!B10</f>
@@ -4754,16 +4853,24 @@
         <f>Settings!C10</f>
         <v>ppm</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>C5</f>
+        <v>ppm</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B6" s="14">
         <f>Settings!B12</f>
@@ -4773,16 +4880,24 @@
         <f>Settings!C12</f>
         <v>ppm yr-1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ref="E6:E8" si="1">C6</f>
+        <v>ppm yr-1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7" s="14">
         <f>Settings!B6</f>
@@ -4792,16 +4907,24 @@
         <f>Settings!C6</f>
         <v>deg</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>deg</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B8" s="14">
         <f>Settings!B7</f>
@@ -4811,16 +4934,24 @@
         <f>Settings!C7</f>
         <v>deg</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>deg</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B9" s="14">
         <f>Settings!B3</f>
@@ -4830,16 +4961,23 @@
         <f>Settings!C3</f>
         <v>t ha-1 yr-1</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="1">
+        <f>B9*Settings!$G$32*Settings!$G$18</f>
+        <v>24.440189478322718</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B10" s="14">
         <f>Settings!B5</f>
@@ -4849,16 +4987,23 @@
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="1">
+        <f>B10*Settings!$G$32*Settings!$G$18</f>
+        <v>40.733649130537863</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B11" s="14">
         <f>Settings!B8</f>
@@ -4868,16 +5013,23 @@
         <f>Settings!C8</f>
         <v>t ha-1 yr-1 deg-1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="1">
+        <f>B11*Settings!$G$32*Settings!$G$18</f>
+        <v>-0.40733649130537863</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B12" s="14">
         <f>Settings!B9</f>
@@ -4887,16 +5039,23 @@
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="1">
+        <f>B12*Settings!$G$32*Settings!$G$18</f>
+        <v>40.594245813869357</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" s="14">
         <f>Settings!B18</f>
@@ -4906,16 +5065,16 @@
         <f>Settings!C18</f>
         <v>Pg yr-1</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" s="14">
         <f>Settings!B20</f>
@@ -4925,16 +5084,16 @@
         <f>Settings!C20</f>
         <v>Pg yr-1</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B15" s="14">
         <f>Settings!B24</f>
@@ -4944,16 +5103,16 @@
         <f>Settings!C24</f>
         <v>ha emp-1</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B16" s="14">
         <f>Settings!B25</f>
@@ -4963,16 +5122,16 @@
         <f>Settings!C25</f>
         <v>$ yr-1</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B17" s="14">
         <f>Settings!B26</f>
@@ -4982,16 +5141,16 @@
         <f>Settings!C26</f>
         <v>opex yr-1</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B18" s="14">
         <f>Settings!B22</f>
@@ -5001,16 +5160,16 @@
         <f>Settings!C22</f>
         <v>$ ha-1</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19" s="14">
         <f>Settings!B23</f>
@@ -5020,16 +5179,16 @@
         <f>Settings!C23</f>
         <v>$ ha-1</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B20" s="14">
         <f>Settings!B27</f>
@@ -5039,16 +5198,16 @@
         <f>Settings!C27</f>
         <v>$ ha-1 yr-1</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B21" s="14">
         <f>Settings!B28</f>
@@ -5058,16 +5217,16 @@
         <f>Settings!C28</f>
         <v>$ ha-1 yr-1</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B22" s="14">
         <f>Settings!B29</f>
@@ -5077,16 +5236,16 @@
         <f>Settings!C29</f>
         <v>yr</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B23" s="14">
         <f>Settings!B30</f>
@@ -5096,16 +5255,16 @@
         <f>Settings!C30</f>
         <v>yr</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B24" s="14">
         <f>Settings!B31</f>
@@ -5115,16 +5274,16 @@
         <f>Settings!C31</f>
         <v>prp</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B25" s="14">
         <f>Settings!B32</f>
@@ -5134,16 +5293,16 @@
         <f>Settings!C32</f>
         <v>yr</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B26" s="14">
         <f>Settings!B33</f>
@@ -5153,16 +5312,16 @@
         <f>Settings!C33</f>
         <v>yr</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B27" s="14">
         <f>Settings!B34</f>
@@ -5172,11 +5331,11 @@
         <f>Settings!C34</f>
         <v>yr</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>117</v>
+      <c r="F27" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5212,30 +5371,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="10">
         <v>146.7885378</v>
@@ -5244,18 +5403,18 @@
         <v>-19.257637299999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B3" s="10">
         <v>-80.457524599999999</v>
@@ -5264,21 +5423,21 @@
         <v>26.657368099999999</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B4" s="10">
         <v>-74.539295999999993</v>
@@ -5287,16 +5446,16 @@
         <v>40.372374000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="10">
         <v>-76.328950000000006</v>
@@ -5305,16 +5464,16 @@
         <v>37.855311</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B6" s="10">
         <v>-120.9</v>
@@ -5323,16 +5482,16 @@
         <v>50.8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" s="10">
         <v>-119.7</v>
@@ -5341,16 +5500,16 @@
         <v>50.8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="10">
         <v>-64.7</v>
@@ -5359,16 +5518,16 @@
         <v>17.45</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E8" s="10"/>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B9" s="10">
         <v>120.3</v>
@@ -5377,16 +5536,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" s="10"/>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="10">
         <v>117.786311</v>
@@ -5395,16 +5554,16 @@
         <v>24.520453</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B11" s="10">
         <v>-121.132778</v>
@@ -5413,21 +5572,21 @@
         <v>37.473056</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10">
         <v>-80.408696000000006</v>
@@ -5436,16 +5595,16 @@
         <v>27.427821999999999</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="10"/>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="10">
         <v>-80.427214000000006</v>
@@ -5454,16 +5613,16 @@
         <v>37.223215000000003</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -5472,21 +5631,21 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B15" s="10">
         <v>-80.907136899999998</v>
@@ -5495,21 +5654,21 @@
         <v>27.213987700000001</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -5518,15 +5677,15 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="10">
         <v>-81.880556400000003</v>
@@ -5535,21 +5694,21 @@
         <v>26.674672000000001</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="10">
         <v>-80.853750700000006</v>
@@ -5558,21 +5717,21 @@
         <v>27.329125999999999</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -5581,21 +5740,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -5604,21 +5763,21 @@
         <v>27.592262000000002</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -5627,21 +5786,21 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B22" s="10">
         <v>-80.479466200000005</v>
@@ -5650,21 +5809,21 @@
         <v>27.609477500000001</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B23" s="10">
         <v>-81.445307999999997</v>
@@ -5673,21 +5832,21 @@
         <v>28.5647631</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B24" s="10">
         <v>-82.477197000000004</v>
@@ -5696,21 +5855,21 @@
         <v>29.923072999999999</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B25" s="10">
         <v>-85.024425500000007</v>
@@ -5719,21 +5878,21 @@
         <v>34.827157800000002</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -5742,21 +5901,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -5765,21 +5924,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -5788,21 +5947,21 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B29" s="10">
         <v>-73.828925999999996</v>
@@ -5811,21 +5970,21 @@
         <v>40.584173399999997</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" s="10">
         <v>3.5740601999999999</v>
@@ -5834,16 +5993,16 @@
         <v>51.082552</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" s="10">
         <v>16.430962999999998</v>
@@ -5852,16 +6011,16 @@
         <v>48.197578999999998</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E31" s="10"/>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>146.80000000000001</v>
@@ -5870,12 +6029,12 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" s="10">
         <v>-76.900000000000006</v>
@@ -5884,16 +6043,16 @@
         <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E33" s="10"/>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="10">
         <v>-76.713593000000003</v>
@@ -5902,16 +6061,16 @@
         <v>38.784427000000001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E34" s="10"/>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>-76.457588999999999</v>
@@ -5920,15 +6079,15 @@
         <v>39.131529</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>-76.268676999999997</v>
@@ -5937,15 +6096,15 @@
         <v>39.449888999999999</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="10">
         <v>-76.188846600000005</v>
@@ -5954,16 +6113,16 @@
         <v>38.609043200000002</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E37" s="10"/>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="10">
         <v>-76.382262999999995</v>
@@ -5972,21 +6131,21 @@
         <v>37.247632000000003</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="10">
         <v>-94.1666666666667</v>
@@ -5995,21 +6154,21 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="10">
         <v>-94.089297000000002</v>
@@ -6018,21 +6177,21 @@
         <v>36.080810999999997</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="10">
         <v>-82.323492000000002</v>
@@ -6041,16 +6200,16 @@
         <v>29.645575999999998</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E41" s="10"/>
       <c r="G41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B42" s="10">
         <v>-98.806156999999999</v>
@@ -6059,21 +6218,21 @@
         <v>29.491195399999999</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B43" s="10">
         <v>16.163287777777775</v>
@@ -6082,16 +6241,16 @@
         <v>51.627626666666664</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E43" s="10"/>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -6100,21 +6259,21 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B45" s="10">
         <v>-75.900000000000006</v>
@@ -6123,11 +6282,11 @@
         <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6157,8 +6316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6166,9 +6325,9 @@
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
@@ -6182,83 +6341,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="A1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+        <v>221</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="17">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="17">
         <v>365.25</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="20" t="str">
+      <c r="A3" s="16" t="str">
         <f>A2</f>
         <v>ATS productivity (high lat)</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <f>B2*$G$2*$G$3/$G$4</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="17">
         <f>100*100</f>
         <v>10000</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>105</v>
+      <c r="H3" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="17">
         <v>25</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <v>1000000</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6272,535 +6431,538 @@
         <v>91.3125</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="F5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="13">
         <v>1000</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>6</v>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B6" s="13">
         <v>40</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="F6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000000000000</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B7" s="13">
         <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1000000000000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
+      <c r="F7" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B8" s="13">
         <f>(B5-B3)/(B7-B6)</f>
         <v>-0.91312499999999996</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="12"/>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>1000000000000000</v>
+        <f>(G9+2*G11)/G9</f>
+        <v>3.6641245524935475</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B9" s="13">
         <v>91</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="1">
-        <f>G3*G2/G4</f>
-        <v>3.6524999999999999</v>
-      </c>
-      <c r="H9" t="s">
-        <v>102</v>
+      <c r="F9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="13">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B10" s="13">
         <v>410</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="F10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
+      <c r="F10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="13">
+        <v>14.007</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="21">
-        <f>B10*G32</f>
+      <c r="A11" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="17">
+        <f>B10*G30</f>
         <v>873300000000</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1">
-        <f>(G12+2*G14)/G12</f>
-        <v>3.6641245524935475</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
+      <c r="D11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="13">
+        <v>15.9994</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12.010999999999999</v>
-      </c>
-      <c r="H12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="13">
+        <v>30.97</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B12*G30</f>
+        <v>4260000000</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="F13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="F14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="19">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="21">
-        <f>B12*G32</f>
-        <v>4260000000</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="1">
-        <v>14.007</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="1">
-        <v>15.9994</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1">
-        <v>30.97</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="23">
-        <v>5</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.26417200000000002</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>75845109000000</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="14">
-        <v>107500000000000</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="13">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>113</v>
+      <c r="G17" s="14">
+        <v>2.47105</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="13">
         <v>104.9</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="13">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>114</v>
+        <v>292</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="14">
+        <f>1/G17</f>
+        <v>0.40468626697153032</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="14">
-        <f>B18*$G$8/$G$6</f>
+      <c r="A19" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="17">
+        <f>B18*$G$6/$G$5</f>
         <v>104900000000000</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="5"/>
+      <c r="C19" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="16"/>
       <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="G19" s="14">
-        <v>0.26417200000000002</v>
+        <f>1/2.54</f>
+        <v>0.39370078740157477</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20" s="13">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="G20" s="14">
-        <v>2.47105</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>23</v>
+        <v>3.28084</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="14">
-        <f>B20*$G$8/$G$6</f>
+      <c r="A21" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="17">
+        <f>B20*$G$6/$G$5</f>
         <v>8000000000000</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="5"/>
+      <c r="C21" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="16"/>
       <c r="F21" s="5" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="G21" s="14">
-        <f>1/2.54</f>
-        <v>0.39370078740157477</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>92</v>
+        <v>1.3079499999999999</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="13">
         <v>250000</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="G22" s="14">
-        <v>3.28084</v>
+        <f>1000000*G23/2000</f>
+        <v>1.1023099999999999</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="13">
         <v>1000000</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="G23" s="14">
-        <v>1.3079499999999999</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>219</v>
+        <f>0.00220462</f>
+        <v>2.20462E-3</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="13">
         <v>5</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G24" s="14">
-        <f>1000000*G25/2000</f>
-        <v>1.1023099999999999</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>94</v>
+        <v>9.2902999999999998E-6</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="13">
         <v>100000</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G25" s="14">
-        <f>0.00220462</f>
-        <v>2.20462E-3</v>
+        <v>5280</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="13">
         <v>0.05</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="G26" s="14">
-        <v>9.2902999999999998E-6</v>
+        <v>0.453592</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="13">
         <f>(B$25/B$24)+B22*B$26</f>
         <v>32500</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="12"/>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="G27" s="14">
-        <v>5280</v>
+        <v>6.4515999999999998E-4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="13">
         <f>(B$25/B$24)+B23*B$26</f>
         <v>70000</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="12"/>
       <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0.453592</v>
+        <v>14</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.60934</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>6</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B29" s="13">
         <v>40</v>
@@ -6809,22 +6971,22 @@
         <v>0</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="G29" s="14">
-        <v>6.4515999999999998E-4</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B30" s="13">
         <v>20</v>
@@ -6833,44 +6995,45 @@
         <v>0</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1.60934</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="17">
+        <v>2130000000</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="13">
         <v>0.1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="G31" s="14">
-        <v>1000</v>
+        <f>1000/G26</f>
+        <v>2204.6244201837776</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B32" s="13">
         <v>50</v>
@@ -6879,21 +7042,22 @@
         <v>0</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G32" s="21">
-        <v>2130000000</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>289</v>
+        <v>269</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="14">
+        <f>G31/2000</f>
+        <v>1.1023122100918887</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B33" s="13">
         <v>100</v>
@@ -6902,15 +7066,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+        <v>269</v>
+      </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B34" s="13">
         <v>200</v>
@@ -6919,11 +7080,8 @@
         <v>0</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+        <v>269</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5"/>
@@ -6932,26 +7090,26 @@
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="A36" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -6962,7 +7120,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="14">
-        <f>G12*B38</f>
+        <f>G9*B38</f>
         <v>1273.1659999999999</v>
       </c>
       <c r="D38" s="14">
@@ -6978,7 +7136,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="14">
-        <f>G13*B39</f>
+        <f>G10*B39</f>
         <v>224.11199999999999</v>
       </c>
       <c r="D39" s="14">
@@ -6994,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <f>G15*B40</f>
+        <f>G12*B40</f>
         <v>30.97</v>
       </c>
       <c r="D40" s="1">
@@ -7017,11 +7175,11 @@
     <row r="60" spans="5:5">
       <c r="E60" s="1"/>
     </row>
-    <row r="86" spans="8:9">
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="8:9">
-      <c r="H87" s="7"/>
+    <row r="83" spans="8:9">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="8:9">
+      <c r="H84" s="7"/>
     </row>
     <row r="92" spans="8:9">
       <c r="I92" s="4"/>
@@ -7064,76 +7222,76 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
       </c>
       <c r="N1">
         <v>3.7854100000000002</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2">
         <v>1000000</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7142,7 +7300,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>760</v>
@@ -7167,28 +7325,28 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2">
         <f>N2/N1</f>
         <v>264172.17685798893</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
       </c>
       <c r="T3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -7197,7 +7355,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>11000</v>
@@ -7222,29 +7380,29 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <f>24*60</f>
         <v>1440</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
         <v>42.239125000000001</v>
       </c>
       <c r="T4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>4500</v>
@@ -7269,28 +7427,28 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <f>10*N1</f>
         <v>37.854100000000003</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" s="1">
         <v>2.8</v>
       </c>
       <c r="T5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>9385</v>
@@ -7315,28 +7473,28 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <f>N5</f>
         <v>37.854100000000003</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S6" s="1">
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>2800</v>
@@ -7370,19 +7528,19 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S7" s="1">
         <f>S6*S5</f>
         <v>0.97999999999999987</v>
       </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>3400</v>
@@ -7407,25 +7565,25 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <f>N6*1000000/N7</f>
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
       </c>
       <c r="T8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>2750</v>
@@ -7450,28 +7608,28 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="2">
         <f>N8/K13</f>
         <v>85.658420571428564</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9" s="1">
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>1550</v>
@@ -7496,19 +7654,19 @@
       </c>
       <c r="L10" s="2"/>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S10" s="1">
         <f>S9*S8</f>
         <v>0.10400000000000001</v>
       </c>
       <c r="T10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>1650</v>
@@ -7533,26 +7691,26 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S11" s="1">
-        <f>S7/Settings!G17</f>
+        <f>S7/Settings!G14</f>
         <v>20.416666666666664</v>
       </c>
       <c r="T11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S12" s="1">
-        <f>S10/Settings!$G$18</f>
+        <f>S10/Settings!$G$15</f>
         <v>34.666666666666671</v>
       </c>
       <c r="T12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -7566,81 +7724,81 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
         <v>2.0688551020408168</v>
       </c>
       <c r="T13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
         <v>1.218436298076923</v>
       </c>
       <c r="T14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
       </c>
       <c r="T18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
         <v>84.334187499999999</v>
       </c>
       <c r="T19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
       </c>
       <c r="T20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
@@ -7652,163 +7810,163 @@
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S23" s="1">
-        <f>S22*Settings!$G$10</f>
+        <f>S22*Settings!$G$7</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="18:20">
       <c r="R26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S26" s="1">
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="18:20">
       <c r="R27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S27" s="1">
         <f>S26*S25</f>
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="18:20">
       <c r="R28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S28" s="1">
         <f>S27*Settings!$G$2</f>
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="18:20">
       <c r="R29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S29" s="1" t="e">
-        <f>S28/(Settings!$G$4*Settings!$G$37)</f>
+        <f>S28/(Settings!$G$4*Settings!$G$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="18:20">
       <c r="R30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S30" s="1" t="e">
         <f>S29/S21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S31" s="1" t="e">
-        <f>S30/Settings!$G$18</f>
+        <f>S30/Settings!$G$15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
       </c>
       <c r="T35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
         <v>68.354500000000002</v>
       </c>
       <c r="T36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
@@ -7819,127 +7977,127 @@
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S39" s="1">
-        <f>S38*Settings!$G$10</f>
+        <f>S38*Settings!$G$7</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="18:20">
       <c r="R42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S42" s="1">
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="18:20">
       <c r="R43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S43" s="1">
         <f>S42*S41</f>
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="18:20">
       <c r="R44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S44" s="1">
         <f>S43*Settings!$G$2</f>
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="18:20">
       <c r="R45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S45" s="1" t="e">
-        <f>S44/(Settings!$G$4*Settings!$G$37)</f>
+        <f>S44/(Settings!$G$4*Settings!$G$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="18:20">
       <c r="R46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S46" s="1" t="e">
         <f>S45/S37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S47" s="1" t="e">
-        <f>S46/Settings!$G$18</f>
+        <f>S46/Settings!$G$15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="18:20">
       <c r="R51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -7971,74 +8129,74 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
         <v>8766049.1899999995</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1">
-        <f>'Highway Costs'!B2*Settings!G31*Settings!G30</f>
+        <f>'Highway Costs'!B2*Settings!G29*Settings!G28</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B5" s="1">
-        <f>B4/Settings!G22</f>
+        <f>B4/Settings!G20</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
@@ -8050,7 +8208,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
@@ -8062,56 +8220,56 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
         <v>105423740057.83682</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
         <v>51442240042.163231</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
         <v>156865980100.00006</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="311">
   <si>
     <t>yr</t>
   </si>
@@ -377,27 +377,12 @@
     <t>ecol</t>
   </si>
   <si>
-    <t>hectares per employee</t>
-  </si>
-  <si>
-    <t>employee salary</t>
-  </si>
-  <si>
-    <t>maintenance proportion</t>
-  </si>
-  <si>
     <t>model high latitude</t>
   </si>
   <si>
     <t>model slope</t>
   </si>
   <si>
-    <t>high OPEX</t>
-  </si>
-  <si>
-    <t>low OPEX</t>
-  </si>
-  <si>
     <t>C:biomass ratio</t>
   </si>
   <si>
@@ -407,12 +392,6 @@
     <t>P:biomass ratio</t>
   </si>
   <si>
-    <t>low CAPEX</t>
-  </si>
-  <si>
-    <t>high CAPEX</t>
-  </si>
-  <si>
     <t>Growth rate, atmospheric CO2</t>
   </si>
   <si>
@@ -629,9 +608,6 @@
     <t>Kg</t>
   </si>
   <si>
-    <t>Kg yr-1</t>
-  </si>
-  <si>
     <t>Ag NPP</t>
   </si>
   <si>
@@ -951,6 +927,39 @@
   </si>
   <si>
     <t>lbP lbBiomass-1</t>
+  </si>
+  <si>
+    <t>T yr-1</t>
+  </si>
+  <si>
+    <t>ac emp-1</t>
+  </si>
+  <si>
+    <t>employee salary, fully encumbered</t>
+  </si>
+  <si>
+    <t>area per employee</t>
+  </si>
+  <si>
+    <t>maintenance proportion, estimated</t>
+  </si>
+  <si>
+    <t>low CapEx</t>
+  </si>
+  <si>
+    <t>high CapEx</t>
+  </si>
+  <si>
+    <t>low OpEx</t>
+  </si>
+  <si>
+    <t>high OpEx</t>
+  </si>
+  <si>
+    <t>$ ac-1</t>
+  </si>
+  <si>
+    <t>$ ac-1 yr-1</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1072,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1589">
+  <cellStyleXfs count="1605">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2696,7 +2721,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1589">
+  <cellStyles count="1605">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3491,6 +3516,14 @@
     <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4285,6 +4318,14 @@
     <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4725,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4736,7 +4777,7 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4751,10 +4792,10 @@
         <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>108</v>
@@ -4765,7 +4806,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B2" s="14">
         <f>Settings!G13</f>
@@ -4780,10 +4821,10 @@
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>115</v>
@@ -4791,7 +4832,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B3" s="14">
         <f>Settings!G14</f>
@@ -4806,10 +4847,10 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>115</v>
@@ -4817,7 +4858,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B4" s="14">
         <f>Settings!G15</f>
@@ -4832,10 +4873,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>115</v>
@@ -4843,7 +4884,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B5" s="14">
         <f>Settings!B10</f>
@@ -4853,16 +4894,10 @@
         <f>Settings!C10</f>
         <v>ppm</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f>C5</f>
-        <v>ppm</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>115</v>
@@ -4870,7 +4905,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B6" s="14">
         <f>Settings!B12</f>
@@ -4880,16 +4915,10 @@
         <f>Settings!C12</f>
         <v>ppm yr-1</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E8" si="1">C6</f>
-        <v>ppm yr-1</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>115</v>
@@ -4897,7 +4926,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B7" s="14">
         <f>Settings!B6</f>
@@ -4907,16 +4936,10 @@
         <f>Settings!C6</f>
         <v>deg</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>deg</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>115</v>
@@ -4924,7 +4947,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B8" s="14">
         <f>Settings!B7</f>
@@ -4934,16 +4957,10 @@
         <f>Settings!C7</f>
         <v>deg</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>deg</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>115</v>
@@ -4951,7 +4968,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B9" s="14">
         <f>Settings!B3</f>
@@ -4966,10 +4983,10 @@
         <v>24.440189478322718</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>115</v>
@@ -4977,7 +4994,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B10" s="14">
         <f>Settings!B5</f>
@@ -4992,10 +5009,10 @@
         <v>40.733649130537863</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>115</v>
@@ -5003,7 +5020,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B11" s="14">
         <f>Settings!B8</f>
@@ -5018,10 +5035,10 @@
         <v>-0.40733649130537863</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>115</v>
@@ -5029,7 +5046,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B12" s="14">
         <f>Settings!B9</f>
@@ -5044,10 +5061,10 @@
         <v>40.594245813869357</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>115</v>
@@ -5055,18 +5072,25 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B13" s="14">
-        <f>Settings!B18</f>
-        <v>104.9</v>
+        <f>Settings!B19</f>
+        <v>104900000000</v>
       </c>
       <c r="C13" s="14" t="str">
-        <f>Settings!C18</f>
-        <v>Pg yr-1</v>
+        <f>Settings!C19</f>
+        <v>t yr-1</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13*Settings!$G$32*Settings!$G$18</f>
+        <v>46794905339.284569</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>115</v>
@@ -5074,18 +5098,25 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B14" s="14">
-        <f>Settings!B20</f>
-        <v>8</v>
+        <f>Settings!B21</f>
+        <v>8000000000</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>Settings!C20</f>
-        <v>Pg yr-1</v>
+        <f>Settings!C21</f>
+        <v>t yr-1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14*Settings!$G$32*Settings!$G$18</f>
+        <v>3568724906.7137895</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>115</v>
@@ -5093,7 +5124,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B15" s="14">
         <f>Settings!B24</f>
@@ -5103,8 +5134,15 @@
         <f>Settings!C24</f>
         <v>ha emp-1</v>
       </c>
+      <c r="D15" s="1">
+        <f>B15*Settings!G17</f>
+        <v>12.35525</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>114</v>
@@ -5112,7 +5150,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B16" s="14">
         <f>Settings!B25</f>
@@ -5123,7 +5161,7 @@
         <v>$ yr-1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>114</v>
@@ -5131,7 +5169,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B17" s="14">
         <f>Settings!B26</f>
@@ -5142,7 +5180,7 @@
         <v>opex yr-1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>114</v>
@@ -5150,7 +5188,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B18" s="14">
         <f>Settings!B22</f>
@@ -5160,8 +5198,15 @@
         <f>Settings!C22</f>
         <v>$ ha-1</v>
       </c>
+      <c r="D18" s="1">
+        <f>B18/Settings!G$17</f>
+        <v>101171.56674288258</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>114</v>
@@ -5169,7 +5214,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B19" s="14">
         <f>Settings!B23</f>
@@ -5179,8 +5224,15 @@
         <f>Settings!C23</f>
         <v>$ ha-1</v>
       </c>
+      <c r="D19" s="1">
+        <f>B19/Settings!G$17</f>
+        <v>404686.26697153033</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>114</v>
@@ -5188,7 +5240,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B20" s="14">
         <f>Settings!B27</f>
@@ -5198,8 +5250,15 @@
         <f>Settings!C27</f>
         <v>$ ha-1 yr-1</v>
       </c>
+      <c r="D20" s="1">
+        <f>B20/Settings!G$17</f>
+        <v>13152.303676574735</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>114</v>
@@ -5207,7 +5266,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B21" s="14">
         <f>Settings!B28</f>
@@ -5217,8 +5276,15 @@
         <f>Settings!C28</f>
         <v>$ ha-1 yr-1</v>
       </c>
+      <c r="D21" s="1">
+        <f>B21/Settings!G$17</f>
+        <v>28328.038688007124</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>114</v>
@@ -5226,7 +5292,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B22" s="14">
         <f>Settings!B29</f>
@@ -5237,7 +5303,7 @@
         <v>yr</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>114</v>
@@ -5245,7 +5311,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B23" s="14">
         <f>Settings!B30</f>
@@ -5256,7 +5322,7 @@
         <v>yr</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>114</v>
@@ -5264,7 +5330,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B24" s="14">
         <f>Settings!B31</f>
@@ -5275,7 +5341,7 @@
         <v>prp</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>114</v>
@@ -5283,7 +5349,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B25" s="14">
         <f>Settings!B32</f>
@@ -5294,7 +5360,7 @@
         <v>yr</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>114</v>
@@ -5302,7 +5368,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B26" s="14">
         <f>Settings!B33</f>
@@ -5313,7 +5379,7 @@
         <v>yr</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>114</v>
@@ -5321,7 +5387,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B27" s="14">
         <f>Settings!B34</f>
@@ -5332,7 +5398,7 @@
         <v>yr</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>114</v>
@@ -5371,30 +5437,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B2" s="10">
         <v>146.7885378</v>
@@ -5403,18 +5469,18 @@
         <v>-19.257637299999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B3" s="10">
         <v>-80.457524599999999</v>
@@ -5423,21 +5489,21 @@
         <v>26.657368099999999</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B4" s="10">
         <v>-74.539295999999993</v>
@@ -5446,11 +5512,11 @@
         <v>40.372374000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5464,16 +5530,16 @@
         <v>37.855311</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B6" s="10">
         <v>-120.9</v>
@@ -5482,16 +5548,16 @@
         <v>50.8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B7" s="10">
         <v>-119.7</v>
@@ -5500,11 +5566,11 @@
         <v>50.8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5518,16 +5584,16 @@
         <v>17.45</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E8" s="10"/>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B9" s="10">
         <v>120.3</v>
@@ -5536,11 +5602,11 @@
         <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E9" s="10"/>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5554,16 +5620,16 @@
         <v>24.520453</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B11" s="10">
         <v>-121.132778</v>
@@ -5572,16 +5638,16 @@
         <v>37.473056</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5595,11 +5661,11 @@
         <v>27.427821999999999</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E12" s="10"/>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5613,16 +5679,16 @@
         <v>37.223215000000003</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -5631,21 +5697,21 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B15" s="10">
         <v>-80.907136899999998</v>
@@ -5654,21 +5720,21 @@
         <v>27.213987700000001</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -5677,15 +5743,15 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B17" s="10">
         <v>-81.880556400000003</v>
@@ -5694,21 +5760,21 @@
         <v>26.674672000000001</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B18" s="10">
         <v>-80.853750700000006</v>
@@ -5717,21 +5783,21 @@
         <v>27.329125999999999</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -5740,21 +5806,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -5763,21 +5829,21 @@
         <v>27.592262000000002</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -5786,21 +5852,21 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B22" s="10">
         <v>-80.479466200000005</v>
@@ -5809,21 +5875,21 @@
         <v>27.609477500000001</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B23" s="10">
         <v>-81.445307999999997</v>
@@ -5832,21 +5898,21 @@
         <v>28.5647631</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B24" s="10">
         <v>-82.477197000000004</v>
@@ -5855,21 +5921,21 @@
         <v>29.923072999999999</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B25" s="10">
         <v>-85.024425500000007</v>
@@ -5878,21 +5944,21 @@
         <v>34.827157800000002</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -5901,21 +5967,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -5924,21 +5990,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -5947,21 +6013,21 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B29" s="10">
         <v>-73.828925999999996</v>
@@ -5970,21 +6036,21 @@
         <v>40.584173399999997</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B30" s="10">
         <v>3.5740601999999999</v>
@@ -5993,16 +6059,16 @@
         <v>51.082552</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B31" s="10">
         <v>16.430962999999998</v>
@@ -6011,11 +6077,11 @@
         <v>48.197578999999998</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E31" s="10"/>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6029,12 +6095,12 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B33" s="10">
         <v>-76.900000000000006</v>
@@ -6043,11 +6109,11 @@
         <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E33" s="10"/>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6061,11 +6127,11 @@
         <v>38.784427000000001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E34" s="10"/>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6079,10 +6145,10 @@
         <v>39.131529</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6096,10 +6162,10 @@
         <v>39.449888999999999</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6113,11 +6179,11 @@
         <v>38.609043200000002</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E37" s="10"/>
       <c r="G37" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6131,16 +6197,16 @@
         <v>37.247632000000003</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6154,16 +6220,16 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6177,16 +6243,16 @@
         <v>36.080810999999997</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6200,16 +6266,16 @@
         <v>29.645575999999998</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E41" s="10"/>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B42" s="10">
         <v>-98.806156999999999</v>
@@ -6218,21 +6284,21 @@
         <v>29.491195399999999</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B43" s="10">
         <v>16.163287777777775</v>
@@ -6241,16 +6307,16 @@
         <v>51.627626666666664</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E43" s="10"/>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -6259,21 +6325,21 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B45" s="10">
         <v>-75.900000000000006</v>
@@ -6282,11 +6348,11 @@
         <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6316,8 +6382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6342,12 +6408,12 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="23" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>72</v>
@@ -6357,7 +6423,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17">
         <v>15</v>
@@ -6402,7 +6468,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B4" s="17">
         <v>25</v>
@@ -6435,7 +6501,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G5" s="13">
         <v>1000</v>
@@ -6446,7 +6512,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B6" s="13">
         <v>40</v>
@@ -6467,7 +6533,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B7" s="13">
         <v>0</v>
@@ -6477,7 +6543,7 @@
       </c>
       <c r="D7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G7" s="13">
         <v>1000</v>
@@ -6488,7 +6554,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B8" s="13">
         <f>(B5-B3)/(B7-B6)</f>
@@ -6511,7 +6577,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B9" s="13">
         <v>91</v>
@@ -6532,7 +6598,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B10" s="13">
         <v>410</v>
@@ -6553,7 +6619,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="17">
         <f>B10*G30</f>
@@ -6575,7 +6641,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
@@ -6584,7 +6650,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>71</v>
@@ -6599,7 +6665,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B13" s="17">
         <f>B12*G30</f>
@@ -6634,12 +6700,12 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>112</v>
@@ -6654,7 +6720,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B16" s="19">
         <v>5</v>
@@ -6663,7 +6729,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>21</v>
@@ -6687,7 +6753,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>2</v>
@@ -6702,7 +6768,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B18" s="13">
         <v>104.9</v>
@@ -6711,7 +6777,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>22</v>
@@ -6727,14 +6793,14 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B19" s="17">
-        <f>B18*$G$6/$G$5</f>
-        <v>104900000000000</v>
+        <f>B18*$G$6/$G$4</f>
+        <v>104900000000</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D19" s="16"/>
       <c r="F19" s="5" t="s">
@@ -6751,7 +6817,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B20" s="13">
         <v>8</v>
@@ -6760,10 +6826,10 @@
         <v>101</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G20" s="14">
         <v>3.28084</v>
@@ -6775,24 +6841,24 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B21" s="17">
-        <f>B20*$G$6/$G$5</f>
-        <v>8000000000000</v>
+        <f>B20*$G$6/$G$4</f>
+        <v>8000000000</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D21" s="16"/>
       <c r="F21" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G21" s="14">
         <v>1.3079499999999999</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -6806,7 +6872,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>91</v>
@@ -6831,7 +6897,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>5</v>
@@ -6856,7 +6922,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="5" t="s">
@@ -6881,7 +6947,7 @@
         <v>92</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>14</v>
@@ -6904,7 +6970,7 @@
         <v>106</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
@@ -6957,12 +7023,12 @@
         <v>1.60934</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B29" s="13">
         <v>40</v>
@@ -6971,22 +7037,22 @@
         <v>0</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G29" s="14">
         <v>1000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B30" s="13">
         <v>20</v>
@@ -6995,16 +7061,16 @@
         <v>0</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G30" s="17">
         <v>2130000000</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7015,10 +7081,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>4</v>
@@ -7033,7 +7099,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B32" s="13">
         <v>50</v>
@@ -7042,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>4</v>
@@ -7052,12 +7118,12 @@
         <v>1.1023122100918887</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B33" s="13">
         <v>100</v>
@@ -7066,12 +7132,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B34" s="13">
         <v>200</v>
@@ -7080,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7237,10 +7303,10 @@
         <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -7283,10 +7349,10 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="S2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -7335,7 +7401,7 @@
         <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
@@ -7390,7 +7456,7 @@
         <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
@@ -7489,7 +7555,7 @@
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -7572,7 +7638,7 @@
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
@@ -7624,7 +7690,7 @@
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7691,7 +7757,7 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="S11" s="1">
         <f>S7/Settings!G14</f>
@@ -7703,7 +7769,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S12" s="1">
         <f>S10/Settings!$G$15</f>
@@ -7724,47 +7790,47 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
         <v>2.0688551020408168</v>
       </c>
       <c r="T13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
         <v>1.218436298076923</v>
       </c>
       <c r="T14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
@@ -7775,7 +7841,7 @@
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
@@ -7787,7 +7853,7 @@
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
@@ -7798,7 +7864,7 @@
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
@@ -7810,48 +7876,48 @@
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S23" s="1">
         <f>S22*Settings!$G$7</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="18:20">
@@ -7862,7 +7928,7 @@
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="18:20">
@@ -7874,7 +7940,7 @@
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="18:20">
@@ -7886,7 +7952,7 @@
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="18:20">
@@ -7915,7 +7981,7 @@
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S31" s="1" t="e">
         <f>S30/Settings!$G$15</f>
@@ -7927,23 +7993,23 @@
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
@@ -7954,7 +8020,7 @@
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
@@ -7966,7 +8032,7 @@
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
@@ -7977,48 +8043,48 @@
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S39" s="1">
         <f>S38*Settings!$G$7</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="18:20">
@@ -8029,7 +8095,7 @@
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="18:20">
@@ -8041,7 +8107,7 @@
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="18:20">
@@ -8053,7 +8119,7 @@
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="18:20">
@@ -8082,7 +8148,7 @@
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S47" s="1" t="e">
         <f>S46/Settings!$G$15</f>
@@ -8129,7 +8195,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
@@ -8138,12 +8204,12 @@
         <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
@@ -8153,24 +8219,24 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B3" s="1">
         <f>'Highway Costs'!B2*Settings!G29*Settings!G28</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -8179,24 +8245,24 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B5" s="1">
         <f>B4/Settings!G20</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
@@ -8208,7 +8274,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
@@ -8220,7 +8286,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
@@ -8230,12 +8296,12 @@
         <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
@@ -8245,12 +8311,12 @@
         <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
@@ -8262,14 +8328,14 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="313">
   <si>
     <t>yr</t>
   </si>
@@ -960,6 +960,12 @@
   </si>
   <si>
     <t>$ ac-1 yr-1</t>
+  </si>
+  <si>
+    <t>non-Redfield</t>
+  </si>
+  <si>
+    <t>Redfield</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1078,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1605">
+  <cellStyleXfs count="1617">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2721,7 +2739,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1605">
+  <cellStyles count="1617">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3524,6 +3542,12 @@
     <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4326,6 +4350,12 @@
     <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4767,7 +4797,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4809,8 +4839,8 @@
         <v>235</v>
       </c>
       <c r="B2" s="14">
-        <f>Settings!G13</f>
-        <v>0.5</v>
+        <f>Settings!G16</f>
+        <v>0.83308860865513967</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>Settings!H13&amp;" "&amp;Settings!F13&amp;"-1"</f>
@@ -4818,7 +4848,7 @@
       </c>
       <c r="D2" s="1">
         <f>B2</f>
-        <v>0.5</v>
+        <v>0.83308860865513967</v>
       </c>
       <c r="E2" t="s">
         <v>297</v>
@@ -4835,16 +4865,16 @@
         <v>236</v>
       </c>
       <c r="B3" s="14">
-        <f>Settings!G14</f>
-        <v>4.8000000000000001E-2</v>
+        <f>Settings!G17</f>
+        <v>0.1466463558270647</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>Settings!H14&amp;" "&amp;Settings!F14&amp;"-1"</f>
         <v>gN gBiomass-1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D8" si="0">B3</f>
-        <v>4.8000000000000001E-2</v>
+        <f t="shared" ref="D3:D4" si="0">B3</f>
+        <v>0.1466463558270647</v>
       </c>
       <c r="E3" t="s">
         <v>298</v>
@@ -4861,8 +4891,8 @@
         <v>237</v>
       </c>
       <c r="B4" s="14">
-        <f>Settings!G15</f>
-        <v>3.0000000000000001E-3</v>
+        <f>Settings!G18</f>
+        <v>2.026503551779554E-2</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>Settings!H15&amp;" "&amp;Settings!F15&amp;"-1"</f>
@@ -4870,7 +4900,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.026503551779554E-2</v>
       </c>
       <c r="E4" t="s">
         <v>299</v>
@@ -4979,7 +5009,7 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*Settings!$G$32*Settings!$G$18</f>
+        <f>B9*Settings!$G$35*Settings!$G$21</f>
         <v>24.440189478322718</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -5005,7 +5035,7 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*Settings!$G$32*Settings!$G$18</f>
+        <f>B10*Settings!$G$35*Settings!$G$21</f>
         <v>40.733649130537863</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -5031,7 +5061,7 @@
         <v>t ha-1 yr-1 deg-1</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*Settings!$G$32*Settings!$G$18</f>
+        <f>B11*Settings!$G$35*Settings!$G$21</f>
         <v>-0.40733649130537863</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -5057,7 +5087,7 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*Settings!$G$32*Settings!$G$18</f>
+        <f>B12*Settings!$G$35*Settings!$G$21</f>
         <v>40.594245813869357</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5083,7 +5113,7 @@
         <v>t yr-1</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*Settings!$G$32*Settings!$G$18</f>
+        <f>B13*Settings!$G$35*Settings!$G$21</f>
         <v>46794905339.284569</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -5109,7 +5139,7 @@
         <v>t yr-1</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*Settings!$G$32*Settings!$G$18</f>
+        <f>B14*Settings!$G$35*Settings!$G$21</f>
         <v>3568724906.7137895</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -5135,7 +5165,7 @@
         <v>ha emp-1</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*Settings!G17</f>
+        <f>B15*Settings!G20</f>
         <v>12.35525</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -5199,7 +5229,7 @@
         <v>$ ha-1</v>
       </c>
       <c r="D18" s="1">
-        <f>B18/Settings!G$17</f>
+        <f>B18/Settings!G$20</f>
         <v>101171.56674288258</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -5225,7 +5255,7 @@
         <v>$ ha-1</v>
       </c>
       <c r="D19" s="1">
-        <f>B19/Settings!G$17</f>
+        <f>B19/Settings!G$20</f>
         <v>404686.26697153033</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -5251,7 +5281,7 @@
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D20" s="1">
-        <f>B20/Settings!G$17</f>
+        <f>B20/Settings!G$20</f>
         <v>13152.303676574735</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -5277,7 +5307,7 @@
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D21" s="1">
-        <f>B21/Settings!G$17</f>
+        <f>B21/Settings!G$20</f>
         <v>28328.038688007124</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -6382,8 +6412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6622,7 +6652,7 @@
         <v>286</v>
       </c>
       <c r="B11" s="17">
-        <f>B10*G30</f>
+        <f>B10*G33</f>
         <v>873300000000</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -6668,7 +6698,7 @@
         <v>283</v>
       </c>
       <c r="B13" s="17">
-        <f>B12*G30</f>
+        <f>B12*G33</f>
         <v>4260000000</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -6684,6 +6714,9 @@
       <c r="H13" s="12" t="s">
         <v>109</v>
       </c>
+      <c r="I13" t="s">
+        <v>311</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
@@ -6695,6 +6728,9 @@
       </c>
       <c r="H14" s="12" t="s">
         <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>311</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -6716,6 +6752,9 @@
       <c r="H15" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="I15" t="s">
+        <v>311</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
@@ -6731,14 +6770,18 @@
       <c r="D16" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.26417200000000002</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>26</v>
+      <c r="F16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="13">
+        <f>D38</f>
+        <v>0.83308860865513967</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" t="s">
+        <v>312</v>
       </c>
       <c r="K16" s="1"/>
     </row>
@@ -6755,14 +6798,18 @@
       <c r="D17" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="14">
-        <v>2.47105</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>22</v>
+      <c r="F17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="13">
+        <f>D39</f>
+        <v>0.1466463558270647</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>312</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -6779,17 +6826,19 @@
       <c r="D18" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="14">
-        <f>1/G17</f>
-        <v>0.40468626697153032</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1"/>
+      <c r="F18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="13">
+        <f>D40</f>
+        <v>2.026503551779554E-2</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
@@ -6804,14 +6853,13 @@
       </c>
       <c r="D19" s="16"/>
       <c r="F19" s="5" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G19" s="14">
-        <f>1/2.54</f>
-        <v>0.39370078740157477</v>
+        <v>0.26417200000000002</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -6829,13 +6877,13 @@
         <v>284</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="G20" s="14">
-        <v>3.28084</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>15</v>
+        <v>2.47105</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -6852,13 +6900,14 @@
       </c>
       <c r="D21" s="16"/>
       <c r="F21" s="5" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="G21" s="14">
-        <v>1.3079499999999999</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>208</v>
+        <f>1/G20</f>
+        <v>0.40468626697153032</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -6875,14 +6924,14 @@
         <v>261</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G22" s="14">
-        <f>1000000*G23/2000</f>
-        <v>1.1023099999999999</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>4</v>
+        <f>1/2.54</f>
+        <v>0.39370078740157477</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -6900,14 +6949,13 @@
         <v>261</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="G23" s="14">
-        <f>0.00220462</f>
-        <v>2.20462E-3</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>9</v>
+        <v>3.28084</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -6926,13 +6974,13 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="5" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="G24" s="14">
-        <v>9.2902999999999998E-6</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>2</v>
+        <v>1.3079499999999999</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -6950,13 +6998,14 @@
         <v>261</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G25" s="14">
-        <v>5280</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>15</v>
+        <f>1000000*G26/2000</f>
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6973,13 +7022,14 @@
         <v>261</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="14">
+        <f>0.00220462</f>
+        <v>2.20462E-3</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="G26" s="14">
-        <v>0.453592</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6995,13 +7045,13 @@
       </c>
       <c r="D27" s="12"/>
       <c r="F27" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G27" s="14">
-        <v>6.4515999999999998E-4</v>
+        <v>9.2902999999999998E-6</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -7019,11 +7069,11 @@
       <c r="F28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="5">
-        <v>1.60934</v>
+      <c r="G28" s="14">
+        <v>5280</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -7040,13 +7090,13 @@
         <v>261</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>266</v>
+        <v>9</v>
       </c>
       <c r="G29" s="14">
-        <v>1000</v>
+        <v>0.453592</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -7063,14 +7113,14 @@
       <c r="D30" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G30" s="17">
-        <v>2130000000</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>292</v>
+      <c r="F30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="14">
+        <v>6.4515999999999998E-4</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7087,14 +7137,13 @@
         <v>261</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="14">
-        <f>1000/G26</f>
-        <v>2204.6244201837776</v>
+        <v>14</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.60934</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -7111,14 +7160,13 @@
         <v>261</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="G32" s="14">
-        <f>G31/2000</f>
-        <v>1.1023122100918887</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7134,6 +7182,15 @@
       <c r="D33" s="12" t="s">
         <v>261</v>
       </c>
+      <c r="F33" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="17">
+        <v>2130000000</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="12" t="s">
@@ -7147,6 +7204,16 @@
       </c>
       <c r="D34" s="12" t="s">
         <v>261</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="14">
+        <f>1000/G29</f>
+        <v>2204.6244201837776</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7154,6 +7221,16 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="14">
+        <f>G34/2000</f>
+        <v>1.1023122100918887</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="25" t="s">
@@ -7960,8 +8037,8 @@
         <v>19</v>
       </c>
       <c r="S29" s="1" t="e">
-        <f>S28/(Settings!$G$4*Settings!$G$34)</f>
-        <v>#DIV/0!</v>
+        <f>S28/(Settings!$G$4*Settings!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="T29" t="s">
         <v>100</v>
@@ -7973,7 +8050,7 @@
       </c>
       <c r="S30" s="1" t="e">
         <f>S29/S21</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
@@ -7985,7 +8062,7 @@
       </c>
       <c r="S31" s="1" t="e">
         <f>S30/Settings!$G$15</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T31" t="s">
         <v>99</v>
@@ -8127,8 +8204,8 @@
         <v>19</v>
       </c>
       <c r="S45" s="1" t="e">
-        <f>S44/(Settings!$G$4*Settings!$G$34)</f>
-        <v>#DIV/0!</v>
+        <f>S44/(Settings!$G$4*Settings!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="T45" t="s">
         <v>100</v>
@@ -8140,7 +8217,7 @@
       </c>
       <c r="S46" s="1" t="e">
         <f>S45/S37</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T46" t="s">
         <v>99</v>
@@ -8152,7 +8229,7 @@
       </c>
       <c r="S47" s="1" t="e">
         <f>S46/Settings!$G$15</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T47" t="s">
         <v>99</v>
@@ -8227,7 +8304,7 @@
         <v>264</v>
       </c>
       <c r="B3" s="1">
-        <f>'Highway Costs'!B2*Settings!G29*Settings!G28</f>
+        <f>'Highway Costs'!B2*Settings!G32*Settings!G31</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
@@ -8253,7 +8330,7 @@
         <v>267</v>
       </c>
       <c r="B5" s="1">
-        <f>B4/Settings!G20</f>
+        <f>B4/Settings!G23</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764"/>
+    <workbookView xWindow="7240" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
@@ -1078,8 +1078,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1617">
+  <cellStyleXfs count="1619">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2739,7 +2741,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1617">
+  <cellStyles count="1619">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3548,6 +3550,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4356,6 +4359,7 @@
     <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4839,8 +4843,8 @@
         <v>235</v>
       </c>
       <c r="B2" s="14">
-        <f>Settings!G16</f>
-        <v>0.83308860865513967</v>
+        <f>Settings!G13</f>
+        <v>0.5</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>Settings!H13&amp;" "&amp;Settings!F13&amp;"-1"</f>
@@ -4848,7 +4852,7 @@
       </c>
       <c r="D2" s="1">
         <f>B2</f>
-        <v>0.83308860865513967</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>297</v>
@@ -4865,8 +4869,8 @@
         <v>236</v>
       </c>
       <c r="B3" s="14">
-        <f>Settings!G17</f>
-        <v>0.1466463558270647</v>
+        <f>Settings!G14</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>Settings!H14&amp;" "&amp;Settings!F14&amp;"-1"</f>
@@ -4874,7 +4878,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D4" si="0">B3</f>
-        <v>0.1466463558270647</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E3" t="s">
         <v>298</v>
@@ -4891,8 +4895,8 @@
         <v>237</v>
       </c>
       <c r="B4" s="14">
-        <f>Settings!G18</f>
-        <v>2.026503551779554E-2</v>
+        <f>Settings!G15</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>Settings!H15&amp;" "&amp;Settings!F15&amp;"-1"</f>
@@ -4900,7 +4904,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>2.026503551779554E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E4" t="s">
         <v>299</v>
@@ -6412,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764"/>
+    <workbookView xWindow="7240" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="314">
   <si>
     <t>yr</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Redfield Ratios</t>
-  </si>
-  <si>
     <t>Atom</t>
   </si>
   <si>
@@ -962,10 +959,16 @@
     <t>$ ac-1 yr-1</t>
   </si>
   <si>
-    <t>non-Redfield</t>
-  </si>
-  <si>
-    <t>Redfield</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Biomass Stoichiometry (Ebeling et al., 2006)</t>
+  </si>
+  <si>
+    <t>mol H</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1081,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1619">
+  <cellStyleXfs count="1627">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2741,7 +2752,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1619">
+  <cellStyles count="1627">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3551,6 +3562,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4360,6 +4375,10 @@
     <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4800,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4817,108 +4836,108 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
         <v>293</v>
       </c>
-      <c r="E1" t="s">
-        <v>294</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="14">
-        <f>Settings!G13</f>
-        <v>0.5</v>
+        <f>Settings!G14</f>
+        <v>0.35830664911296195</v>
       </c>
       <c r="C2" s="14" t="str">
-        <f>Settings!H13&amp;" "&amp;Settings!F13&amp;"-1"</f>
+        <f>Settings!H14&amp;" "&amp;Settings!F14&amp;"-1"</f>
         <v>gC gBiomass-1</v>
       </c>
       <c r="D2" s="1">
         <f>B2</f>
-        <v>0.5</v>
+        <v>0.35830664911296195</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="14">
-        <f>Settings!G14</f>
-        <v>4.8000000000000001E-2</v>
+        <f>Settings!G15</f>
+        <v>6.3071759492481047E-2</v>
       </c>
       <c r="C3" s="14" t="str">
-        <f>Settings!H14&amp;" "&amp;Settings!F14&amp;"-1"</f>
+        <f>Settings!H15&amp;" "&amp;Settings!F15&amp;"-1"</f>
         <v>gN gBiomass-1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D4" si="0">B3</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.3071759492481047E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="14">
-        <f>Settings!G15</f>
-        <v>3.0000000000000001E-3</v>
+        <f>Settings!G16</f>
+        <v>8.7158759525689748E-3</v>
       </c>
       <c r="C4" s="14" t="str">
-        <f>Settings!H15&amp;" "&amp;Settings!F15&amp;"-1"</f>
+        <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
         <v>gP gBiomass-1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>8.7158759525689748E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="14">
         <f>Settings!B10</f>
@@ -4931,15 +4950,15 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="14">
         <f>Settings!B12</f>
@@ -4952,15 +4971,15 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="14">
         <f>Settings!B6</f>
@@ -4973,15 +4992,15 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="14">
         <f>Settings!B7</f>
@@ -4994,15 +5013,15 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="14">
         <f>Settings!B3</f>
@@ -5013,22 +5032,22 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*Settings!$G$35*Settings!$G$21</f>
+        <f>B9*Settings!$G$33*Settings!$G$19</f>
         <v>24.440189478322718</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="14">
         <f>Settings!B5</f>
@@ -5039,22 +5058,22 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*Settings!$G$35*Settings!$G$21</f>
+        <f>B10*Settings!$G$33*Settings!$G$19</f>
         <v>40.733649130537863</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="14">
         <f>Settings!B8</f>
@@ -5065,22 +5084,22 @@
         <v>t ha-1 yr-1 deg-1</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*Settings!$G$35*Settings!$G$21</f>
+        <f>B11*Settings!$G$33*Settings!$G$19</f>
         <v>-0.40733649130537863</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="14">
         <f>Settings!B9</f>
@@ -5091,22 +5110,22 @@
         <v>t ha-1 yr-1</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*Settings!$G$35*Settings!$G$21</f>
+        <f>B12*Settings!$G$33*Settings!$G$19</f>
         <v>40.594245813869357</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="14">
         <f>Settings!B19</f>
@@ -5117,22 +5136,22 @@
         <v>t yr-1</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*Settings!$G$35*Settings!$G$21</f>
+        <f>B13*Settings!$G$33*Settings!$G$19</f>
         <v>46794905339.284569</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="14">
         <f>Settings!B21</f>
@@ -5143,22 +5162,22 @@
         <v>t yr-1</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*Settings!$G$35*Settings!$G$21</f>
+        <f>B14*Settings!$G$33*Settings!$G$19</f>
         <v>3568724906.7137895</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" s="14">
         <f>Settings!B24</f>
@@ -5169,22 +5188,22 @@
         <v>ha emp-1</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*Settings!G20</f>
+        <f>B15*Settings!G18</f>
         <v>12.35525</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B16" s="14">
         <f>Settings!B25</f>
@@ -5195,15 +5214,15 @@
         <v>$ yr-1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="14">
         <f>Settings!B26</f>
@@ -5214,15 +5233,15 @@
         <v>opex yr-1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="14">
         <f>Settings!B22</f>
@@ -5233,22 +5252,22 @@
         <v>$ ha-1</v>
       </c>
       <c r="D18" s="1">
-        <f>B18/Settings!G$20</f>
+        <f>B18/Settings!G$18</f>
         <v>101171.56674288258</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="14">
         <f>Settings!B23</f>
@@ -5259,22 +5278,22 @@
         <v>$ ha-1</v>
       </c>
       <c r="D19" s="1">
-        <f>B19/Settings!G$20</f>
+        <f>B19/Settings!G$18</f>
         <v>404686.26697153033</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" s="14">
         <f>Settings!B27</f>
@@ -5285,22 +5304,22 @@
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D20" s="1">
-        <f>B20/Settings!G$20</f>
+        <f>B20/Settings!G$18</f>
         <v>13152.303676574735</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" s="14">
         <f>Settings!B28</f>
@@ -5311,22 +5330,22 @@
         <v>$ ha-1 yr-1</v>
       </c>
       <c r="D21" s="1">
-        <f>B21/Settings!G$20</f>
+        <f>B21/Settings!G$18</f>
         <v>28328.038688007124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" s="14">
         <f>Settings!B29</f>
@@ -5337,15 +5356,15 @@
         <v>yr</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" s="14">
         <f>Settings!B30</f>
@@ -5356,15 +5375,15 @@
         <v>yr</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" s="14">
         <f>Settings!B31</f>
@@ -5375,15 +5394,15 @@
         <v>prp</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" s="14">
         <f>Settings!B32</f>
@@ -5394,15 +5413,15 @@
         <v>yr</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" s="14">
         <f>Settings!B33</f>
@@ -5413,15 +5432,15 @@
         <v>yr</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="14">
         <f>Settings!B34</f>
@@ -5432,10 +5451,10 @@
         <v>yr</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5471,30 +5490,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="10">
         <v>146.7885378</v>
@@ -5503,18 +5522,18 @@
         <v>-19.257637299999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="10">
         <v>-80.457524599999999</v>
@@ -5523,21 +5542,21 @@
         <v>26.657368099999999</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="10">
         <v>-74.539295999999993</v>
@@ -5546,16 +5565,16 @@
         <v>40.372374000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="10">
         <v>-76.328950000000006</v>
@@ -5564,16 +5583,16 @@
         <v>37.855311</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="10">
         <v>-120.9</v>
@@ -5582,16 +5601,16 @@
         <v>50.8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="10">
         <v>-119.7</v>
@@ -5600,16 +5619,16 @@
         <v>50.8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="10">
         <v>-64.7</v>
@@ -5618,16 +5637,16 @@
         <v>17.45</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="10"/>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="10">
         <v>120.3</v>
@@ -5636,16 +5655,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="10"/>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="10">
         <v>117.786311</v>
@@ -5654,16 +5673,16 @@
         <v>24.520453</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="10">
         <v>-121.132778</v>
@@ -5672,21 +5691,21 @@
         <v>37.473056</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="10">
         <v>-80.408696000000006</v>
@@ -5695,16 +5714,16 @@
         <v>27.427821999999999</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="10"/>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="10">
         <v>-80.427214000000006</v>
@@ -5713,16 +5732,16 @@
         <v>37.223215000000003</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -5731,21 +5750,21 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
         <v>152</v>
       </c>
-      <c r="F14" t="s">
-        <v>153</v>
-      </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="10">
         <v>-80.907136899999998</v>
@@ -5754,21 +5773,21 @@
         <v>27.213987700000001</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -5777,15 +5796,15 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="10">
         <v>-81.880556400000003</v>
@@ -5794,21 +5813,21 @@
         <v>26.674672000000001</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="10">
         <v>-80.853750700000006</v>
@@ -5817,21 +5836,21 @@
         <v>27.329125999999999</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -5840,21 +5859,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -5863,21 +5882,21 @@
         <v>27.592262000000002</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -5886,21 +5905,21 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="10">
         <v>-80.479466200000005</v>
@@ -5909,21 +5928,21 @@
         <v>27.609477500000001</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="10">
         <v>-81.445307999999997</v>
@@ -5932,21 +5951,21 @@
         <v>28.5647631</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="10">
         <v>-82.477197000000004</v>
@@ -5955,21 +5974,21 @@
         <v>29.923072999999999</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="10">
         <v>-85.024425500000007</v>
@@ -5978,21 +5997,21 @@
         <v>34.827157800000002</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -6001,21 +6020,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
         <v>150</v>
       </c>
-      <c r="F26" t="s">
-        <v>151</v>
-      </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -6024,21 +6043,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -6047,21 +6066,21 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="10">
         <v>-73.828925999999996</v>
@@ -6070,21 +6089,21 @@
         <v>40.584173399999997</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="10">
         <v>3.5740601999999999</v>
@@ -6093,16 +6112,16 @@
         <v>51.082552</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="10">
         <v>16.430962999999998</v>
@@ -6111,16 +6130,16 @@
         <v>48.197578999999998</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="10"/>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32">
         <v>146.80000000000001</v>
@@ -6129,12 +6148,12 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="10">
         <v>-76.900000000000006</v>
@@ -6143,16 +6162,16 @@
         <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="10"/>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="10">
         <v>-76.713593000000003</v>
@@ -6161,16 +6180,16 @@
         <v>38.784427000000001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="10"/>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>-76.457588999999999</v>
@@ -6179,15 +6198,15 @@
         <v>39.131529</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>-76.268676999999997</v>
@@ -6196,15 +6215,15 @@
         <v>39.449888999999999</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="10">
         <v>-76.188846600000005</v>
@@ -6213,16 +6232,16 @@
         <v>38.609043200000002</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="10"/>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="10">
         <v>-76.382262999999995</v>
@@ -6231,21 +6250,21 @@
         <v>37.247632000000003</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="10">
         <v>-94.1666666666667</v>
@@ -6254,21 +6273,21 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="10">
         <v>-94.089297000000002</v>
@@ -6277,21 +6296,21 @@
         <v>36.080810999999997</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="10">
         <v>-82.323492000000002</v>
@@ -6300,16 +6319,16 @@
         <v>29.645575999999998</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" s="10"/>
       <c r="G41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="10">
         <v>-98.806156999999999</v>
@@ -6318,21 +6337,21 @@
         <v>29.491195399999999</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="10">
         <v>16.163287777777775</v>
@@ -6341,16 +6360,16 @@
         <v>51.627626666666664</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E43" s="10"/>
       <c r="G43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -6359,21 +6378,21 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="10">
         <v>-75.900000000000006</v>
@@ -6382,11 +6401,11 @@
         <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6414,10 +6433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6442,28 +6461,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17">
         <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="16"/>
       <c r="F2" s="16" t="s">
@@ -6486,7 +6505,7 @@
         <v>54.787500000000001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="16"/>
       <c r="F3" s="16" t="s">
@@ -6497,18 +6516,18 @@
         <v>10000</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="17">
         <v>25</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="16"/>
       <c r="F4" s="16" t="s">
@@ -6531,11 +6550,11 @@
         <v>91.3125</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="13">
         <v>1000</v>
@@ -6546,13 +6565,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="13">
         <v>40</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -6567,17 +6586,17 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="13">
         <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="13">
         <v>1000</v>
@@ -6588,21 +6607,21 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="13">
         <f>(B5-B3)/(B7-B6)</f>
         <v>-0.91312499999999996</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="12"/>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
-        <f>(G9+2*G11)/G9</f>
+        <f>(G9+2*G12)/G9</f>
         <v>3.6641245524935475</v>
       </c>
       <c r="H8" t="s">
@@ -6611,17 +6630,17 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="13">
         <v>91</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="13">
         <v>12.010999999999999</v>
@@ -6632,7 +6651,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="13">
         <v>410</v>
@@ -6642,10 +6661,10 @@
       </c>
       <c r="D10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>70</v>
+        <v>313</v>
       </c>
       <c r="G10" s="13">
-        <v>14.007</v>
+        <v>1.008</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>5</v>
@@ -6653,10 +6672,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="17">
-        <f>B10*G33</f>
+        <f>B10*G31</f>
         <v>873300000000</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -6664,10 +6683,10 @@
       </c>
       <c r="D11" s="17"/>
       <c r="F11" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" s="13">
-        <v>15.9994</v>
+        <v>14.007</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>5</v>
@@ -6675,22 +6694,22 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="13">
-        <v>30.97</v>
+        <v>15.9994</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>5</v>
@@ -6699,71 +6718,64 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" s="17">
-        <f>B12*G33</f>
+        <f>B12*G31</f>
         <v>4260000000</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="16"/>
       <c r="F13" s="12" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G13" s="13">
-        <v>0.5</v>
+        <v>30.97</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" t="s">
-        <v>311</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
       <c r="F14" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="13">
-        <v>4.8000000000000001E-2</v>
+        <f>D38</f>
+        <v>0.35830664911296195</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="13">
-        <v>3.0000000000000001E-3</v>
+        <f>D41</f>
+        <v>6.3071759492481047E-2</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" t="s">
-        <v>311</v>
+        <v>109</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="19">
         <v>5</v>
@@ -6772,20 +6784,17 @@
         <v>2</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="13">
-        <f>D38</f>
-        <v>0.83308860865513967</v>
+        <f>D42</f>
+        <v>8.7158759525689748E-3</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1"/>
     </row>
@@ -6797,121 +6806,114 @@
         <v>75845109000000</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="13">
-        <f>D39</f>
-        <v>0.1466463558270647</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" t="s">
-        <v>312</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.26417200000000002</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="13">
         <v>104.9</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="13">
-        <f>D40</f>
-        <v>2.026503551779554E-2</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" t="s">
-        <v>312</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <v>2.47105</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="17">
         <f>B18*$G$6/$G$4</f>
         <v>104900000000</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="16"/>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="14">
-        <v>0.26417200000000002</v>
+        <f>1/G18</f>
+        <v>0.40468626697153032</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="13">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="G20" s="14">
-        <v>2.47105</v>
+        <f>1/2.54</f>
+        <v>0.39370078740157477</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="17">
         <f>B20*$G$6/$G$4</f>
         <v>8000000000</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="16"/>
       <c r="F21" s="5" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="G21" s="14">
-        <f>1/G20</f>
-        <v>0.40468626697153032</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>2</v>
+        <v>3.28084</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -6922,20 +6924,19 @@
         <v>250000</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="G22" s="14">
-        <f>1/2.54</f>
-        <v>0.39370078740157477</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>90</v>
+        <v>1.3079499999999999</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -6947,19 +6948,20 @@
         <v>1000000</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="G23" s="14">
-        <v>3.28084</v>
+        <f>1000000*G24/2000</f>
+        <v>1.1023099999999999</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -6971,20 +6973,21 @@
         <v>5</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="5" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="G24" s="14">
-        <v>1.3079499999999999</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>208</v>
+        <f>0.00220462</f>
+        <v>2.20462E-3</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -6996,20 +6999,19 @@
         <v>100000</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G25" s="14">
-        <f>1000000*G26/2000</f>
-        <v>1.1023099999999999</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>4</v>
+        <v>9.2902999999999998E-6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7020,20 +7022,19 @@
         <v>0.05</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G26" s="14">
-        <f>0.00220462</f>
-        <v>2.20462E-3</v>
+        <v>5280</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7045,18 +7046,19 @@
         <v>32500</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="12"/>
       <c r="F27" s="5" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="G27" s="14">
-        <v>9.2902999999999998E-6</v>
+        <v>0.453592</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="12" t="s">
@@ -7067,22 +7069,22 @@
         <v>70000</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="12"/>
       <c r="F28" s="5" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G28" s="14">
-        <v>5280</v>
+        <v>6.4515999999999998E-4</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="13">
         <v>40</v>
@@ -7091,22 +7093,21 @@
         <v>0</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="14">
-        <v>0.453592</v>
+        <v>14</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.60934</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="1"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="13">
         <v>20</v>
@@ -7115,16 +7116,16 @@
         <v>0</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="G30" s="14">
-        <v>6.4515999999999998E-4</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -7135,24 +7136,24 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1.60934</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2130000000</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="13">
         <v>50</v>
@@ -7161,21 +7162,22 @@
         <v>0</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="G32" s="14">
-        <v>1000</v>
+        <f>1000/G27</f>
+        <v>2204.6244201837776</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="13">
         <v>100</v>
@@ -7184,21 +7186,22 @@
         <v>0</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="14">
+        <f>G32/2000</f>
+        <v>1.1023122100918887</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="G33" s="17">
-        <v>2130000000</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="13">
         <v>200</v>
@@ -7207,17 +7210,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="14">
-        <f>1000/G29</f>
-        <v>2204.6244201837776</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7225,20 +7218,10 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="14">
-        <f>G34/2000</f>
-        <v>1.1023122100918887</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="25" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -7247,16 +7230,16 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -7271,50 +7254,82 @@
         <v>1273.1659999999999</v>
       </c>
       <c r="D38" s="14">
-        <f>C38/C$41</f>
-        <v>0.83308860865513967</v>
+        <f>C38/C$43</f>
+        <v>0.35830664911296195</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="B39" s="14">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="C39" s="14">
         <f>G10*B39</f>
+        <v>265.10399999999998</v>
+      </c>
+      <c r="D39" s="14">
+        <f>C39/C$43</f>
+        <v>7.4608123297702472E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" s="14">
+        <v>110</v>
+      </c>
+      <c r="C40" s="14">
+        <f>G12*B40</f>
+        <v>1759.934</v>
+      </c>
+      <c r="D40" s="14">
+        <f>C40/C$43</f>
+        <v>0.49529759214428565</v>
+      </c>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="14">
+        <v>16</v>
+      </c>
+      <c r="C41" s="14">
+        <f>G11*B41</f>
         <v>224.11199999999999</v>
       </c>
-      <c r="D39" s="14">
-        <f>C39/C$41</f>
-        <v>0.1466463558270647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
+      <c r="D41" s="14">
+        <f>C41/C$43</f>
+        <v>6.3071759492481047E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C40" s="1">
-        <f>G12*B40</f>
+      <c r="C42" s="1">
+        <f>G13*B42</f>
         <v>30.97</v>
       </c>
-      <c r="D40" s="1">
-        <f>C40/C$41</f>
-        <v>2.026503551779554E-2</v>
-      </c>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <f>SUM(C38:C40)</f>
-        <v>1528.248</v>
-      </c>
-      <c r="D41" s="1"/>
+      <c r="D42" s="1">
+        <f>C42/C$43</f>
+        <v>8.7158759525689748E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <f>SUM(C38:C42)</f>
+        <v>3553.2859999999996</v>
+      </c>
+      <c r="D43" s="1"/>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" s="1"/>
@@ -7322,17 +7337,17 @@
     <row r="60" spans="5:5">
       <c r="E60" s="1"/>
     </row>
-    <row r="83" spans="8:9">
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="8:9">
-      <c r="H84" s="7"/>
-    </row>
-    <row r="92" spans="8:9">
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="8:9">
-      <c r="I93" s="8"/>
+    <row r="80" spans="8:8">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81" s="7"/>
+    </row>
+    <row r="89" spans="8:9">
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="8:9">
+      <c r="I90" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7384,10 +7399,10 @@
         <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -7430,10 +7445,10 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -7482,13 +7497,13 @@
         <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -7537,14 +7552,14 @@
         <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
         <v>42.239125000000001</v>
       </c>
       <c r="T4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -7590,7 +7605,7 @@
         <v>2.8</v>
       </c>
       <c r="T5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -7636,7 +7651,7 @@
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -7682,7 +7697,7 @@
         <v>0.97999999999999987</v>
       </c>
       <c r="T7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -7719,13 +7734,13 @@
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
       </c>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7771,7 +7786,7 @@
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7808,7 +7823,7 @@
         <v>0.10400000000000001</v>
       </c>
       <c r="T10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -7838,26 +7853,26 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S11" s="1">
-        <f>S7/Settings!G14</f>
-        <v>20.416666666666664</v>
+        <f>S7/Settings!G15</f>
+        <v>15.537857321339327</v>
       </c>
       <c r="T11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S12" s="1">
-        <f>S10/Settings!$G$15</f>
-        <v>34.666666666666671</v>
+        <f>S10/Settings!$G$16</f>
+        <v>11.93224875686148</v>
       </c>
       <c r="T12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -7871,81 +7886,81 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
-        <v>2.0688551020408168</v>
+        <v>2.7184652379314733</v>
       </c>
       <c r="T13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
-        <v>1.218436298076923</v>
+        <v>3.5399132100486055</v>
       </c>
       <c r="T14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
       </c>
       <c r="T18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
         <v>84.334187499999999</v>
       </c>
       <c r="T19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
       </c>
       <c r="T20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
@@ -7957,48 +7972,48 @@
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S23" s="1">
         <f>S22*Settings!$G$7</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="18:20">
@@ -8009,7 +8024,7 @@
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="18:20">
@@ -8021,7 +8036,7 @@
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="18:20">
@@ -8033,7 +8048,7 @@
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="18:20">
@@ -8045,7 +8060,7 @@
         <v>#REF!</v>
       </c>
       <c r="T29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="18:20">
@@ -8057,63 +8072,63 @@
         <v>#REF!</v>
       </c>
       <c r="T30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S31" s="1" t="e">
-        <f>S30/Settings!$G$15</f>
+        <f>S30/Settings!$G$16</f>
         <v>#REF!</v>
       </c>
       <c r="T31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
       </c>
       <c r="T35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
         <v>68.354500000000002</v>
       </c>
       <c r="T36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
@@ -8124,48 +8139,48 @@
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S39" s="1">
         <f>S38*Settings!$G$7</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="18:20">
@@ -8176,7 +8191,7 @@
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="18:20">
@@ -8188,7 +8203,7 @@
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="18:20">
@@ -8200,7 +8215,7 @@
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="18:20">
@@ -8212,7 +8227,7 @@
         <v>#REF!</v>
       </c>
       <c r="T45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="18:20">
@@ -8224,19 +8239,19 @@
         <v>#REF!</v>
       </c>
       <c r="T46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S47" s="1" t="e">
-        <f>S46/Settings!$G$15</f>
+        <f>S46/Settings!$G$16</f>
         <v>#REF!</v>
       </c>
       <c r="T47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="18:20">
@@ -8244,7 +8259,7 @@
         <v>23</v>
       </c>
       <c r="T51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8276,7 +8291,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
@@ -8285,12 +8300,12 @@
         <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
@@ -8300,24 +8315,24 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1">
-        <f>'Highway Costs'!B2*Settings!G32*Settings!G31</f>
+        <f>'Highway Costs'!B2*Settings!G30*Settings!G29</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -8326,24 +8341,24 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" s="1">
-        <f>B4/Settings!G23</f>
+        <f>B4/Settings!G21</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
@@ -8355,7 +8370,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
@@ -8367,56 +8382,56 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
         <v>105423740057.83682</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
         <v>51442240042.163231</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
         <v>156865980100.00006</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="314">
   <si>
     <t>yr</t>
   </si>
@@ -1081,8 +1081,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1627">
+  <cellStyleXfs count="1629">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2752,7 +2754,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1627">
+  <cellStyles count="1629">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3566,6 +3568,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4379,6 +4382,7 @@
     <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4820,7 +4824,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4940,15 +4944,19 @@
         <v>237</v>
       </c>
       <c r="B5" s="14">
-        <f>Settings!B10</f>
-        <v>410</v>
-      </c>
-      <c r="C5" s="14" t="str">
-        <f>Settings!C10</f>
-        <v>ppm</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <f>Settings!B11</f>
+        <v>873300000000</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <f>B5*Settings!G$33</f>
+        <v>962649253073.24646</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>121</v>
       </c>
@@ -4961,15 +4969,19 @@
         <v>238</v>
       </c>
       <c r="B6" s="14">
-        <f>Settings!B12</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="str">
-        <f>Settings!C12</f>
-        <v>ppm yr-1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <f>Settings!B13</f>
+        <v>4260000000</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6*Settings!G$33</f>
+        <v>4695850014.9914455</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>120</v>
       </c>
@@ -6435,8 +6447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="316">
   <si>
     <t>yr</t>
   </si>
@@ -969,6 +969,12 @@
   </si>
   <si>
     <t>mol H</t>
+  </si>
+  <si>
+    <t>t ha-1</t>
+  </si>
+  <si>
+    <t>T ac</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1087,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1629">
+  <cellStyleXfs count="1633">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2711,8 +2717,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2753,8 +2763,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1629">
+  <cellStyles count="1633">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3569,6 +3580,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4383,6 +4396,8 @@
     <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4824,7 +4839,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6447,8 +6462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7224,12 +7239,24 @@
       <c r="D34" s="12" t="s">
         <v>260</v>
       </c>
+      <c r="F34" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" s="1">
+        <f>G33*G18</f>
+        <v>2.7238685867475616</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="25" t="s">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764" activeTab="2"/>
+    <workbookView xWindow="7240" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="317">
   <si>
     <t>yr</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>T ac</t>
+  </si>
+  <si>
+    <t>world_dp</t>
   </si>
 </sst>
 </file>
@@ -2751,6 +2754,7 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2763,7 +2767,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1633">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4836,10 +4839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5482,6 +5485,18 @@
       </c>
       <c r="G27" s="5" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="1">
+        <f>Settings!B17</f>
+        <v>75845109000000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6462,7 +6477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -6487,19 +6502,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
@@ -6780,11 +6795,11 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="15" t="s">
         <v>212</v>
       </c>
@@ -7249,7 +7264,7 @@
       <c r="H34" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="I34" s="26"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5"/>
@@ -7259,12 +7274,12 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:13">

--- a/Data/Spreadsheets/EACCRPBT.xlsx
+++ b/Data/Spreadsheets/EACCRPBT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764"/>
+    <workbookView xWindow="7240" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="764" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R Variables" sheetId="12" r:id="rId1"/>
@@ -389,12 +389,6 @@
     <t>P:biomass ratio</t>
   </si>
   <si>
-    <t>Growth rate, atmospheric CO2</t>
-  </si>
-  <si>
-    <t>Baseline CO2 mass, atmosphere</t>
-  </si>
-  <si>
     <t>Kangas and Mulbry, 2013</t>
   </si>
   <si>
@@ -740,12 +734,6 @@
     <t>P_prp</t>
   </si>
   <si>
-    <t>CO2_bl</t>
-  </si>
-  <si>
-    <t>CO2_gr</t>
-  </si>
-  <si>
     <t>mod_lat_hi</t>
   </si>
   <si>
@@ -978,6 +966,18 @@
   </si>
   <si>
     <t>world_dp</t>
+  </si>
+  <si>
+    <t>Baseline C mass, atmosphere</t>
+  </si>
+  <si>
+    <t>Growth rate, atmospheric C</t>
+  </si>
+  <si>
+    <t>C_bl</t>
+  </si>
+  <si>
+    <t>C_gr</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,30 +1056,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2725,7 +2701,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2742,18 +2718,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4841,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4860,17 +4828,17 @@
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>107</v>
@@ -4881,13 +4849,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="14">
+        <v>232</v>
+      </c>
+      <c r="B2" s="12">
         <f>Settings!G14</f>
         <v>0.35830664911296195</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="12" t="str">
         <f>Settings!H14&amp;" "&amp;Settings!F14&amp;"-1"</f>
         <v>gC gBiomass-1</v>
       </c>
@@ -4896,7 +4864,7 @@
         <v>0.35830664911296195</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>117</v>
@@ -4907,13 +4875,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="14">
+        <v>233</v>
+      </c>
+      <c r="B3" s="12">
         <f>Settings!G15</f>
         <v>6.3071759492481047E-2</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="12" t="str">
         <f>Settings!H15&amp;" "&amp;Settings!F15&amp;"-1"</f>
         <v>gN gBiomass-1</v>
       </c>
@@ -4922,7 +4890,7 @@
         <v>6.3071759492481047E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>118</v>
@@ -4933,13 +4901,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="14">
+        <v>234</v>
+      </c>
+      <c r="B4" s="12">
         <f>Settings!G16</f>
         <v>8.7158759525689748E-3</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="12" t="str">
         <f>Settings!H16&amp;" "&amp;Settings!F16&amp;"-1"</f>
         <v>gP gBiomass-1</v>
       </c>
@@ -4948,7 +4916,7 @@
         <v>8.7158759525689748E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>119</v>
@@ -4959,13 +4927,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="14">
+        <v>315</v>
+      </c>
+      <c r="B5" s="12">
         <f>Settings!B11</f>
         <v>873300000000</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
@@ -4973,10 +4941,10 @@
         <v>962649253073.24646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>114</v>
@@ -4984,13 +4952,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="14">
+        <v>316</v>
+      </c>
+      <c r="B6" s="12">
         <f>Settings!B13</f>
         <v>4260000000</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="1">
@@ -4998,10 +4966,10 @@
         <v>4695850014.9914455</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>114</v>
@@ -5009,13 +4977,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="14">
+        <v>235</v>
+      </c>
+      <c r="B7" s="12">
         <f>Settings!B6</f>
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="12" t="str">
         <f>Settings!C6</f>
         <v>deg</v>
       </c>
@@ -5030,20 +4998,20 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="14">
+        <v>236</v>
+      </c>
+      <c r="B8" s="12">
         <f>Settings!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="12" t="str">
         <f>Settings!C7</f>
         <v>deg</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>114</v>
@@ -5051,13 +5019,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="14">
+        <v>250</v>
+      </c>
+      <c r="B9" s="12">
         <f>Settings!B3</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C9" s="14" t="str">
+      <c r="C9" s="12" t="str">
         <f>Settings!C3</f>
         <v>t ha-1 yr-1</v>
       </c>
@@ -5066,10 +5034,10 @@
         <v>24.440189478322718</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>114</v>
@@ -5077,13 +5045,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="14">
+        <v>251</v>
+      </c>
+      <c r="B10" s="12">
         <f>Settings!B5</f>
         <v>91.3125</v>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="12" t="str">
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
@@ -5092,10 +5060,10 @@
         <v>40.733649130537863</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>114</v>
@@ -5103,13 +5071,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="14">
+        <v>237</v>
+      </c>
+      <c r="B11" s="12">
         <f>Settings!B8</f>
         <v>-0.91312499999999996</v>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="12" t="str">
         <f>Settings!C8</f>
         <v>t ha-1 yr-1 deg-1</v>
       </c>
@@ -5118,7 +5086,7 @@
         <v>-0.40733649130537863</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>116</v>
@@ -5129,13 +5097,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="14">
+        <v>238</v>
+      </c>
+      <c r="B12" s="12">
         <f>Settings!B9</f>
         <v>91</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="12" t="str">
         <f>Settings!C5</f>
         <v>t ha-1 yr-1</v>
       </c>
@@ -5144,10 +5112,10 @@
         <v>40.594245813869357</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>114</v>
@@ -5155,13 +5123,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="14">
+        <v>239</v>
+      </c>
+      <c r="B13" s="12">
         <f>Settings!B19</f>
         <v>104900000000</v>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="12" t="str">
         <f>Settings!C19</f>
         <v>t yr-1</v>
       </c>
@@ -5170,10 +5138,10 @@
         <v>46794905339.284569</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>114</v>
@@ -5181,13 +5149,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="14">
+        <v>240</v>
+      </c>
+      <c r="B14" s="12">
         <f>Settings!B21</f>
         <v>8000000000</v>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="12" t="str">
         <f>Settings!C21</f>
         <v>t yr-1</v>
       </c>
@@ -5196,10 +5164,10 @@
         <v>3568724906.7137895</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>114</v>
@@ -5207,13 +5175,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="14">
+        <v>241</v>
+      </c>
+      <c r="B15" s="12">
         <f>Settings!B24</f>
         <v>5</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="12" t="str">
         <f>Settings!C24</f>
         <v>ha emp-1</v>
       </c>
@@ -5222,10 +5190,10 @@
         <v>12.35525</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>113</v>
@@ -5233,18 +5201,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="14">
+        <v>242</v>
+      </c>
+      <c r="B16" s="12">
         <f>Settings!B25</f>
         <v>100000</v>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="12" t="str">
         <f>Settings!C25</f>
         <v>$ yr-1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>113</v>
@@ -5252,18 +5220,18 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="14">
+        <v>243</v>
+      </c>
+      <c r="B17" s="12">
         <f>Settings!B26</f>
         <v>0.05</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="12" t="str">
         <f>Settings!C26</f>
         <v>opex yr-1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>113</v>
@@ -5271,13 +5239,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="14">
+        <v>244</v>
+      </c>
+      <c r="B18" s="12">
         <f>Settings!B22</f>
         <v>250000</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="12" t="str">
         <f>Settings!C22</f>
         <v>$ ha-1</v>
       </c>
@@ -5286,10 +5254,10 @@
         <v>101171.56674288258</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>113</v>
@@ -5297,13 +5265,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="14">
+        <v>245</v>
+      </c>
+      <c r="B19" s="12">
         <f>Settings!B23</f>
         <v>1000000</v>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="12" t="str">
         <f>Settings!C23</f>
         <v>$ ha-1</v>
       </c>
@@ -5312,10 +5280,10 @@
         <v>404686.26697153033</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>113</v>
@@ -5323,13 +5291,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20" s="14">
+        <v>246</v>
+      </c>
+      <c r="B20" s="12">
         <f>Settings!B27</f>
         <v>32500</v>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="12" t="str">
         <f>Settings!C27</f>
         <v>$ ha-1 yr-1</v>
       </c>
@@ -5338,10 +5306,10 @@
         <v>13152.303676574735</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>113</v>
@@ -5349,13 +5317,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" s="14">
+        <v>247</v>
+      </c>
+      <c r="B21" s="12">
         <f>Settings!B28</f>
         <v>70000</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C21" s="12" t="str">
         <f>Settings!C28</f>
         <v>$ ha-1 yr-1</v>
       </c>
@@ -5364,10 +5332,10 @@
         <v>28328.038688007124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>113</v>
@@ -5375,18 +5343,18 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="14">
+        <v>248</v>
+      </c>
+      <c r="B22" s="12">
         <f>Settings!B29</f>
         <v>40</v>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C22" s="12" t="str">
         <f>Settings!C29</f>
         <v>yr</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>113</v>
@@ -5394,18 +5362,18 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23" s="14">
+        <v>249</v>
+      </c>
+      <c r="B23" s="12">
         <f>Settings!B30</f>
         <v>20</v>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C23" s="12" t="str">
         <f>Settings!C30</f>
         <v>yr</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>113</v>
@@ -5413,18 +5381,18 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="14">
+        <v>252</v>
+      </c>
+      <c r="B24" s="12">
         <f>Settings!B31</f>
         <v>0.1</v>
       </c>
-      <c r="C24" s="14" t="str">
+      <c r="C24" s="12" t="str">
         <f>Settings!C31</f>
         <v>prp</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>113</v>
@@ -5432,18 +5400,18 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" s="14">
+        <v>253</v>
+      </c>
+      <c r="B25" s="12">
         <f>Settings!B32</f>
         <v>50</v>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C25" s="12" t="str">
         <f>Settings!C32</f>
         <v>yr</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>113</v>
@@ -5451,18 +5419,18 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="14">
+        <v>254</v>
+      </c>
+      <c r="B26" s="12">
         <f>Settings!B33</f>
         <v>100</v>
       </c>
-      <c r="C26" s="14" t="str">
+      <c r="C26" s="12" t="str">
         <f>Settings!C33</f>
         <v>yr</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>113</v>
@@ -5470,18 +5438,18 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B27" s="14">
+        <v>255</v>
+      </c>
+      <c r="B27" s="12">
         <f>Settings!B34</f>
         <v>200</v>
       </c>
-      <c r="C27" s="14" t="str">
+      <c r="C27" s="12" t="str">
         <f>Settings!C34</f>
         <v>yr</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>113</v>
@@ -5489,7 +5457,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B28" s="1">
         <f>Settings!B17</f>
@@ -5532,30 +5500,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="10">
         <v>146.7885378</v>
@@ -5564,18 +5532,18 @@
         <v>-19.257637299999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="10">
         <v>-80.457524599999999</v>
@@ -5584,21 +5552,21 @@
         <v>26.657368099999999</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3">
         <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="10">
         <v>-74.539295999999993</v>
@@ -5607,11 +5575,11 @@
         <v>40.372374000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5625,16 +5593,16 @@
         <v>37.855311</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" s="10">
         <v>-120.9</v>
@@ -5643,16 +5611,16 @@
         <v>50.8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="10">
         <v>-119.7</v>
@@ -5661,11 +5629,11 @@
         <v>50.8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="10"/>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5679,16 +5647,16 @@
         <v>17.45</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="10"/>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="10">
         <v>120.3</v>
@@ -5697,11 +5665,11 @@
         <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="10"/>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5715,16 +5683,16 @@
         <v>24.520453</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" s="10">
         <v>-121.132778</v>
@@ -5733,16 +5701,16 @@
         <v>37.473056</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5756,11 +5724,11 @@
         <v>27.427821999999999</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="10"/>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5774,16 +5742,16 @@
         <v>37.223215000000003</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14">
         <v>-79.024995599999997</v>
@@ -5792,21 +5760,21 @@
         <v>36.001745499999998</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="10">
         <v>-80.907136899999998</v>
@@ -5815,21 +5783,21 @@
         <v>27.213987700000001</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16">
         <v>-81.965361400000006</v>
@@ -5838,15 +5806,15 @@
         <v>27.8745254</v>
       </c>
       <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
         <v>177</v>
-      </c>
-      <c r="G16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="10">
         <v>-81.880556400000003</v>
@@ -5855,21 +5823,21 @@
         <v>26.674672000000001</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F17">
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="10">
         <v>-80.853750700000006</v>
@@ -5878,21 +5846,21 @@
         <v>27.329125999999999</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19">
         <v>-80.869715799999994</v>
@@ -5901,21 +5869,21 @@
         <v>27.5020904</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20">
         <v>-80.398945299999994</v>
@@ -5924,21 +5892,21 @@
         <v>27.592262000000002</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21">
         <v>-80.399409399999996</v>
@@ -5947,21 +5915,21 @@
         <v>27.602654600000001</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F21">
         <v>2010</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="10">
         <v>-80.479466200000005</v>
@@ -5970,21 +5938,21 @@
         <v>27.609477500000001</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="10">
         <v>-81.445307999999997</v>
@@ -5993,21 +5961,21 @@
         <v>28.5647631</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23">
         <v>2009</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" s="10">
         <v>-82.477197000000004</v>
@@ -6016,21 +5984,21 @@
         <v>29.923072999999999</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="10">
         <v>-85.024425500000007</v>
@@ -6039,21 +6007,21 @@
         <v>34.827157800000002</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26">
         <v>-76.535835800000001</v>
@@ -6062,21 +6030,21 @@
         <v>39.197844400000001</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>-76.519799699999993</v>
@@ -6085,21 +6053,21 @@
         <v>39.241779600000001</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27">
         <v>2015</v>
       </c>
       <c r="G27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>-76.262986100000006</v>
@@ -6108,21 +6076,21 @@
         <v>39.7560024</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="10">
         <v>-73.828925999999996</v>
@@ -6131,21 +6099,21 @@
         <v>40.584173399999997</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="10">
         <v>3.5740601999999999</v>
@@ -6154,16 +6122,16 @@
         <v>51.082552</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E30" s="10"/>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B31" s="10">
         <v>16.430962999999998</v>
@@ -6172,11 +6140,11 @@
         <v>48.197578999999998</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31" s="10"/>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6190,12 +6158,12 @@
         <v>-19.3</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B33" s="10">
         <v>-76.900000000000006</v>
@@ -6204,11 +6172,11 @@
         <v>39</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E33" s="10"/>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6222,11 +6190,11 @@
         <v>38.784427000000001</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" s="10"/>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6240,10 +6208,10 @@
         <v>39.131529</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6257,10 +6225,10 @@
         <v>39.449888999999999</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6274,11 +6242,11 @@
         <v>38.609043200000002</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E37" s="10"/>
       <c r="G37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6292,16 +6260,16 @@
         <v>37.247632000000003</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6315,16 +6283,16 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F39">
         <v>2009</v>
       </c>
       <c r="G39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6338,16 +6306,16 @@
         <v>36.080810999999997</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6361,16 +6329,16 @@
         <v>29.645575999999998</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" s="10"/>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B42" s="10">
         <v>-98.806156999999999</v>
@@ -6379,21 +6347,21 @@
         <v>29.491195399999999</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B43" s="10">
         <v>16.163287777777775</v>
@@ -6402,16 +6370,16 @@
         <v>51.627626666666664</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E43" s="10"/>
       <c r="G43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B44">
         <v>-103.3499748</v>
@@ -6420,21 +6388,21 @@
         <v>34.178595899999998</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B45" s="10">
         <v>-75.900000000000006</v>
@@ -6443,11 +6411,11 @@
         <v>39</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E45" s="10"/>
       <c r="G45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6477,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6502,361 +6470,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="A1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="12">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="12">
         <v>365.25</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="str">
+      <c r="A3" s="5" t="str">
         <f>A2</f>
         <v>ATS productivity (high lat)</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <f>B2*$G$2*$G$3/$G$4</f>
         <v>54.787500000000001</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <f>100*100</f>
         <v>10000</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="12">
         <v>25</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
         <v>1000000</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="12" t="str">
+      <c r="A5" s="5" t="str">
         <f>A4</f>
         <v>ATS productivity (equator)</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <f>B4*$G$2*$G$3/$G$4</f>
         <v>91.3125</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="F5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="D5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="12">
         <v>1000</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="A6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="12">
         <v>40</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>1000000000000000</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="F7" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="D7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="12">
         <v>1000</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="12">
         <f>(B5-B3)/(B7-B6)</f>
         <v>-0.91312499999999996</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="F8" t="s">
+      <c r="D8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="12">
         <f>(G9+2*G12)/G9</f>
         <v>3.6641245524935475</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="12">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="12">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="13">
-        <v>91</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="F9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="13">
-        <v>12.010999999999999</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="B10" s="12">
+        <v>410</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.008</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="13">
-        <v>410</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1.008</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="12">
         <f>B10*G31</f>
         <v>873300000000</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="12"/>
+      <c r="F11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>14.007</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="D12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>15.9994</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="A13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="12">
         <f>B12*G31</f>
         <v>4260000000</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>30.97</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="F14" s="12" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f>D38</f>
         <v>0.35830664911296195</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="5" t="s">
         <v>108</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="A15" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <f>D41</f>
         <v>6.3071759492481047E-2</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="5" t="s">
         <v>109</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="12">
         <v>5</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <f>D42</f>
         <v>8.7158759525689748E-3</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="5" t="s">
         <v>110</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="12">
         <v>75845109000000</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>288</v>
+      <c r="D17" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>0.26417200000000002</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -6866,22 +6838,22 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="A18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="12">
         <v>104.9</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>283</v>
+      <c r="D18" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>2.47105</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -6890,21 +6862,21 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="12">
         <f>B18*$G$6/$G$4</f>
         <v>104900000000</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <f>1/G18</f>
         <v>0.40468626697153032</v>
       </c>
@@ -6913,22 +6885,22 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="12">
         <v>8</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>283</v>
+      <c r="D20" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <f>1/2.54</f>
         <v>0.39370078740157477</v>
       </c>
@@ -6937,94 +6909,94 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="17">
+      <c r="A21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="12">
         <f>B20*$G$6/$G$4</f>
         <v>8000000000</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="14">
+        <v>182</v>
+      </c>
+      <c r="G21" s="12">
         <v>3.28084</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>250000</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>260</v>
+      <c r="D22" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="14">
+        <v>204</v>
+      </c>
+      <c r="G22" s="12">
         <v>1.3079499999999999</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>207</v>
+      <c r="H22" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>1000000</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>260</v>
+      <c r="D23" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <f>1000000*G24/2000</f>
         <v>1.1023099999999999</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>5</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>260</v>
+      <c r="D24" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <f>0.00220462</f>
         <v>2.20462E-3</v>
       </c>
@@ -7034,22 +7006,22 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>100000</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>260</v>
+      <c r="D25" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>9.2902999999999998E-6</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -7057,22 +7029,22 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>0.05</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>260</v>
+      <c r="D26" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>5280</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -7080,21 +7052,21 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <f>(B$25/B$24)+B22*B$26</f>
         <v>32500</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="5"/>
       <c r="F27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>0.453592</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -7103,21 +7075,21 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <f>(B$25/B$24)+B23*B$26</f>
         <v>70000</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="5"/>
       <c r="F28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>6.4515999999999998E-4</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -7125,17 +7097,17 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="A29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>260</v>
+      <c r="D29" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>14</v>
@@ -7144,72 +7116,72 @@
         <v>1.60934</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="13">
+      <c r="A30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="12">
         <v>20</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>260</v>
+      <c r="D30" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G30" s="14">
+        <v>261</v>
+      </c>
+      <c r="G30" s="12">
         <v>1000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>0.1</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="C31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" s="12">
         <v>2130000000</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>291</v>
+      <c r="H31" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="13">
+      <c r="A32" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="12">
         <v>50</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>260</v>
+      <c r="D32" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <f>1000/G27</f>
         <v>2204.6244201837776</v>
       </c>
@@ -7218,75 +7190,80 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="13">
+      <c r="A33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="12">
         <v>100</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>260</v>
+      <c r="D33" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <f>G32/2000</f>
         <v>1.1023122100918887</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="A34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="12">
         <v>200</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="D34" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="12">
         <f>G33*G18</f>
         <v>2.7238685867475616</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" s="22"/>
+      <c r="H34" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="1"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -7295,51 +7272,54 @@
       <c r="D37" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>106</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="12">
         <f>G9*B38</f>
         <v>1273.1659999999999</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <f>C38/C$43</f>
         <v>0.35830664911296195</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B39" s="14">
+        <v>306</v>
+      </c>
+      <c r="B39" s="12">
         <v>263</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="12">
         <f>G10*B39</f>
         <v>265.10399999999998</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <f>C39/C$43</f>
         <v>7.4608123297702472E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B40" s="14">
+        <v>307</v>
+      </c>
+      <c r="B40" s="12">
         <v>110</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="12">
         <f>G12*B40</f>
         <v>1759.934</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <f>C40/C$43</f>
         <v>0.49529759214428565</v>
       </c>
@@ -7349,14 +7329,14 @@
       <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="12">
         <v>16</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="12">
         <f>G11*B41</f>
         <v>224.11199999999999</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <f>C41/C$43</f>
         <v>6.3071759492481047E-2</v>
       </c>
@@ -7453,10 +7433,10 @@
         <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -7499,10 +7479,10 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -7551,7 +7531,7 @@
         <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S3" s="1">
         <v>53.4</v>
@@ -7606,7 +7586,7 @@
         <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S4" s="1">
         <f>'R Variables'!$B$11*Wetlands!S3+'R Variables'!$B$12</f>
@@ -7705,7 +7685,7 @@
         <v>0.35</v>
       </c>
       <c r="T6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -7788,7 +7768,7 @@
         <v>3785.41</v>
       </c>
       <c r="R8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S8" s="1">
         <v>0.4</v>
@@ -7840,7 +7820,7 @@
         <v>0.26</v>
       </c>
       <c r="T9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7907,7 +7887,7 @@
       </c>
       <c r="L11" s="2"/>
       <c r="R11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S11" s="1">
         <f>S7/Settings!G15</f>
@@ -7919,7 +7899,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="R12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S12" s="1">
         <f>S10/Settings!$G$16</f>
@@ -7940,47 +7920,47 @@
       </c>
       <c r="L13" s="2"/>
       <c r="R13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S13" s="1">
         <f>$S$4/S11</f>
         <v>2.7184652379314733</v>
       </c>
       <c r="T13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="R14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S14" s="1">
         <f>$S$4/S12</f>
         <v>3.5399132100486055</v>
       </c>
       <c r="T14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="R16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="18:20">
       <c r="R17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="18:20">
       <c r="R18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S18" s="1">
         <v>7.3</v>
@@ -7991,7 +7971,7 @@
     </row>
     <row r="19" spans="18:20">
       <c r="R19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S19" s="1">
         <f>'R Variables'!$B$11*Wetlands!S18+'R Variables'!$B$12</f>
@@ -8003,7 +7983,7 @@
     </row>
     <row r="20" spans="18:20">
       <c r="R20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S20" s="1">
         <v>25</v>
@@ -8014,7 +7994,7 @@
     </row>
     <row r="21" spans="18:20">
       <c r="R21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S21" s="1">
         <f>S20/Settings!G3</f>
@@ -8026,48 +8006,48 @@
     </row>
     <row r="22" spans="18:20">
       <c r="R22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S22" s="1">
         <v>13</v>
       </c>
       <c r="T22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="18:20">
       <c r="R23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S23" s="1">
         <f>S22*Settings!$G$7</f>
         <v>13000</v>
       </c>
       <c r="T23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="18:20">
       <c r="R24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S24" s="1">
         <v>1.36</v>
       </c>
       <c r="T24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="18:20">
       <c r="R25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S25" s="1">
         <f>S24*$S$23</f>
         <v>17680</v>
       </c>
       <c r="T25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="18:20">
@@ -8078,7 +8058,7 @@
         <v>0.19</v>
       </c>
       <c r="T26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="18:20">
@@ -8090,7 +8070,7 @@
         <v>3359.2</v>
       </c>
       <c r="T27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="18:20">
@@ -8102,7 +8082,7 @@
         <v>1226947.8</v>
       </c>
       <c r="T28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="18:20">
@@ -8131,7 +8111,7 @@
     </row>
     <row r="31" spans="18:20">
       <c r="R31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S31" s="1" t="e">
         <f>S30/Settings!$G$16</f>
@@ -8143,23 +8123,23 @@
     </row>
     <row r="33" spans="18:20">
       <c r="R33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="18:20">
       <c r="R34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="18:20">
       <c r="R35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S35" s="1">
         <v>24.8</v>
@@ -8170,7 +8150,7 @@
     </row>
     <row r="36" spans="18:20">
       <c r="R36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S36" s="1">
         <f>'R Variables'!$B$11*Wetlands!S35+'R Variables'!$B$12</f>
@@ -8182,7 +8162,7 @@
     </row>
     <row r="37" spans="18:20">
       <c r="R37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S37" s="1">
         <v>1.07</v>
@@ -8193,48 +8173,48 @@
     </row>
     <row r="38" spans="18:20">
       <c r="R38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S38" s="1">
         <v>4000</v>
       </c>
       <c r="T38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="18:20">
       <c r="R39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S39" s="1">
         <f>S38*Settings!$G$7</f>
         <v>4000000</v>
       </c>
       <c r="T39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="18:20">
       <c r="R40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S40" s="1">
         <v>1.9</v>
       </c>
       <c r="T40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="18:20">
       <c r="R41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S41" s="1">
         <f>S40*$S$23</f>
         <v>24700</v>
       </c>
       <c r="T41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="18:20">
@@ -8245,7 +8225,7 @@
         <v>0.44</v>
       </c>
       <c r="T42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="18:20">
@@ -8257,7 +8237,7 @@
         <v>10868</v>
       </c>
       <c r="T43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="18:20">
@@ -8269,7 +8249,7 @@
         <v>3969537</v>
       </c>
       <c r="T44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="18:20">
@@ -8298,7 +8278,7 @@
     </row>
     <row r="47" spans="18:20">
       <c r="R47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S47" s="1" t="e">
         <f>S46/Settings!$G$16</f>
@@ -8345,7 +8325,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
@@ -8354,12 +8334,12 @@
         <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1">
         <f>[1]A!$R$66</f>
@@ -8369,24 +8349,24 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1">
         <f>'Highway Costs'!B2*Settings!G30*Settings!G29</f>
         <v>14107553603.434601</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -8395,24 +8375,24 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1">
         <f>B4/Settings!G21</f>
         <v>3.6575998829568039</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B3</f>
@@ -8424,7 +8404,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" s="1">
         <f>B6/Settings!G3</f>
@@ -8436,7 +8416,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B8" s="1">
         <f>1000*[2]HF2!$E$67</f>
@@ -8446,12 +8426,12 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B9" s="1">
         <f>1000*[2]HF2!$I$67</f>
@@ -8461,12 +8441,12 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B10" s="1">
         <f>B9+B8</f>
@@ -8478,14 +8458,14 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B11" s="1">
         <f>B10/B7</f>
         <v>30400.509579137084</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4">
